--- a/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
+++ b/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -200,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -442,6 +443,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29684,7 +29686,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1069"/>
+  <dimension ref="A1:AP1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -30036,38 +30038,42 @@
       <c r="AP4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="90" t="n">
-        <v>46057</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="91" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>911.7</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>918.16</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>941.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4741.86</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>5.55</v>
+      <c r="H5" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -30155,13 +30161,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>911.7</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1836.33</v>
+        <v>918.16</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -30169,15 +30175,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>11.11</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="90" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -30193,10 +30199,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>888.4</v>
+        <v>911.7</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1789.42</v>
+        <v>1836.33</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -30204,10 +30210,10 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>10.83</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="10">
@@ -30260,13 +30266,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>888.4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>894.6900000000001</v>
+        <v>1789.42</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -30274,15 +30280,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.89</v>
+        <v>1.79</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>5.4</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="90" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -30295,13 +30301,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>920.6</v>
+        <v>888.4</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3708.49</v>
+        <v>894.6900000000001</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -30309,10 +30315,10 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.68</v>
+        <v>0.89</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>22.41</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13">
@@ -30330,13 +30336,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>920.6</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>927.11</v>
+        <v>3708.49</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -30344,15 +30350,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.92</v>
+        <v>3.68</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>5.59</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="90" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -30365,13 +30371,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>964.7</v>
+        <v>920.6</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4857.68</v>
+        <v>927.11</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -30379,15 +30385,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>4.83</v>
+        <v>0.92</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>29.35</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="90" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -30403,10 +30409,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>990.85</v>
+        <v>964.7</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4989.33</v>
+        <v>4857.68</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -30414,15 +30420,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4.95</v>
+        <v>4.83</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>30.13</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="90" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -30438,10 +30444,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>978.4</v>
+        <v>990.85</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4926.64</v>
+        <v>4989.33</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -30449,15 +30455,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>4.9</v>
+        <v>4.95</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>29.74</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="90" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -30470,13 +30476,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1009.5</v>
+        <v>978.4</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1016.64</v>
+        <v>4926.64</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -30484,10 +30490,10 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>6.13</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="18">
@@ -30505,13 +30511,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1009.5</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4066.61</v>
+        <v>1016.64</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -30519,15 +30525,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4.02</v>
+        <v>1.01</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>24.59</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="90" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -30540,13 +30546,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>980.85</v>
+        <v>1009.5</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4938.97</v>
+        <v>4066.61</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -30554,15 +30560,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4.88</v>
+        <v>4.02</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>29.84</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="90" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -30578,10 +30584,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>979.7</v>
+        <v>980.85</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4933.27</v>
+        <v>4938.97</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -30589,19 +30595,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="90" t="n">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -30613,10 +30619,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>968</v>
+        <v>979.7</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4874.32</v>
+        <v>4933.27</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -30624,19 +30630,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.81</v>
+        <v>4.87</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>29.51</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="90" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -30645,13 +30651,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>969.9</v>
+        <v>968</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>976.78</v>
+        <v>4874.32</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -30659,10 +30665,10 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.97</v>
+        <v>4.81</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>5.91</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="23">
@@ -30680,13 +30686,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>969.9</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3907.13</v>
+        <v>976.78</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -30694,15 +30700,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>3.9</v>
+        <v>0.97</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>23.63</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="90" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -30715,13 +30721,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>973</v>
+        <v>969.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>6859.34</v>
+        <v>3907.13</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -30729,15 +30735,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>6.83</v>
+        <v>3.9</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>41.51</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="90" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -30750,13 +30756,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>979.7</v>
+        <v>973</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>986.64</v>
+        <v>6859.34</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -30764,15 +30770,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.98</v>
+        <v>6.83</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>5.96</v>
+        <v>41.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="90" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -30788,10 +30794,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1038.9</v>
+        <v>979.7</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1046.26</v>
+        <v>986.64</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -30799,10 +30805,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>6.32</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="27">
@@ -30820,13 +30826,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>1038.9</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3138.75</v>
+        <v>1046.26</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -30834,10 +30840,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>18.95</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="28">
@@ -30855,13 +30861,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1038.9</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1046.26</v>
+        <v>3138.75</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -30869,15 +30875,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>6.32</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="90" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -30893,10 +30899,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1077.2</v>
+        <v>1038.9</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1084.84</v>
+        <v>1046.26</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -30904,10 +30910,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>6.56</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="30">
@@ -30963,10 +30969,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1077.3</v>
+        <v>1077.2</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1084.94</v>
+        <v>1084.84</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -30998,10 +31004,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1077.2</v>
+        <v>1077.3</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1084.84</v>
+        <v>1084.94</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -31033,10 +31039,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1077.1</v>
+        <v>1077.2</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1084.74</v>
+        <v>1084.84</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -31052,11 +31058,11 @@
     </row>
     <row r="34">
       <c r="A34" s="90" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -31065,13 +31071,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1089.65</v>
+        <v>1077.1</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>5486.92</v>
+        <v>1084.74</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -31079,15 +31085,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>5.48</v>
+        <v>1.08</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>33.19</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="90" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -31100,13 +31106,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1091.05</v>
+        <v>1089.65</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2197.59</v>
+        <v>5486.92</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -31114,19 +31120,19 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.17</v>
+        <v>5.48</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>13.32</v>
+        <v>33.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="90" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -31135,13 +31141,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1023.4</v>
+        <v>1091.05</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>4122.63</v>
+        <v>2197.59</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -31149,10 +31155,10 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>4.11</v>
+        <v>2.17</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>24.92</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="37">
@@ -31170,13 +31176,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1023.4</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1030.64</v>
+        <v>4122.63</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -31184,19 +31190,19 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.02</v>
+        <v>4.11</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>6.22</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="90" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
@@ -31205,13 +31211,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1037.75</v>
+        <v>1023.4</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>5225.58</v>
+        <v>1030.64</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -31219,19 +31225,19 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>5.17</v>
+        <v>1.02</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>31.66</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="90" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -31240,13 +31246,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1047.3</v>
+        <v>1037.75</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>4218.91</v>
+        <v>5225.58</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -31254,10 +31260,10 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>4.17</v>
+        <v>5.17</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>25.54</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="40">
@@ -31275,13 +31281,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1047.4</v>
+        <v>1047.3</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1054.82</v>
+        <v>4218.91</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -31289,115 +31295,50 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1.05</v>
+        <v>4.17</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>6.37</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="58" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B41" s="59" t="inlineStr">
+      <c r="A41" s="90" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C41" s="59" t="inlineStr">
+      <c r="C41" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="63" t="n">
-        <v>901.14</v>
-      </c>
-      <c r="F41" s="62">
-        <f>E5*D5 + sum(H5:I5)</f>
-        <v/>
-      </c>
-      <c r="G41" s="59" t="inlineStr">
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1047.4</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1054.82</v>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="60" t="n"/>
-      <c r="I41" s="63" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J41" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K41" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L41" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M41" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N41" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O41" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P41" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q41" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R41" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S41" s="68">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T41" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U41" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V41" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="69" t="n"/>
-      <c r="X41" s="69" t="n"/>
-      <c r="Y41" s="68">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="69" t="n"/>
-      <c r="AA41" s="69" t="n"/>
-      <c r="AB41" s="70" t="n"/>
-      <c r="AC41" s="66">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD41" s="71" t="n"/>
+      <c r="H41" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>6.37</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="58" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B42" s="59" t="inlineStr">
         <is>
@@ -31410,88 +31351,87 @@
         </is>
       </c>
       <c r="D42" s="60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="63" t="n">
-        <v>891.6799999999999</v>
-      </c>
-      <c r="F42" s="63" t="n">
-        <v>3566.71</v>
+        <v>901.14</v>
+      </c>
+      <c r="F42" s="62">
+        <f>E5*D5 + sum(H5:I5)</f>
+        <v/>
       </c>
       <c r="G42" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="60" t="n">
-        <v>3.56</v>
-      </c>
+      <c r="H42" s="60" t="n"/>
       <c r="I42" s="63" t="n">
-        <v>21.55</v>
+        <v>31.7</v>
       </c>
       <c r="J42" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L42" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M42" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N42" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O42" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P42" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R42" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S42" s="68">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T42" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U42" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V42" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W42" s="69" t="n"/>
       <c r="X42" s="69" t="n"/>
       <c r="Y42" s="68">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z42" s="69" t="n"/>
       <c r="AA42" s="69" t="n"/>
       <c r="AB42" s="70" t="n"/>
       <c r="AC42" s="66">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD42" s="71" t="n"/>
@@ -31511,13 +31451,13 @@
         </is>
       </c>
       <c r="D43" s="60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43" s="63" t="n">
         <v>891.6799999999999</v>
       </c>
       <c r="F43" s="63" t="n">
-        <v>891.6799999999999</v>
+        <v>3566.71</v>
       </c>
       <c r="G43" s="59" t="inlineStr">
         <is>
@@ -31525,81 +31465,81 @@
         </is>
       </c>
       <c r="H43" s="60" t="n">
-        <v>0.89</v>
+        <v>3.56</v>
       </c>
       <c r="I43" s="63" t="n">
-        <v>5.39</v>
+        <v>21.55</v>
       </c>
       <c r="J43" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L43" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M43" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N43" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O43" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P43" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R43" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S43" s="68">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T43" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U43" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V43" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W43" s="69" t="n"/>
       <c r="X43" s="69" t="n"/>
       <c r="Y43" s="68">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z43" s="69" t="n"/>
       <c r="AA43" s="69" t="n"/>
       <c r="AB43" s="70" t="n"/>
       <c r="AC43" s="66">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD43" s="71" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="58" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B44" s="59" t="inlineStr">
         <is>
@@ -31612,13 +31552,13 @@
         </is>
       </c>
       <c r="D44" s="60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="63" t="n">
-        <v>854.46</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="F44" s="63" t="n">
-        <v>4272.28</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="G44" s="59" t="inlineStr">
         <is>
@@ -31626,81 +31566,81 @@
         </is>
       </c>
       <c r="H44" s="60" t="n">
-        <v>4.23</v>
+        <v>0.89</v>
       </c>
       <c r="I44" s="63" t="n">
-        <v>25.8</v>
+        <v>5.39</v>
       </c>
       <c r="J44" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L44" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M44" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N44" s="67">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O44" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P44" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R44" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S44" s="68">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T44" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U44" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V44" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W44" s="69" t="n"/>
       <c r="X44" s="69" t="n"/>
       <c r="Y44" s="68">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z44" s="69" t="n"/>
       <c r="AA44" s="69" t="n"/>
       <c r="AB44" s="70" t="n"/>
       <c r="AC44" s="66">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD44" s="71" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="58" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B45" s="59" t="inlineStr">
         <is>
@@ -31713,13 +31653,13 @@
         </is>
       </c>
       <c r="D45" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E45" s="63" t="n">
-        <v>867.91</v>
+        <v>854.46</v>
       </c>
       <c r="F45" s="63" t="n">
-        <v>8679.07</v>
+        <v>4272.28</v>
       </c>
       <c r="G45" s="59" t="inlineStr">
         <is>
@@ -31727,81 +31667,81 @@
         </is>
       </c>
       <c r="H45" s="60" t="n">
-        <v>8.6</v>
+        <v>4.23</v>
       </c>
       <c r="I45" s="63" t="n">
-        <v>52.47</v>
+        <v>25.8</v>
       </c>
       <c r="J45" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L45" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M45" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N45" s="67">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O45" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P45" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R45" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S45" s="68">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T45" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U45" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V45" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W45" s="69" t="n"/>
       <c r="X45" s="69" t="n"/>
       <c r="Y45" s="68">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z45" s="69" t="n"/>
       <c r="AA45" s="69" t="n"/>
       <c r="AB45" s="70" t="n"/>
       <c r="AC45" s="66">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD45" s="71" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="58" t="n">
-        <v>45708</v>
+        <v>45712</v>
       </c>
       <c r="B46" s="59" t="inlineStr">
         <is>
@@ -31817,10 +31757,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="63" t="n">
-        <v>874.63</v>
+        <v>867.91</v>
       </c>
       <c r="F46" s="63" t="n">
-        <v>8746.309999999999</v>
+        <v>8679.07</v>
       </c>
       <c r="G46" s="59" t="inlineStr">
         <is>
@@ -31828,81 +31768,81 @@
         </is>
       </c>
       <c r="H46" s="60" t="n">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
       <c r="I46" s="63" t="n">
-        <v>52.66</v>
+        <v>52.47</v>
       </c>
       <c r="J46" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L46" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M46" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N46" s="67">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O46" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P46" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R46" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S46" s="68">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T46" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U46" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V46" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W46" s="69" t="n"/>
       <c r="X46" s="69" t="n"/>
       <c r="Y46" s="68">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z46" s="69" t="n"/>
       <c r="AA46" s="69" t="n"/>
       <c r="AB46" s="70" t="n"/>
       <c r="AC46" s="66">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD46" s="71" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="58" t="n">
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B47" s="59" t="inlineStr">
         <is>
@@ -31918,10 +31858,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="63" t="n">
-        <v>909.41</v>
+        <v>874.63</v>
       </c>
       <c r="F47" s="63" t="n">
-        <v>9094.059999999999</v>
+        <v>8746.309999999999</v>
       </c>
       <c r="G47" s="59" t="inlineStr">
         <is>
@@ -31929,74 +31869,74 @@
         </is>
       </c>
       <c r="H47" s="60" t="n">
-        <v>9.02</v>
+        <v>8.65</v>
       </c>
       <c r="I47" s="63" t="n">
-        <v>55.04</v>
+        <v>52.66</v>
       </c>
       <c r="J47" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L47" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M47" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N47" s="67">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O47" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P47" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R47" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S47" s="68">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T47" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U47" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V47" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W47" s="69" t="n"/>
       <c r="X47" s="69" t="n"/>
       <c r="Y47" s="68">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z47" s="69" t="n"/>
       <c r="AA47" s="69" t="n"/>
       <c r="AB47" s="70" t="n"/>
       <c r="AC47" s="66">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD47" s="71" t="n"/>
@@ -32016,13 +31956,13 @@
         </is>
       </c>
       <c r="D48" s="60" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E48" s="63" t="n">
-        <v>909.46</v>
+        <v>909.41</v>
       </c>
       <c r="F48" s="63" t="n">
-        <v>2728.37</v>
+        <v>9094.059999999999</v>
       </c>
       <c r="G48" s="59" t="inlineStr">
         <is>
@@ -32030,81 +31970,81 @@
         </is>
       </c>
       <c r="H48" s="60" t="n">
-        <v>2.71</v>
+        <v>9.02</v>
       </c>
       <c r="I48" s="63" t="n">
-        <v>16.51</v>
+        <v>55.04</v>
       </c>
       <c r="J48" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L48" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M48" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N48" s="67">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O48" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P48" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R48" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S48" s="68">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T48" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U48" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V48" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W48" s="69" t="n"/>
       <c r="X48" s="69" t="n"/>
       <c r="Y48" s="68">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z48" s="69" t="n"/>
       <c r="AA48" s="69" t="n"/>
       <c r="AB48" s="70" t="n"/>
       <c r="AC48" s="66">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD48" s="71" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="58" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B49" s="59" t="inlineStr">
         <is>
@@ -32117,13 +32057,13 @@
         </is>
       </c>
       <c r="D49" s="60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="63" t="n">
-        <v>918.3200000000001</v>
+        <v>909.46</v>
       </c>
       <c r="F49" s="63" t="n">
-        <v>1836.63</v>
+        <v>2728.37</v>
       </c>
       <c r="G49" s="59" t="inlineStr">
         <is>
@@ -32131,74 +32071,74 @@
         </is>
       </c>
       <c r="H49" s="60" t="n">
-        <v>1.82</v>
+        <v>2.71</v>
       </c>
       <c r="I49" s="63" t="n">
-        <v>11.11</v>
+        <v>16.51</v>
       </c>
       <c r="J49" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L49" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M49" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N49" s="67">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O49" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P49" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R49" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S49" s="68">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T49" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U49" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V49" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W49" s="69" t="n"/>
       <c r="X49" s="69" t="n"/>
       <c r="Y49" s="68">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z49" s="69" t="n"/>
       <c r="AA49" s="69" t="n"/>
       <c r="AB49" s="70" t="n"/>
       <c r="AC49" s="66">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD49" s="71" t="n"/>
@@ -32218,13 +32158,13 @@
         </is>
       </c>
       <c r="D50" s="60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E50" s="63" t="n">
-        <v>918.47</v>
+        <v>918.3200000000001</v>
       </c>
       <c r="F50" s="63" t="n">
-        <v>7347.72</v>
+        <v>1836.63</v>
       </c>
       <c r="G50" s="59" t="inlineStr">
         <is>
@@ -32232,81 +32172,81 @@
         </is>
       </c>
       <c r="H50" s="60" t="n">
-        <v>7.31</v>
+        <v>1.82</v>
       </c>
       <c r="I50" s="63" t="n">
-        <v>44.41</v>
+        <v>11.11</v>
       </c>
       <c r="J50" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L50" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M50" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N50" s="67">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O50" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P50" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R50" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S50" s="68">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T50" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U50" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V50" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W50" s="69" t="n"/>
       <c r="X50" s="69" t="n"/>
       <c r="Y50" s="68">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z50" s="69" t="n"/>
       <c r="AA50" s="69" t="n"/>
       <c r="AB50" s="70" t="n"/>
       <c r="AC50" s="66">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD50" s="71" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="58" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B51" s="59" t="inlineStr">
         <is>
@@ -32319,13 +32259,13 @@
         </is>
       </c>
       <c r="D51" s="60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E51" s="63" t="n">
-        <v>948.73</v>
+        <v>918.47</v>
       </c>
       <c r="F51" s="63" t="n">
-        <v>1897.46</v>
+        <v>7347.72</v>
       </c>
       <c r="G51" s="59" t="inlineStr">
         <is>
@@ -32333,74 +32273,74 @@
         </is>
       </c>
       <c r="H51" s="60" t="n">
-        <v>1.88</v>
+        <v>7.31</v>
       </c>
       <c r="I51" s="63" t="n">
-        <v>11.48</v>
+        <v>44.41</v>
       </c>
       <c r="J51" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L51" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M51" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N51" s="67">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O51" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P51" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R51" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S51" s="68">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T51" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U51" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V51" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W51" s="69" t="n"/>
       <c r="X51" s="69" t="n"/>
       <c r="Y51" s="68">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z51" s="69" t="n"/>
       <c r="AA51" s="69" t="n"/>
       <c r="AB51" s="70" t="n"/>
       <c r="AC51" s="66">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD51" s="71" t="n"/>
@@ -32420,13 +32360,13 @@
         </is>
       </c>
       <c r="D52" s="60" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E52" s="63" t="n">
-        <v>948.48</v>
+        <v>948.73</v>
       </c>
       <c r="F52" s="63" t="n">
-        <v>6639.33</v>
+        <v>1897.46</v>
       </c>
       <c r="G52" s="59" t="inlineStr">
         <is>
@@ -32434,74 +32374,74 @@
         </is>
       </c>
       <c r="H52" s="60" t="n">
-        <v>6.59</v>
+        <v>1.88</v>
       </c>
       <c r="I52" s="63" t="n">
-        <v>40.14</v>
+        <v>11.48</v>
       </c>
       <c r="J52" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L52" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M52" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N52" s="67">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O52" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P52" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R52" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S52" s="68">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T52" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U52" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V52" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W52" s="69" t="n"/>
       <c r="X52" s="69" t="n"/>
       <c r="Y52" s="68">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z52" s="69" t="n"/>
       <c r="AA52" s="69" t="n"/>
       <c r="AB52" s="70" t="n"/>
       <c r="AC52" s="66">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD52" s="71" t="n"/>
@@ -32521,13 +32461,13 @@
         </is>
       </c>
       <c r="D53" s="60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E53" s="63" t="n">
-        <v>948.71</v>
+        <v>948.48</v>
       </c>
       <c r="F53" s="63" t="n">
-        <v>948.71</v>
+        <v>6639.33</v>
       </c>
       <c r="G53" s="59" t="inlineStr">
         <is>
@@ -32535,81 +32475,81 @@
         </is>
       </c>
       <c r="H53" s="60" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="I53" s="63" t="n">
-        <v>5.72</v>
+        <v>40.14</v>
       </c>
       <c r="J53" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L53" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M53" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N53" s="67">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O53" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P53" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R53" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S53" s="68">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T53" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U53" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V53" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W53" s="69" t="n"/>
       <c r="X53" s="69" t="n"/>
       <c r="Y53" s="68">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z53" s="69" t="n"/>
       <c r="AA53" s="69" t="n"/>
       <c r="AB53" s="70" t="n"/>
       <c r="AC53" s="66">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD53" s="71" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="58" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B54" s="59" t="inlineStr">
         <is>
@@ -32622,13 +32562,13 @@
         </is>
       </c>
       <c r="D54" s="60" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E54" s="63" t="n">
-        <v>978.6900000000001</v>
+        <v>948.71</v>
       </c>
       <c r="F54" s="63" t="n">
-        <v>9786.860000000001</v>
+        <v>948.71</v>
       </c>
       <c r="G54" s="59" t="inlineStr">
         <is>
@@ -32636,81 +32576,81 @@
         </is>
       </c>
       <c r="H54" s="60" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I54" s="63" t="n">
-        <v>59.16</v>
+        <v>5.72</v>
       </c>
       <c r="J54" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L54" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M54" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N54" s="67">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O54" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P54" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R54" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S54" s="68">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T54" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U54" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V54" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W54" s="69" t="n"/>
       <c r="X54" s="69" t="n"/>
       <c r="Y54" s="68">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z54" s="69" t="n"/>
       <c r="AA54" s="69" t="n"/>
       <c r="AB54" s="70" t="n"/>
       <c r="AC54" s="66">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD54" s="71" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="58" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B55" s="59" t="inlineStr">
         <is>
@@ -32723,13 +32663,13 @@
         </is>
       </c>
       <c r="D55" s="60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E55" s="63" t="n">
-        <v>1019.62</v>
+        <v>978.6900000000001</v>
       </c>
       <c r="F55" s="63" t="n">
-        <v>1019.62</v>
+        <v>9786.860000000001</v>
       </c>
       <c r="G55" s="59" t="inlineStr">
         <is>
@@ -32737,74 +32677,74 @@
         </is>
       </c>
       <c r="H55" s="60" t="n">
-        <v>1.01</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I55" s="63" t="n">
-        <v>6.16</v>
+        <v>59.16</v>
       </c>
       <c r="J55" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L55" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M55" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N55" s="67">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O55" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P55" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R55" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S55" s="68">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T55" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U55" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V55" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W55" s="69" t="n"/>
       <c r="X55" s="69" t="n"/>
       <c r="Y55" s="68">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z55" s="69" t="n"/>
       <c r="AA55" s="69" t="n"/>
       <c r="AB55" s="70" t="n"/>
       <c r="AC55" s="66">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD55" s="71" t="n"/>
@@ -32824,13 +32764,13 @@
         </is>
       </c>
       <c r="D56" s="60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" s="63" t="n">
-        <v>1019.68</v>
+        <v>1019.62</v>
       </c>
       <c r="F56" s="63" t="n">
-        <v>3059.03</v>
+        <v>1019.62</v>
       </c>
       <c r="G56" s="59" t="inlineStr">
         <is>
@@ -32838,74 +32778,74 @@
         </is>
       </c>
       <c r="H56" s="60" t="n">
-        <v>3.04</v>
+        <v>1.01</v>
       </c>
       <c r="I56" s="63" t="n">
-        <v>18.49</v>
+        <v>6.16</v>
       </c>
       <c r="J56" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L56" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M56" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N56" s="67">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O56" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P56" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R56" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S56" s="68">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T56" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U56" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V56" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W56" s="69" t="n"/>
       <c r="X56" s="69" t="n"/>
       <c r="Y56" s="68">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z56" s="69" t="n"/>
       <c r="AA56" s="69" t="n"/>
       <c r="AB56" s="70" t="n"/>
       <c r="AC56" s="66">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD56" s="71" t="n"/>
@@ -32925,13 +32865,13 @@
         </is>
       </c>
       <c r="D57" s="60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="63" t="n">
-        <v>1019.42</v>
+        <v>1019.68</v>
       </c>
       <c r="F57" s="63" t="n">
-        <v>1019.42</v>
+        <v>3059.03</v>
       </c>
       <c r="G57" s="59" t="inlineStr">
         <is>
@@ -32939,74 +32879,74 @@
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>1.01</v>
+        <v>3.04</v>
       </c>
       <c r="I57" s="63" t="n">
-        <v>6.16</v>
+        <v>18.49</v>
       </c>
       <c r="J57" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L57" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M57" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N57" s="67">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O57" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P57" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R57" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S57" s="68">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T57" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U57" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V57" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W57" s="69" t="n"/>
       <c r="X57" s="69" t="n"/>
       <c r="Y57" s="68">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z57" s="69" t="n"/>
       <c r="AA57" s="69" t="n"/>
       <c r="AB57" s="70" t="n"/>
       <c r="AC57" s="66">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD57" s="71" t="n"/>
@@ -33029,10 +32969,10 @@
         <v>1</v>
       </c>
       <c r="E58" s="63" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="F58" s="63" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="G58" s="59" t="inlineStr">
         <is>
@@ -33050,64 +32990,64 @@
         <v/>
       </c>
       <c r="K58" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L58" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M58" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N58" s="67">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O58" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P58" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R58" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S58" s="68">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T58" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U58" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V58" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W58" s="69" t="n"/>
       <c r="X58" s="69" t="n"/>
       <c r="Y58" s="68">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z58" s="69" t="n"/>
       <c r="AA58" s="69" t="n"/>
       <c r="AB58" s="70" t="n"/>
       <c r="AC58" s="66">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD58" s="71" t="n"/>
@@ -33127,13 +33067,13 @@
         </is>
       </c>
       <c r="D59" s="60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59" s="63" t="n">
         <v>1019.62</v>
       </c>
       <c r="F59" s="63" t="n">
-        <v>4078.47</v>
+        <v>1019.62</v>
       </c>
       <c r="G59" s="59" t="inlineStr">
         <is>
@@ -33141,81 +33081,81 @@
         </is>
       </c>
       <c r="H59" s="60" t="n">
-        <v>4.04</v>
+        <v>1.01</v>
       </c>
       <c r="I59" s="63" t="n">
-        <v>24.63</v>
+        <v>6.16</v>
       </c>
       <c r="J59" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L59" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M59" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N59" s="67">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O59" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P59" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R59" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S59" s="68">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T59" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U59" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V59" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W59" s="69" t="n"/>
       <c r="X59" s="69" t="n"/>
       <c r="Y59" s="68">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z59" s="69" t="n"/>
       <c r="AA59" s="69" t="n"/>
       <c r="AB59" s="70" t="n"/>
       <c r="AC59" s="66">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD59" s="71" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="58" t="n">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="B60" s="59" t="inlineStr">
         <is>
@@ -33228,13 +33168,13 @@
         </is>
       </c>
       <c r="D60" s="60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E60" s="63" t="n">
-        <v>1115.08</v>
+        <v>1019.62</v>
       </c>
       <c r="F60" s="63" t="n">
-        <v>11150.79</v>
+        <v>4078.47</v>
       </c>
       <c r="G60" s="59" t="inlineStr">
         <is>
@@ -33242,81 +33182,81 @@
         </is>
       </c>
       <c r="H60" s="60" t="n">
-        <v>11</v>
+        <v>4.04</v>
       </c>
       <c r="I60" s="63" t="n">
-        <v>67.79000000000001</v>
+        <v>24.63</v>
       </c>
       <c r="J60" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L60" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M60" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N60" s="67">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O60" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P60" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R60" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S60" s="68">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T60" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U60" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V60" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W60" s="69" t="n"/>
       <c r="X60" s="69" t="n"/>
       <c r="Y60" s="68">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z60" s="69" t="n"/>
       <c r="AA60" s="69" t="n"/>
       <c r="AB60" s="70" t="n"/>
       <c r="AC60" s="66">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD60" s="71" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="58" t="n">
-        <v>45621</v>
+        <v>45664</v>
       </c>
       <c r="B61" s="59" t="inlineStr">
         <is>
@@ -33329,13 +33269,13 @@
         </is>
       </c>
       <c r="D61" s="60" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E61" s="63" t="n">
-        <v>1226.32</v>
+        <v>1115.08</v>
       </c>
       <c r="F61" s="63" t="n">
-        <v>2452.64</v>
+        <v>11150.79</v>
       </c>
       <c r="G61" s="59" t="inlineStr">
         <is>
@@ -33343,85 +33283,85 @@
         </is>
       </c>
       <c r="H61" s="60" t="n">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="I61" s="63" t="n">
-        <v>14.86</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="J61" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L61" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M61" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N61" s="67">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O61" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P61" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R61" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S61" s="68">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T61" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U61" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V61" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W61" s="69" t="n"/>
       <c r="X61" s="69" t="n"/>
       <c r="Y61" s="68">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z61" s="69" t="n"/>
       <c r="AA61" s="69" t="n"/>
       <c r="AB61" s="70" t="n"/>
       <c r="AC61" s="66">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD61" s="71" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="58" t="n">
-        <v>45534</v>
+        <v>45621</v>
       </c>
       <c r="B62" s="59" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C62" s="59" t="inlineStr">
@@ -33430,99 +33370,99 @@
         </is>
       </c>
       <c r="D62" s="60" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E62" s="63" t="n">
-        <v>6</v>
+        <v>1226.32</v>
       </c>
       <c r="F62" s="63" t="n">
-        <v>150</v>
+        <v>2452.64</v>
       </c>
       <c r="G62" s="59" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H62" s="60" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="I62" s="63" t="n">
-        <v>0</v>
+        <v>14.86</v>
       </c>
       <c r="J62" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L62" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M62" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N62" s="67">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O62" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P62" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R62" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S62" s="68">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T62" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U62" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V62" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W62" s="69" t="n"/>
       <c r="X62" s="69" t="n"/>
       <c r="Y62" s="68">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z62" s="69" t="n"/>
       <c r="AA62" s="69" t="n"/>
       <c r="AB62" s="70" t="n"/>
       <c r="AC62" s="66">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD62" s="71" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="58" t="n">
-        <v>45379</v>
+        <v>45534</v>
       </c>
       <c r="B63" s="59" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C63" s="59" t="inlineStr">
@@ -33531,95 +33471,91 @@
         </is>
       </c>
       <c r="D63" s="60" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E63" s="63" t="n">
-        <v>1155.21</v>
+        <v>6</v>
       </c>
       <c r="F63" s="63" t="n">
-        <v>1155.21</v>
+        <v>150</v>
       </c>
       <c r="G63" s="59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
         </is>
       </c>
       <c r="H63" s="60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="63" t="n">
-        <v>7.16</v>
+        <v>0</v>
       </c>
       <c r="J63" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L63" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M63" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N63" s="67">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O63" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P63" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R63" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S63" s="68">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T63" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U63" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V63" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W63" s="69" t="n"/>
       <c r="X63" s="69" t="n"/>
       <c r="Y63" s="68">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z63" s="69" t="n"/>
       <c r="AA63" s="69" t="n"/>
       <c r="AB63" s="70" t="n"/>
       <c r="AC63" s="66">
-        <f>if(B27="DIV", F27,"")</f>
-        <v/>
-      </c>
-      <c r="AD63" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B26="DIV", F26,"")</f>
+        <v/>
+      </c>
+      <c r="AD63" s="71" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="58" t="n">
@@ -33639,10 +33575,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="63" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="F64" s="63" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="G64" s="59" t="inlineStr">
         <is>
@@ -33653,71 +33589,71 @@
         <v>1</v>
       </c>
       <c r="I64" s="63" t="n">
-        <v>7.15</v>
+        <v>7.16</v>
       </c>
       <c r="J64" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L64" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M64" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N64" s="67">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O64" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P64" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R64" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S64" s="68">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T64" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U64" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V64" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W64" s="69" t="n"/>
       <c r="X64" s="69" t="n"/>
       <c r="Y64" s="68">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z64" s="69" t="n"/>
       <c r="AA64" s="69" t="n"/>
       <c r="AB64" s="70" t="n"/>
       <c r="AC64" s="66">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD64" s="72" t="inlineStr">
@@ -33765,64 +33701,64 @@
         <v/>
       </c>
       <c r="K65" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L65" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M65" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N65" s="67">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O65" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P65" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R65" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S65" s="68">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T65" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U65" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V65" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W65" s="69" t="n"/>
       <c r="X65" s="69" t="n"/>
       <c r="Y65" s="68">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z65" s="69" t="n"/>
       <c r="AA65" s="69" t="n"/>
       <c r="AB65" s="70" t="n"/>
       <c r="AC65" s="66">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD65" s="72" t="inlineStr">
@@ -33833,7 +33769,7 @@
     </row>
     <row r="66">
       <c r="A66" s="58" t="n">
-        <v>45364</v>
+        <v>45379</v>
       </c>
       <c r="B66" s="59" t="inlineStr">
         <is>
@@ -33846,13 +33782,13 @@
         </is>
       </c>
       <c r="D66" s="60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E66" s="63" t="n">
-        <v>1244.56</v>
+        <v>1155.25</v>
       </c>
       <c r="F66" s="63" t="n">
-        <v>9956.469999999999</v>
+        <v>1155.25</v>
       </c>
       <c r="G66" s="59" t="inlineStr">
         <is>
@@ -33860,74 +33796,74 @@
         </is>
       </c>
       <c r="H66" s="60" t="n">
-        <v>9.859999999999999</v>
+        <v>1</v>
       </c>
       <c r="I66" s="63" t="n">
-        <v>60.21</v>
+        <v>7.15</v>
       </c>
       <c r="J66" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L66" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M66" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N66" s="67">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O66" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P66" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R66" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S66" s="68">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T66" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U66" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V66" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W66" s="69" t="n"/>
       <c r="X66" s="69" t="n"/>
       <c r="Y66" s="68">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z66" s="69" t="n"/>
       <c r="AA66" s="69" t="n"/>
       <c r="AB66" s="70" t="n"/>
       <c r="AC66" s="66">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD66" s="72" t="inlineStr">
@@ -33938,7 +33874,7 @@
     </row>
     <row r="67">
       <c r="A67" s="58" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B67" s="59" t="inlineStr">
         <is>
@@ -33954,10 +33890,10 @@
         <v>8</v>
       </c>
       <c r="E67" s="63" t="n">
-        <v>1234.43</v>
+        <v>1244.56</v>
       </c>
       <c r="F67" s="63" t="n">
-        <v>9875.43</v>
+        <v>9956.469999999999</v>
       </c>
       <c r="G67" s="59" t="inlineStr">
         <is>
@@ -33965,74 +33901,74 @@
         </is>
       </c>
       <c r="H67" s="60" t="n">
-        <v>9.710000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I67" s="63" t="n">
-        <v>59.72</v>
+        <v>60.21</v>
       </c>
       <c r="J67" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L67" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M67" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N67" s="67">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O67" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P67" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R67" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S67" s="68">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T67" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U67" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V67" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W67" s="69" t="n"/>
       <c r="X67" s="69" t="n"/>
       <c r="Y67" s="68">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z67" s="69" t="n"/>
       <c r="AA67" s="69" t="n"/>
       <c r="AB67" s="70" t="n"/>
       <c r="AC67" s="66">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD67" s="72" t="inlineStr">
@@ -34043,7 +33979,7 @@
     </row>
     <row r="68">
       <c r="A68" s="58" t="n">
-        <v>45282</v>
+        <v>45363</v>
       </c>
       <c r="B68" s="59" t="inlineStr">
         <is>
@@ -34055,14 +33991,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D68" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="64" t="n">
-        <v>1378.45</v>
-      </c>
-      <c r="F68" s="74" t="n">
-        <v>1388.22</v>
+      <c r="D68" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" s="63" t="n">
+        <v>1234.43</v>
+      </c>
+      <c r="F68" s="63" t="n">
+        <v>9875.43</v>
       </c>
       <c r="G68" s="59" t="inlineStr">
         <is>
@@ -34070,74 +34006,74 @@
         </is>
       </c>
       <c r="H68" s="60" t="n">
-        <v>1.38</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I68" s="63" t="n">
-        <v>8.390000000000001</v>
+        <v>59.72</v>
       </c>
       <c r="J68" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L68" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M68" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N68" s="67">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O68" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P68" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R68" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S68" s="68">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T68" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U68" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V68" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W68" s="69" t="n"/>
       <c r="X68" s="69" t="n"/>
       <c r="Y68" s="68">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z68" s="69" t="n"/>
       <c r="AA68" s="69" t="n"/>
       <c r="AB68" s="70" t="n"/>
       <c r="AC68" s="66">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD68" s="72" t="inlineStr">
@@ -34161,13 +34097,13 @@
         </is>
       </c>
       <c r="D69" s="73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="64" t="n">
-        <v>1378.5</v>
+        <v>1378.45</v>
       </c>
       <c r="F69" s="74" t="n">
-        <v>2776.54</v>
+        <v>1388.22</v>
       </c>
       <c r="G69" s="59" t="inlineStr">
         <is>
@@ -34175,74 +34111,74 @@
         </is>
       </c>
       <c r="H69" s="60" t="n">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="I69" s="63" t="n">
-        <v>16.78</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J69" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L69" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M69" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N69" s="67">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O69" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P69" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R69" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S69" s="68">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T69" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U69" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V69" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W69" s="69" t="n"/>
       <c r="X69" s="69" t="n"/>
       <c r="Y69" s="68">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z69" s="69" t="n"/>
       <c r="AA69" s="69" t="n"/>
       <c r="AB69" s="70" t="n"/>
       <c r="AC69" s="66">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD69" s="72" t="inlineStr">
@@ -34253,7 +34189,7 @@
     </row>
     <row r="70">
       <c r="A70" s="58" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B70" s="59" t="inlineStr">
         <is>
@@ -34269,10 +34205,10 @@
         <v>2</v>
       </c>
       <c r="E70" s="64" t="n">
-        <v>1374.05</v>
+        <v>1378.5</v>
       </c>
       <c r="F70" s="74" t="n">
-        <v>2767.58</v>
+        <v>2776.54</v>
       </c>
       <c r="G70" s="59" t="inlineStr">
         <is>
@@ -34280,74 +34216,74 @@
         </is>
       </c>
       <c r="H70" s="60" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="I70" s="63" t="n">
-        <v>16.73</v>
+        <v>16.78</v>
       </c>
       <c r="J70" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L70" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M70" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N70" s="67">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O70" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P70" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R70" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S70" s="68">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T70" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U70" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V70" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W70" s="69" t="n"/>
       <c r="X70" s="69" t="n"/>
       <c r="Y70" s="68">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z70" s="69" t="n"/>
       <c r="AA70" s="69" t="n"/>
       <c r="AB70" s="70" t="n"/>
       <c r="AC70" s="66">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD70" s="72" t="inlineStr">
@@ -34358,7 +34294,7 @@
     </row>
     <row r="71">
       <c r="A71" s="58" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B71" s="59" t="inlineStr">
         <is>
@@ -34371,13 +34307,13 @@
         </is>
       </c>
       <c r="D71" s="73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="64" t="n">
-        <v>1313.1</v>
+        <v>1374.05</v>
       </c>
       <c r="F71" s="74" t="n">
-        <v>1322.41</v>
+        <v>2767.58</v>
       </c>
       <c r="G71" s="59" t="inlineStr">
         <is>
@@ -34385,74 +34321,74 @@
         </is>
       </c>
       <c r="H71" s="60" t="n">
-        <v>1.31</v>
+        <v>2.75</v>
       </c>
       <c r="I71" s="63" t="n">
-        <v>8</v>
+        <v>16.73</v>
       </c>
       <c r="J71" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L71" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M71" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N71" s="67">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O71" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P71" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R71" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S71" s="68">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T71" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U71" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V71" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W71" s="69" t="n"/>
       <c r="X71" s="69" t="n"/>
       <c r="Y71" s="68">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z71" s="69" t="n"/>
       <c r="AA71" s="69" t="n"/>
       <c r="AB71" s="70" t="n"/>
       <c r="AC71" s="66">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD71" s="72" t="inlineStr">
@@ -34462,20 +34398,109 @@
       </c>
     </row>
     <row r="72">
-      <c r="E72" s="75" t="n"/>
-      <c r="F72" s="75" t="n"/>
-      <c r="G72" s="76" t="n"/>
-      <c r="J72" s="75" t="n"/>
-      <c r="K72" s="75" t="n"/>
-      <c r="L72" s="75" t="n"/>
-      <c r="M72" s="26" t="n"/>
-      <c r="W72" s="75" t="n"/>
-      <c r="X72" s="75" t="n"/>
-      <c r="Y72" s="75" t="n"/>
-      <c r="Z72" s="75" t="n"/>
-      <c r="AA72" s="75" t="n"/>
-      <c r="AB72" s="75" t="n"/>
-      <c r="AC72" s="75" t="n"/>
+      <c r="A72" s="58" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B72" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C72" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D72" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="64" t="n">
+        <v>1313.1</v>
+      </c>
+      <c r="F72" s="74" t="n">
+        <v>1322.41</v>
+      </c>
+      <c r="G72" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H72" s="60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I72" s="63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J72" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K72" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="L72" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="M72" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <v/>
+      </c>
+      <c r="N72" s="67">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <v/>
+      </c>
+      <c r="O72" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="P72" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="Q72" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <v/>
+      </c>
+      <c r="R72" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="S72" s="68">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="T72" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="U72" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <v/>
+      </c>
+      <c r="V72" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="W72" s="69" t="n"/>
+      <c r="X72" s="69" t="n"/>
+      <c r="Y72" s="68">
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="Z72" s="69" t="n"/>
+      <c r="AA72" s="69" t="n"/>
+      <c r="AB72" s="70" t="n"/>
+      <c r="AC72" s="66">
+        <f>if(B35="DIV", F35,"")</f>
+        <v/>
+      </c>
+      <c r="AD72" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="E73" s="75" t="n"/>
@@ -50164,6 +50189,7 @@
       <c r="J1053" s="75" t="n"/>
       <c r="K1053" s="75" t="n"/>
       <c r="L1053" s="75" t="n"/>
+      <c r="M1053" s="26" t="n"/>
       <c r="W1053" s="75" t="n"/>
       <c r="X1053" s="75" t="n"/>
       <c r="Y1053" s="75" t="n"/>
@@ -50411,6 +50437,21 @@
       <c r="AA1069" s="75" t="n"/>
       <c r="AB1069" s="75" t="n"/>
       <c r="AC1069" s="75" t="n"/>
+    </row>
+    <row r="1070">
+      <c r="E1070" s="75" t="n"/>
+      <c r="F1070" s="75" t="n"/>
+      <c r="G1070" s="76" t="n"/>
+      <c r="J1070" s="75" t="n"/>
+      <c r="K1070" s="75" t="n"/>
+      <c r="L1070" s="75" t="n"/>
+      <c r="W1070" s="75" t="n"/>
+      <c r="X1070" s="75" t="n"/>
+      <c r="Y1070" s="75" t="n"/>
+      <c r="Z1070" s="75" t="n"/>
+      <c r="AA1070" s="75" t="n"/>
+      <c r="AB1070" s="75" t="n"/>
+      <c r="AC1070" s="75" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$111"/>

--- a/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
+++ b/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
@@ -29686,7 +29686,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1070"/>
+  <dimension ref="A1:AP1071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -30039,11 +30039,11 @@
     </row>
     <row r="5">
       <c r="A5" s="91" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -30055,21 +30055,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>941.7</v>
+        <v>955.76</v>
       </c>
       <c r="F5" t="n">
-        <v>4741.86</v>
+        <v>4812.72</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.71</v>
+        <v>4.78</v>
       </c>
       <c r="I5" t="n">
-        <v>28.65</v>
+        <v>29.14</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -30077,8 +30077,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="90" t="n">
-        <v>46057</v>
+      <c r="A6" s="91" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -30091,24 +30091,28 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>911.7</v>
+        <v>941.7</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>918.16</v>
+        <v>4741.86</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.91</v>
+        <v>4.71</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>5.55</v>
+        <v>28.65</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -30196,13 +30200,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>911.7</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1836.33</v>
+        <v>918.16</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -30210,15 +30214,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>11.11</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="90" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -30234,10 +30238,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>888.4</v>
+        <v>911.7</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1789.42</v>
+        <v>1836.33</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -30245,10 +30249,10 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>10.83</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="11">
@@ -30301,13 +30305,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>888.4</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>894.6900000000001</v>
+        <v>1789.42</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -30315,15 +30319,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.89</v>
+        <v>1.79</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>5.4</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="90" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -30336,13 +30340,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>920.6</v>
+        <v>888.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3708.49</v>
+        <v>894.6900000000001</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -30350,10 +30354,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.68</v>
+        <v>0.89</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>22.41</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14">
@@ -30371,13 +30375,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>920.6</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>927.11</v>
+        <v>3708.49</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -30385,15 +30389,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.92</v>
+        <v>3.68</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>5.59</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="90" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -30406,13 +30410,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>964.7</v>
+        <v>920.6</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4857.68</v>
+        <v>927.11</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -30420,15 +30424,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4.83</v>
+        <v>0.92</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>29.35</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="90" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -30444,10 +30448,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>990.85</v>
+        <v>964.7</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4989.33</v>
+        <v>4857.68</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -30455,15 +30459,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>4.95</v>
+        <v>4.83</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>30.13</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="90" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -30479,10 +30483,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>978.4</v>
+        <v>990.85</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4926.64</v>
+        <v>4989.33</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -30490,15 +30494,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>4.9</v>
+        <v>4.95</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>29.74</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="90" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -30511,13 +30515,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1009.5</v>
+        <v>978.4</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1016.64</v>
+        <v>4926.64</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -30525,10 +30529,10 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>6.13</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="19">
@@ -30546,13 +30550,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1009.5</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4066.61</v>
+        <v>1016.64</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -30560,15 +30564,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4.02</v>
+        <v>1.01</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>24.59</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="90" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -30581,13 +30585,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>980.85</v>
+        <v>1009.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4938.97</v>
+        <v>4066.61</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -30595,15 +30599,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.88</v>
+        <v>4.02</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>29.84</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="90" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -30619,10 +30623,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>979.7</v>
+        <v>980.85</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4933.27</v>
+        <v>4938.97</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -30630,19 +30634,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="90" t="n">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -30654,10 +30658,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>968</v>
+        <v>979.7</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4874.32</v>
+        <v>4933.27</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -30665,19 +30669,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.81</v>
+        <v>4.87</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>29.51</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="90" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -30686,13 +30690,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>969.9</v>
+        <v>968</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>976.78</v>
+        <v>4874.32</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -30700,10 +30704,10 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.97</v>
+        <v>4.81</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>5.91</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="24">
@@ -30721,13 +30725,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>969.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3907.13</v>
+        <v>976.78</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -30735,15 +30739,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.9</v>
+        <v>0.97</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>23.63</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="90" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -30756,13 +30760,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>973</v>
+        <v>969.9</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>6859.34</v>
+        <v>3907.13</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -30770,15 +30774,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>6.83</v>
+        <v>3.9</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>41.51</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="90" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -30791,13 +30795,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>979.7</v>
+        <v>973</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>986.64</v>
+        <v>6859.34</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -30805,15 +30809,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.98</v>
+        <v>6.83</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>5.96</v>
+        <v>41.51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="90" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -30829,10 +30833,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1038.9</v>
+        <v>979.7</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1046.26</v>
+        <v>986.64</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -30840,10 +30844,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>6.32</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="28">
@@ -30861,13 +30865,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1038.9</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3138.75</v>
+        <v>1046.26</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -30875,10 +30879,10 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>18.95</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="29">
@@ -30896,13 +30900,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1038.9</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1046.26</v>
+        <v>3138.75</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -30910,15 +30914,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>6.32</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="90" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -30934,10 +30938,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1077.2</v>
+        <v>1038.9</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1084.84</v>
+        <v>1046.26</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -30945,10 +30949,10 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>6.56</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="31">
@@ -31004,10 +31008,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1077.3</v>
+        <v>1077.2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1084.94</v>
+        <v>1084.84</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -31039,10 +31043,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1077.2</v>
+        <v>1077.3</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1084.84</v>
+        <v>1084.94</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -31074,10 +31078,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1077.1</v>
+        <v>1077.2</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1084.74</v>
+        <v>1084.84</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -31093,11 +31097,11 @@
     </row>
     <row r="35">
       <c r="A35" s="90" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
@@ -31106,13 +31110,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1089.65</v>
+        <v>1077.1</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>5486.92</v>
+        <v>1084.74</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -31120,15 +31124,15 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>5.48</v>
+        <v>1.08</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>33.19</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="90" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
@@ -31141,13 +31145,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1091.05</v>
+        <v>1089.65</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2197.59</v>
+        <v>5486.92</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -31155,19 +31159,19 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>2.17</v>
+        <v>5.48</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>13.32</v>
+        <v>33.19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="90" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -31176,13 +31180,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1023.4</v>
+        <v>1091.05</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>4122.63</v>
+        <v>2197.59</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -31190,10 +31194,10 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>4.11</v>
+        <v>2.17</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>24.92</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="38">
@@ -31211,13 +31215,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1023.4</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1030.64</v>
+        <v>4122.63</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -31225,19 +31229,19 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.02</v>
+        <v>4.11</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>6.22</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="90" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -31246,13 +31250,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1037.75</v>
+        <v>1023.4</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>5225.58</v>
+        <v>1030.64</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -31260,19 +31264,19 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>5.17</v>
+        <v>1.02</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>31.66</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="90" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
@@ -31281,13 +31285,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1047.3</v>
+        <v>1037.75</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>4218.91</v>
+        <v>5225.58</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -31295,10 +31299,10 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>4.17</v>
+        <v>5.17</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>25.54</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="41">
@@ -31316,13 +31320,13 @@
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1047.4</v>
+        <v>1047.3</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1054.82</v>
+        <v>4218.91</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -31330,115 +31334,50 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1.05</v>
+        <v>4.17</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>6.37</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="58" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B42" s="59" t="inlineStr">
+      <c r="A42" s="90" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C42" s="59" t="inlineStr">
+      <c r="C42" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D42" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" s="63" t="n">
-        <v>901.14</v>
-      </c>
-      <c r="F42" s="62">
-        <f>E5*D5 + sum(H5:I5)</f>
-        <v/>
-      </c>
-      <c r="G42" s="59" t="inlineStr">
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1047.4</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1054.82</v>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="60" t="n"/>
-      <c r="I42" s="63" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J42" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K42" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L42" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M42" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N42" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O42" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P42" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q42" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R42" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S42" s="68">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T42" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U42" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V42" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="69" t="n"/>
-      <c r="X42" s="69" t="n"/>
-      <c r="Y42" s="68">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="69" t="n"/>
-      <c r="AA42" s="69" t="n"/>
-      <c r="AB42" s="70" t="n"/>
-      <c r="AC42" s="66">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD42" s="71" t="n"/>
+      <c r="H42" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>6.37</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="58" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B43" s="59" t="inlineStr">
         <is>
@@ -31451,88 +31390,87 @@
         </is>
       </c>
       <c r="D43" s="60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43" s="63" t="n">
-        <v>891.6799999999999</v>
-      </c>
-      <c r="F43" s="63" t="n">
-        <v>3566.71</v>
+        <v>901.14</v>
+      </c>
+      <c r="F43" s="62">
+        <f>E5*D5 + sum(H5:I5)</f>
+        <v/>
       </c>
       <c r="G43" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="60" t="n">
-        <v>3.56</v>
-      </c>
+      <c r="H43" s="60" t="n"/>
       <c r="I43" s="63" t="n">
-        <v>21.55</v>
+        <v>31.7</v>
       </c>
       <c r="J43" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L43" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M43" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N43" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O43" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P43" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R43" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S43" s="68">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T43" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U43" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V43" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W43" s="69" t="n"/>
       <c r="X43" s="69" t="n"/>
       <c r="Y43" s="68">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z43" s="69" t="n"/>
       <c r="AA43" s="69" t="n"/>
       <c r="AB43" s="70" t="n"/>
       <c r="AC43" s="66">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD43" s="71" t="n"/>
@@ -31552,13 +31490,13 @@
         </is>
       </c>
       <c r="D44" s="60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" s="63" t="n">
         <v>891.6799999999999</v>
       </c>
       <c r="F44" s="63" t="n">
-        <v>891.6799999999999</v>
+        <v>3566.71</v>
       </c>
       <c r="G44" s="59" t="inlineStr">
         <is>
@@ -31566,81 +31504,81 @@
         </is>
       </c>
       <c r="H44" s="60" t="n">
-        <v>0.89</v>
+        <v>3.56</v>
       </c>
       <c r="I44" s="63" t="n">
-        <v>5.39</v>
+        <v>21.55</v>
       </c>
       <c r="J44" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L44" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M44" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N44" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O44" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P44" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R44" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S44" s="68">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T44" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U44" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V44" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W44" s="69" t="n"/>
       <c r="X44" s="69" t="n"/>
       <c r="Y44" s="68">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z44" s="69" t="n"/>
       <c r="AA44" s="69" t="n"/>
       <c r="AB44" s="70" t="n"/>
       <c r="AC44" s="66">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD44" s="71" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="58" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B45" s="59" t="inlineStr">
         <is>
@@ -31653,13 +31591,13 @@
         </is>
       </c>
       <c r="D45" s="60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E45" s="63" t="n">
-        <v>854.46</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="F45" s="63" t="n">
-        <v>4272.28</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="G45" s="59" t="inlineStr">
         <is>
@@ -31667,81 +31605,81 @@
         </is>
       </c>
       <c r="H45" s="60" t="n">
-        <v>4.23</v>
+        <v>0.89</v>
       </c>
       <c r="I45" s="63" t="n">
-        <v>25.8</v>
+        <v>5.39</v>
       </c>
       <c r="J45" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L45" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M45" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N45" s="67">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O45" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P45" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R45" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S45" s="68">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T45" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U45" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V45" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W45" s="69" t="n"/>
       <c r="X45" s="69" t="n"/>
       <c r="Y45" s="68">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z45" s="69" t="n"/>
       <c r="AA45" s="69" t="n"/>
       <c r="AB45" s="70" t="n"/>
       <c r="AC45" s="66">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD45" s="71" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="58" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B46" s="59" t="inlineStr">
         <is>
@@ -31754,13 +31692,13 @@
         </is>
       </c>
       <c r="D46" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E46" s="63" t="n">
-        <v>867.91</v>
+        <v>854.46</v>
       </c>
       <c r="F46" s="63" t="n">
-        <v>8679.07</v>
+        <v>4272.28</v>
       </c>
       <c r="G46" s="59" t="inlineStr">
         <is>
@@ -31768,81 +31706,81 @@
         </is>
       </c>
       <c r="H46" s="60" t="n">
-        <v>8.6</v>
+        <v>4.23</v>
       </c>
       <c r="I46" s="63" t="n">
-        <v>52.47</v>
+        <v>25.8</v>
       </c>
       <c r="J46" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L46" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M46" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N46" s="67">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O46" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P46" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R46" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S46" s="68">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T46" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U46" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V46" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W46" s="69" t="n"/>
       <c r="X46" s="69" t="n"/>
       <c r="Y46" s="68">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z46" s="69" t="n"/>
       <c r="AA46" s="69" t="n"/>
       <c r="AB46" s="70" t="n"/>
       <c r="AC46" s="66">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD46" s="71" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="58" t="n">
-        <v>45708</v>
+        <v>45712</v>
       </c>
       <c r="B47" s="59" t="inlineStr">
         <is>
@@ -31858,10 +31796,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="63" t="n">
-        <v>874.63</v>
+        <v>867.91</v>
       </c>
       <c r="F47" s="63" t="n">
-        <v>8746.309999999999</v>
+        <v>8679.07</v>
       </c>
       <c r="G47" s="59" t="inlineStr">
         <is>
@@ -31869,81 +31807,81 @@
         </is>
       </c>
       <c r="H47" s="60" t="n">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
       <c r="I47" s="63" t="n">
-        <v>52.66</v>
+        <v>52.47</v>
       </c>
       <c r="J47" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L47" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M47" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N47" s="67">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O47" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P47" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R47" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S47" s="68">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T47" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U47" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V47" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W47" s="69" t="n"/>
       <c r="X47" s="69" t="n"/>
       <c r="Y47" s="68">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z47" s="69" t="n"/>
       <c r="AA47" s="69" t="n"/>
       <c r="AB47" s="70" t="n"/>
       <c r="AC47" s="66">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD47" s="71" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="58" t="n">
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B48" s="59" t="inlineStr">
         <is>
@@ -31959,10 +31897,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="63" t="n">
-        <v>909.41</v>
+        <v>874.63</v>
       </c>
       <c r="F48" s="63" t="n">
-        <v>9094.059999999999</v>
+        <v>8746.309999999999</v>
       </c>
       <c r="G48" s="59" t="inlineStr">
         <is>
@@ -31970,74 +31908,74 @@
         </is>
       </c>
       <c r="H48" s="60" t="n">
-        <v>9.02</v>
+        <v>8.65</v>
       </c>
       <c r="I48" s="63" t="n">
-        <v>55.04</v>
+        <v>52.66</v>
       </c>
       <c r="J48" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L48" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M48" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N48" s="67">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O48" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P48" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R48" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S48" s="68">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T48" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U48" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V48" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W48" s="69" t="n"/>
       <c r="X48" s="69" t="n"/>
       <c r="Y48" s="68">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z48" s="69" t="n"/>
       <c r="AA48" s="69" t="n"/>
       <c r="AB48" s="70" t="n"/>
       <c r="AC48" s="66">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD48" s="71" t="n"/>
@@ -32057,13 +31995,13 @@
         </is>
       </c>
       <c r="D49" s="60" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E49" s="63" t="n">
-        <v>909.46</v>
+        <v>909.41</v>
       </c>
       <c r="F49" s="63" t="n">
-        <v>2728.37</v>
+        <v>9094.059999999999</v>
       </c>
       <c r="G49" s="59" t="inlineStr">
         <is>
@@ -32071,81 +32009,81 @@
         </is>
       </c>
       <c r="H49" s="60" t="n">
-        <v>2.71</v>
+        <v>9.02</v>
       </c>
       <c r="I49" s="63" t="n">
-        <v>16.51</v>
+        <v>55.04</v>
       </c>
       <c r="J49" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L49" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M49" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N49" s="67">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O49" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P49" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R49" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S49" s="68">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T49" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U49" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V49" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W49" s="69" t="n"/>
       <c r="X49" s="69" t="n"/>
       <c r="Y49" s="68">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z49" s="69" t="n"/>
       <c r="AA49" s="69" t="n"/>
       <c r="AB49" s="70" t="n"/>
       <c r="AC49" s="66">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD49" s="71" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="58" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B50" s="59" t="inlineStr">
         <is>
@@ -32158,13 +32096,13 @@
         </is>
       </c>
       <c r="D50" s="60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="63" t="n">
-        <v>918.3200000000001</v>
+        <v>909.46</v>
       </c>
       <c r="F50" s="63" t="n">
-        <v>1836.63</v>
+        <v>2728.37</v>
       </c>
       <c r="G50" s="59" t="inlineStr">
         <is>
@@ -32172,74 +32110,74 @@
         </is>
       </c>
       <c r="H50" s="60" t="n">
-        <v>1.82</v>
+        <v>2.71</v>
       </c>
       <c r="I50" s="63" t="n">
-        <v>11.11</v>
+        <v>16.51</v>
       </c>
       <c r="J50" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L50" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M50" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N50" s="67">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O50" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P50" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R50" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S50" s="68">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T50" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U50" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V50" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W50" s="69" t="n"/>
       <c r="X50" s="69" t="n"/>
       <c r="Y50" s="68">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z50" s="69" t="n"/>
       <c r="AA50" s="69" t="n"/>
       <c r="AB50" s="70" t="n"/>
       <c r="AC50" s="66">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD50" s="71" t="n"/>
@@ -32259,13 +32197,13 @@
         </is>
       </c>
       <c r="D51" s="60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E51" s="63" t="n">
-        <v>918.47</v>
+        <v>918.3200000000001</v>
       </c>
       <c r="F51" s="63" t="n">
-        <v>7347.72</v>
+        <v>1836.63</v>
       </c>
       <c r="G51" s="59" t="inlineStr">
         <is>
@@ -32273,81 +32211,81 @@
         </is>
       </c>
       <c r="H51" s="60" t="n">
-        <v>7.31</v>
+        <v>1.82</v>
       </c>
       <c r="I51" s="63" t="n">
-        <v>44.41</v>
+        <v>11.11</v>
       </c>
       <c r="J51" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L51" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M51" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N51" s="67">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O51" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P51" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R51" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S51" s="68">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T51" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U51" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V51" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W51" s="69" t="n"/>
       <c r="X51" s="69" t="n"/>
       <c r="Y51" s="68">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z51" s="69" t="n"/>
       <c r="AA51" s="69" t="n"/>
       <c r="AB51" s="70" t="n"/>
       <c r="AC51" s="66">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD51" s="71" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="58" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B52" s="59" t="inlineStr">
         <is>
@@ -32360,13 +32298,13 @@
         </is>
       </c>
       <c r="D52" s="60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E52" s="63" t="n">
-        <v>948.73</v>
+        <v>918.47</v>
       </c>
       <c r="F52" s="63" t="n">
-        <v>1897.46</v>
+        <v>7347.72</v>
       </c>
       <c r="G52" s="59" t="inlineStr">
         <is>
@@ -32374,74 +32312,74 @@
         </is>
       </c>
       <c r="H52" s="60" t="n">
-        <v>1.88</v>
+        <v>7.31</v>
       </c>
       <c r="I52" s="63" t="n">
-        <v>11.48</v>
+        <v>44.41</v>
       </c>
       <c r="J52" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L52" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M52" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N52" s="67">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O52" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P52" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R52" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S52" s="68">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T52" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U52" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V52" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W52" s="69" t="n"/>
       <c r="X52" s="69" t="n"/>
       <c r="Y52" s="68">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z52" s="69" t="n"/>
       <c r="AA52" s="69" t="n"/>
       <c r="AB52" s="70" t="n"/>
       <c r="AC52" s="66">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD52" s="71" t="n"/>
@@ -32461,13 +32399,13 @@
         </is>
       </c>
       <c r="D53" s="60" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E53" s="63" t="n">
-        <v>948.48</v>
+        <v>948.73</v>
       </c>
       <c r="F53" s="63" t="n">
-        <v>6639.33</v>
+        <v>1897.46</v>
       </c>
       <c r="G53" s="59" t="inlineStr">
         <is>
@@ -32475,74 +32413,74 @@
         </is>
       </c>
       <c r="H53" s="60" t="n">
-        <v>6.59</v>
+        <v>1.88</v>
       </c>
       <c r="I53" s="63" t="n">
-        <v>40.14</v>
+        <v>11.48</v>
       </c>
       <c r="J53" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L53" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M53" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N53" s="67">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O53" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P53" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R53" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S53" s="68">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T53" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U53" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V53" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W53" s="69" t="n"/>
       <c r="X53" s="69" t="n"/>
       <c r="Y53" s="68">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z53" s="69" t="n"/>
       <c r="AA53" s="69" t="n"/>
       <c r="AB53" s="70" t="n"/>
       <c r="AC53" s="66">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD53" s="71" t="n"/>
@@ -32562,13 +32500,13 @@
         </is>
       </c>
       <c r="D54" s="60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E54" s="63" t="n">
-        <v>948.71</v>
+        <v>948.48</v>
       </c>
       <c r="F54" s="63" t="n">
-        <v>948.71</v>
+        <v>6639.33</v>
       </c>
       <c r="G54" s="59" t="inlineStr">
         <is>
@@ -32576,81 +32514,81 @@
         </is>
       </c>
       <c r="H54" s="60" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="I54" s="63" t="n">
-        <v>5.72</v>
+        <v>40.14</v>
       </c>
       <c r="J54" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L54" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M54" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N54" s="67">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O54" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P54" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R54" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S54" s="68">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T54" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U54" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V54" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W54" s="69" t="n"/>
       <c r="X54" s="69" t="n"/>
       <c r="Y54" s="68">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z54" s="69" t="n"/>
       <c r="AA54" s="69" t="n"/>
       <c r="AB54" s="70" t="n"/>
       <c r="AC54" s="66">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD54" s="71" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="58" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B55" s="59" t="inlineStr">
         <is>
@@ -32663,13 +32601,13 @@
         </is>
       </c>
       <c r="D55" s="60" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E55" s="63" t="n">
-        <v>978.6900000000001</v>
+        <v>948.71</v>
       </c>
       <c r="F55" s="63" t="n">
-        <v>9786.860000000001</v>
+        <v>948.71</v>
       </c>
       <c r="G55" s="59" t="inlineStr">
         <is>
@@ -32677,81 +32615,81 @@
         </is>
       </c>
       <c r="H55" s="60" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I55" s="63" t="n">
-        <v>59.16</v>
+        <v>5.72</v>
       </c>
       <c r="J55" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L55" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M55" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N55" s="67">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O55" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P55" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R55" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S55" s="68">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T55" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U55" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V55" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W55" s="69" t="n"/>
       <c r="X55" s="69" t="n"/>
       <c r="Y55" s="68">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z55" s="69" t="n"/>
       <c r="AA55" s="69" t="n"/>
       <c r="AB55" s="70" t="n"/>
       <c r="AC55" s="66">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD55" s="71" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="58" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B56" s="59" t="inlineStr">
         <is>
@@ -32764,13 +32702,13 @@
         </is>
       </c>
       <c r="D56" s="60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E56" s="63" t="n">
-        <v>1019.62</v>
+        <v>978.6900000000001</v>
       </c>
       <c r="F56" s="63" t="n">
-        <v>1019.62</v>
+        <v>9786.860000000001</v>
       </c>
       <c r="G56" s="59" t="inlineStr">
         <is>
@@ -32778,74 +32716,74 @@
         </is>
       </c>
       <c r="H56" s="60" t="n">
-        <v>1.01</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I56" s="63" t="n">
-        <v>6.16</v>
+        <v>59.16</v>
       </c>
       <c r="J56" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L56" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M56" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N56" s="67">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O56" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P56" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R56" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S56" s="68">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T56" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U56" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V56" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W56" s="69" t="n"/>
       <c r="X56" s="69" t="n"/>
       <c r="Y56" s="68">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z56" s="69" t="n"/>
       <c r="AA56" s="69" t="n"/>
       <c r="AB56" s="70" t="n"/>
       <c r="AC56" s="66">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD56" s="71" t="n"/>
@@ -32865,13 +32803,13 @@
         </is>
       </c>
       <c r="D57" s="60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="63" t="n">
-        <v>1019.68</v>
+        <v>1019.62</v>
       </c>
       <c r="F57" s="63" t="n">
-        <v>3059.03</v>
+        <v>1019.62</v>
       </c>
       <c r="G57" s="59" t="inlineStr">
         <is>
@@ -32879,74 +32817,74 @@
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>3.04</v>
+        <v>1.01</v>
       </c>
       <c r="I57" s="63" t="n">
-        <v>18.49</v>
+        <v>6.16</v>
       </c>
       <c r="J57" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L57" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M57" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N57" s="67">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O57" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P57" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R57" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S57" s="68">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T57" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U57" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V57" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W57" s="69" t="n"/>
       <c r="X57" s="69" t="n"/>
       <c r="Y57" s="68">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z57" s="69" t="n"/>
       <c r="AA57" s="69" t="n"/>
       <c r="AB57" s="70" t="n"/>
       <c r="AC57" s="66">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD57" s="71" t="n"/>
@@ -32966,13 +32904,13 @@
         </is>
       </c>
       <c r="D58" s="60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="63" t="n">
-        <v>1019.42</v>
+        <v>1019.68</v>
       </c>
       <c r="F58" s="63" t="n">
-        <v>1019.42</v>
+        <v>3059.03</v>
       </c>
       <c r="G58" s="59" t="inlineStr">
         <is>
@@ -32980,74 +32918,74 @@
         </is>
       </c>
       <c r="H58" s="60" t="n">
-        <v>1.01</v>
+        <v>3.04</v>
       </c>
       <c r="I58" s="63" t="n">
-        <v>6.16</v>
+        <v>18.49</v>
       </c>
       <c r="J58" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L58" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M58" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N58" s="67">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O58" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P58" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R58" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S58" s="68">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T58" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U58" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V58" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W58" s="69" t="n"/>
       <c r="X58" s="69" t="n"/>
       <c r="Y58" s="68">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z58" s="69" t="n"/>
       <c r="AA58" s="69" t="n"/>
       <c r="AB58" s="70" t="n"/>
       <c r="AC58" s="66">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD58" s="71" t="n"/>
@@ -33070,10 +33008,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="63" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="F59" s="63" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="G59" s="59" t="inlineStr">
         <is>
@@ -33091,64 +33029,64 @@
         <v/>
       </c>
       <c r="K59" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L59" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M59" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N59" s="67">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O59" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P59" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R59" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S59" s="68">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T59" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U59" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V59" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W59" s="69" t="n"/>
       <c r="X59" s="69" t="n"/>
       <c r="Y59" s="68">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z59" s="69" t="n"/>
       <c r="AA59" s="69" t="n"/>
       <c r="AB59" s="70" t="n"/>
       <c r="AC59" s="66">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD59" s="71" t="n"/>
@@ -33168,13 +33106,13 @@
         </is>
       </c>
       <c r="D60" s="60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" s="63" t="n">
         <v>1019.62</v>
       </c>
       <c r="F60" s="63" t="n">
-        <v>4078.47</v>
+        <v>1019.62</v>
       </c>
       <c r="G60" s="59" t="inlineStr">
         <is>
@@ -33182,81 +33120,81 @@
         </is>
       </c>
       <c r="H60" s="60" t="n">
-        <v>4.04</v>
+        <v>1.01</v>
       </c>
       <c r="I60" s="63" t="n">
-        <v>24.63</v>
+        <v>6.16</v>
       </c>
       <c r="J60" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L60" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M60" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N60" s="67">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O60" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P60" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R60" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S60" s="68">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T60" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U60" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V60" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W60" s="69" t="n"/>
       <c r="X60" s="69" t="n"/>
       <c r="Y60" s="68">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z60" s="69" t="n"/>
       <c r="AA60" s="69" t="n"/>
       <c r="AB60" s="70" t="n"/>
       <c r="AC60" s="66">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD60" s="71" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="58" t="n">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="B61" s="59" t="inlineStr">
         <is>
@@ -33269,13 +33207,13 @@
         </is>
       </c>
       <c r="D61" s="60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E61" s="63" t="n">
-        <v>1115.08</v>
+        <v>1019.62</v>
       </c>
       <c r="F61" s="63" t="n">
-        <v>11150.79</v>
+        <v>4078.47</v>
       </c>
       <c r="G61" s="59" t="inlineStr">
         <is>
@@ -33283,81 +33221,81 @@
         </is>
       </c>
       <c r="H61" s="60" t="n">
-        <v>11</v>
+        <v>4.04</v>
       </c>
       <c r="I61" s="63" t="n">
-        <v>67.79000000000001</v>
+        <v>24.63</v>
       </c>
       <c r="J61" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L61" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M61" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N61" s="67">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O61" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P61" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R61" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S61" s="68">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T61" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U61" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V61" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W61" s="69" t="n"/>
       <c r="X61" s="69" t="n"/>
       <c r="Y61" s="68">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z61" s="69" t="n"/>
       <c r="AA61" s="69" t="n"/>
       <c r="AB61" s="70" t="n"/>
       <c r="AC61" s="66">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD61" s="71" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="58" t="n">
-        <v>45621</v>
+        <v>45664</v>
       </c>
       <c r="B62" s="59" t="inlineStr">
         <is>
@@ -33370,13 +33308,13 @@
         </is>
       </c>
       <c r="D62" s="60" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E62" s="63" t="n">
-        <v>1226.32</v>
+        <v>1115.08</v>
       </c>
       <c r="F62" s="63" t="n">
-        <v>2452.64</v>
+        <v>11150.79</v>
       </c>
       <c r="G62" s="59" t="inlineStr">
         <is>
@@ -33384,85 +33322,85 @@
         </is>
       </c>
       <c r="H62" s="60" t="n">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="I62" s="63" t="n">
-        <v>14.86</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="J62" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L62" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M62" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N62" s="67">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O62" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P62" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R62" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S62" s="68">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T62" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U62" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V62" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W62" s="69" t="n"/>
       <c r="X62" s="69" t="n"/>
       <c r="Y62" s="68">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z62" s="69" t="n"/>
       <c r="AA62" s="69" t="n"/>
       <c r="AB62" s="70" t="n"/>
       <c r="AC62" s="66">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD62" s="71" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="58" t="n">
-        <v>45534</v>
+        <v>45621</v>
       </c>
       <c r="B63" s="59" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C63" s="59" t="inlineStr">
@@ -33471,99 +33409,99 @@
         </is>
       </c>
       <c r="D63" s="60" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E63" s="63" t="n">
-        <v>6</v>
+        <v>1226.32</v>
       </c>
       <c r="F63" s="63" t="n">
-        <v>150</v>
+        <v>2452.64</v>
       </c>
       <c r="G63" s="59" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H63" s="60" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="I63" s="63" t="n">
-        <v>0</v>
+        <v>14.86</v>
       </c>
       <c r="J63" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L63" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M63" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N63" s="67">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O63" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P63" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R63" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S63" s="68">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T63" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U63" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V63" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W63" s="69" t="n"/>
       <c r="X63" s="69" t="n"/>
       <c r="Y63" s="68">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z63" s="69" t="n"/>
       <c r="AA63" s="69" t="n"/>
       <c r="AB63" s="70" t="n"/>
       <c r="AC63" s="66">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD63" s="71" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="58" t="n">
-        <v>45379</v>
+        <v>45534</v>
       </c>
       <c r="B64" s="59" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C64" s="59" t="inlineStr">
@@ -33572,95 +33510,91 @@
         </is>
       </c>
       <c r="D64" s="60" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E64" s="63" t="n">
-        <v>1155.21</v>
+        <v>6</v>
       </c>
       <c r="F64" s="63" t="n">
-        <v>1155.21</v>
+        <v>150</v>
       </c>
       <c r="G64" s="59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
         </is>
       </c>
       <c r="H64" s="60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="63" t="n">
-        <v>7.16</v>
+        <v>0</v>
       </c>
       <c r="J64" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L64" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M64" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N64" s="67">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O64" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P64" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R64" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S64" s="68">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T64" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U64" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V64" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W64" s="69" t="n"/>
       <c r="X64" s="69" t="n"/>
       <c r="Y64" s="68">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z64" s="69" t="n"/>
       <c r="AA64" s="69" t="n"/>
       <c r="AB64" s="70" t="n"/>
       <c r="AC64" s="66">
-        <f>if(B27="DIV", F27,"")</f>
-        <v/>
-      </c>
-      <c r="AD64" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B26="DIV", F26,"")</f>
+        <v/>
+      </c>
+      <c r="AD64" s="71" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="58" t="n">
@@ -33680,10 +33614,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="63" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="F65" s="63" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="G65" s="59" t="inlineStr">
         <is>
@@ -33694,71 +33628,71 @@
         <v>1</v>
       </c>
       <c r="I65" s="63" t="n">
-        <v>7.15</v>
+        <v>7.16</v>
       </c>
       <c r="J65" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L65" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M65" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N65" s="67">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O65" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P65" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R65" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S65" s="68">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T65" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U65" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V65" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W65" s="69" t="n"/>
       <c r="X65" s="69" t="n"/>
       <c r="Y65" s="68">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z65" s="69" t="n"/>
       <c r="AA65" s="69" t="n"/>
       <c r="AB65" s="70" t="n"/>
       <c r="AC65" s="66">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD65" s="72" t="inlineStr">
@@ -33806,64 +33740,64 @@
         <v/>
       </c>
       <c r="K66" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L66" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M66" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N66" s="67">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O66" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P66" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R66" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S66" s="68">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T66" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U66" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V66" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W66" s="69" t="n"/>
       <c r="X66" s="69" t="n"/>
       <c r="Y66" s="68">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z66" s="69" t="n"/>
       <c r="AA66" s="69" t="n"/>
       <c r="AB66" s="70" t="n"/>
       <c r="AC66" s="66">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD66" s="72" t="inlineStr">
@@ -33874,7 +33808,7 @@
     </row>
     <row r="67">
       <c r="A67" s="58" t="n">
-        <v>45364</v>
+        <v>45379</v>
       </c>
       <c r="B67" s="59" t="inlineStr">
         <is>
@@ -33887,13 +33821,13 @@
         </is>
       </c>
       <c r="D67" s="60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E67" s="63" t="n">
-        <v>1244.56</v>
+        <v>1155.25</v>
       </c>
       <c r="F67" s="63" t="n">
-        <v>9956.469999999999</v>
+        <v>1155.25</v>
       </c>
       <c r="G67" s="59" t="inlineStr">
         <is>
@@ -33901,74 +33835,74 @@
         </is>
       </c>
       <c r="H67" s="60" t="n">
-        <v>9.859999999999999</v>
+        <v>1</v>
       </c>
       <c r="I67" s="63" t="n">
-        <v>60.21</v>
+        <v>7.15</v>
       </c>
       <c r="J67" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L67" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M67" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N67" s="67">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O67" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P67" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R67" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S67" s="68">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T67" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U67" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V67" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W67" s="69" t="n"/>
       <c r="X67" s="69" t="n"/>
       <c r="Y67" s="68">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z67" s="69" t="n"/>
       <c r="AA67" s="69" t="n"/>
       <c r="AB67" s="70" t="n"/>
       <c r="AC67" s="66">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD67" s="72" t="inlineStr">
@@ -33979,7 +33913,7 @@
     </row>
     <row r="68">
       <c r="A68" s="58" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B68" s="59" t="inlineStr">
         <is>
@@ -33995,10 +33929,10 @@
         <v>8</v>
       </c>
       <c r="E68" s="63" t="n">
-        <v>1234.43</v>
+        <v>1244.56</v>
       </c>
       <c r="F68" s="63" t="n">
-        <v>9875.43</v>
+        <v>9956.469999999999</v>
       </c>
       <c r="G68" s="59" t="inlineStr">
         <is>
@@ -34006,74 +33940,74 @@
         </is>
       </c>
       <c r="H68" s="60" t="n">
-        <v>9.710000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I68" s="63" t="n">
-        <v>59.72</v>
+        <v>60.21</v>
       </c>
       <c r="J68" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L68" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M68" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N68" s="67">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O68" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P68" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R68" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S68" s="68">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T68" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U68" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V68" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W68" s="69" t="n"/>
       <c r="X68" s="69" t="n"/>
       <c r="Y68" s="68">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z68" s="69" t="n"/>
       <c r="AA68" s="69" t="n"/>
       <c r="AB68" s="70" t="n"/>
       <c r="AC68" s="66">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD68" s="72" t="inlineStr">
@@ -34084,7 +34018,7 @@
     </row>
     <row r="69">
       <c r="A69" s="58" t="n">
-        <v>45282</v>
+        <v>45363</v>
       </c>
       <c r="B69" s="59" t="inlineStr">
         <is>
@@ -34096,14 +34030,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D69" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="64" t="n">
-        <v>1378.45</v>
-      </c>
-      <c r="F69" s="74" t="n">
-        <v>1388.22</v>
+      <c r="D69" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" s="63" t="n">
+        <v>1234.43</v>
+      </c>
+      <c r="F69" s="63" t="n">
+        <v>9875.43</v>
       </c>
       <c r="G69" s="59" t="inlineStr">
         <is>
@@ -34111,74 +34045,74 @@
         </is>
       </c>
       <c r="H69" s="60" t="n">
-        <v>1.38</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I69" s="63" t="n">
-        <v>8.390000000000001</v>
+        <v>59.72</v>
       </c>
       <c r="J69" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L69" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M69" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N69" s="67">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O69" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P69" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R69" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S69" s="68">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T69" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U69" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V69" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W69" s="69" t="n"/>
       <c r="X69" s="69" t="n"/>
       <c r="Y69" s="68">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z69" s="69" t="n"/>
       <c r="AA69" s="69" t="n"/>
       <c r="AB69" s="70" t="n"/>
       <c r="AC69" s="66">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD69" s="72" t="inlineStr">
@@ -34202,13 +34136,13 @@
         </is>
       </c>
       <c r="D70" s="73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="64" t="n">
-        <v>1378.5</v>
+        <v>1378.45</v>
       </c>
       <c r="F70" s="74" t="n">
-        <v>2776.54</v>
+        <v>1388.22</v>
       </c>
       <c r="G70" s="59" t="inlineStr">
         <is>
@@ -34216,74 +34150,74 @@
         </is>
       </c>
       <c r="H70" s="60" t="n">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="I70" s="63" t="n">
-        <v>16.78</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J70" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L70" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M70" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N70" s="67">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O70" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P70" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R70" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S70" s="68">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T70" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U70" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V70" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W70" s="69" t="n"/>
       <c r="X70" s="69" t="n"/>
       <c r="Y70" s="68">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z70" s="69" t="n"/>
       <c r="AA70" s="69" t="n"/>
       <c r="AB70" s="70" t="n"/>
       <c r="AC70" s="66">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD70" s="72" t="inlineStr">
@@ -34294,7 +34228,7 @@
     </row>
     <row r="71">
       <c r="A71" s="58" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B71" s="59" t="inlineStr">
         <is>
@@ -34310,10 +34244,10 @@
         <v>2</v>
       </c>
       <c r="E71" s="64" t="n">
-        <v>1374.05</v>
+        <v>1378.5</v>
       </c>
       <c r="F71" s="74" t="n">
-        <v>2767.58</v>
+        <v>2776.54</v>
       </c>
       <c r="G71" s="59" t="inlineStr">
         <is>
@@ -34321,74 +34255,74 @@
         </is>
       </c>
       <c r="H71" s="60" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="I71" s="63" t="n">
-        <v>16.73</v>
+        <v>16.78</v>
       </c>
       <c r="J71" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L71" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M71" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N71" s="67">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O71" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P71" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R71" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S71" s="68">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T71" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U71" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V71" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W71" s="69" t="n"/>
       <c r="X71" s="69" t="n"/>
       <c r="Y71" s="68">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z71" s="69" t="n"/>
       <c r="AA71" s="69" t="n"/>
       <c r="AB71" s="70" t="n"/>
       <c r="AC71" s="66">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD71" s="72" t="inlineStr">
@@ -34399,7 +34333,7 @@
     </row>
     <row r="72">
       <c r="A72" s="58" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B72" s="59" t="inlineStr">
         <is>
@@ -34412,13 +34346,13 @@
         </is>
       </c>
       <c r="D72" s="73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="64" t="n">
-        <v>1313.1</v>
+        <v>1374.05</v>
       </c>
       <c r="F72" s="74" t="n">
-        <v>1322.41</v>
+        <v>2767.58</v>
       </c>
       <c r="G72" s="59" t="inlineStr">
         <is>
@@ -34426,74 +34360,74 @@
         </is>
       </c>
       <c r="H72" s="60" t="n">
-        <v>1.31</v>
+        <v>2.75</v>
       </c>
       <c r="I72" s="63" t="n">
-        <v>8</v>
+        <v>16.73</v>
       </c>
       <c r="J72" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L72" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M72" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N72" s="67">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O72" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P72" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R72" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S72" s="68">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T72" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U72" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V72" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W72" s="69" t="n"/>
       <c r="X72" s="69" t="n"/>
       <c r="Y72" s="68">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z72" s="69" t="n"/>
       <c r="AA72" s="69" t="n"/>
       <c r="AB72" s="70" t="n"/>
       <c r="AC72" s="66">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD72" s="72" t="inlineStr">
@@ -34503,20 +34437,109 @@
       </c>
     </row>
     <row r="73">
-      <c r="E73" s="75" t="n"/>
-      <c r="F73" s="75" t="n"/>
-      <c r="G73" s="76" t="n"/>
-      <c r="J73" s="75" t="n"/>
-      <c r="K73" s="75" t="n"/>
-      <c r="L73" s="75" t="n"/>
-      <c r="M73" s="26" t="n"/>
-      <c r="W73" s="75" t="n"/>
-      <c r="X73" s="75" t="n"/>
-      <c r="Y73" s="75" t="n"/>
-      <c r="Z73" s="75" t="n"/>
-      <c r="AA73" s="75" t="n"/>
-      <c r="AB73" s="75" t="n"/>
-      <c r="AC73" s="75" t="n"/>
+      <c r="A73" s="58" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B73" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C73" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D73" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="64" t="n">
+        <v>1313.1</v>
+      </c>
+      <c r="F73" s="74" t="n">
+        <v>1322.41</v>
+      </c>
+      <c r="G73" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H73" s="60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I73" s="63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K73" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="L73" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="M73" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <v/>
+      </c>
+      <c r="N73" s="67">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <v/>
+      </c>
+      <c r="O73" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="P73" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="Q73" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <v/>
+      </c>
+      <c r="R73" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="S73" s="68">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="T73" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="U73" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <v/>
+      </c>
+      <c r="V73" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="W73" s="69" t="n"/>
+      <c r="X73" s="69" t="n"/>
+      <c r="Y73" s="68">
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="Z73" s="69" t="n"/>
+      <c r="AA73" s="69" t="n"/>
+      <c r="AB73" s="70" t="n"/>
+      <c r="AC73" s="66">
+        <f>if(B35="DIV", F35,"")</f>
+        <v/>
+      </c>
+      <c r="AD73" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="E74" s="75" t="n"/>
@@ -50205,6 +50228,7 @@
       <c r="J1054" s="75" t="n"/>
       <c r="K1054" s="75" t="n"/>
       <c r="L1054" s="75" t="n"/>
+      <c r="M1054" s="26" t="n"/>
       <c r="W1054" s="75" t="n"/>
       <c r="X1054" s="75" t="n"/>
       <c r="Y1054" s="75" t="n"/>
@@ -50452,6 +50476,21 @@
       <c r="AA1070" s="75" t="n"/>
       <c r="AB1070" s="75" t="n"/>
       <c r="AC1070" s="75" t="n"/>
+    </row>
+    <row r="1071">
+      <c r="E1071" s="75" t="n"/>
+      <c r="F1071" s="75" t="n"/>
+      <c r="G1071" s="76" t="n"/>
+      <c r="J1071" s="75" t="n"/>
+      <c r="K1071" s="75" t="n"/>
+      <c r="L1071" s="75" t="n"/>
+      <c r="W1071" s="75" t="n"/>
+      <c r="X1071" s="75" t="n"/>
+      <c r="Y1071" s="75" t="n"/>
+      <c r="Z1071" s="75" t="n"/>
+      <c r="AA1071" s="75" t="n"/>
+      <c r="AB1071" s="75" t="n"/>
+      <c r="AC1071" s="75" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$111"/>

--- a/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
+++ b/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
@@ -29686,7 +29686,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1071"/>
+  <dimension ref="A1:AP1081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -30039,11 +30039,11 @@
     </row>
     <row r="5">
       <c r="A5" s="91" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -30055,21 +30055,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>955.76</v>
+        <v>917.55</v>
       </c>
       <c r="F5" t="n">
-        <v>4812.72</v>
+        <v>4610.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4.78</v>
+          <t>CN#252611604850</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>29.14</v>
+        <v>22.95</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -30078,7 +30075,7 @@
     </row>
     <row r="6">
       <c r="A6" s="91" t="n">
-        <v>46062</v>
+        <v>46057</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -30094,21 +30091,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>941.7</v>
+        <v>911.7</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4741.86</v>
+        <v>4581.3</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>4.71</v>
+          <t>CN#252611485581</t>
+        </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>28.65</v>
+        <v>22.8</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -30116,8 +30110,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="90" t="n">
-        <v>46057</v>
+      <c r="A7" s="91" t="n">
+        <v>46050</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -30130,29 +30124,30 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>911.7</v>
+        <v>888.4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>918.16</v>
+        <v>4464.2</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0.91</v>
+          <t>CN#252611091662</t>
+        </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>5.55</v>
+        <v>22.2</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="90" t="n">
-        <v>46057</v>
+      <c r="A8" s="91" t="n">
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -30165,29 +30160,30 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>911.7</v>
+        <v>920.6</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>918.16</v>
+        <v>4626</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.91</v>
+          <t>CN#252611030591</t>
+        </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>5.55</v>
+        <v>23</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="90" t="n">
-        <v>46057</v>
+      <c r="A9" s="91" t="n">
+        <v>46030</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -30200,29 +30196,30 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>911.7</v>
+        <v>1009.5</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>918.16</v>
+        <v>5072.75</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.91</v>
+          <t>CN#252610347614</t>
+        </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>5.55</v>
+        <v>25.25</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="90" t="n">
-        <v>46057</v>
+      <c r="A10" s="91" t="n">
+        <v>46020</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -30235,29 +30232,30 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>911.7</v>
+        <v>969.9</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1836.33</v>
+        <v>4873.75</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1.82</v>
+          <t>CN#252609871125</t>
+        </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>11.11</v>
+        <v>24.25</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="90" t="n">
-        <v>46050</v>
+      <c r="A11" s="91" t="n">
+        <v>46014</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -30270,29 +30268,30 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>888.4</v>
+        <v>1038.9</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1789.42</v>
+        <v>5220.45</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1.79</v>
+          <t>CN#252609701573</t>
+        </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>10.83</v>
+        <v>25.95</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="90" t="n">
-        <v>46050</v>
+      <c r="A12" s="91" t="n">
+        <v>46009</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -30305,29 +30304,30 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>888.4</v>
+        <v>1077.2</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1789.42</v>
+        <v>5412.95</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1.79</v>
+          <t>CN#252609527272</t>
+        </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>10.83</v>
+        <v>26.95</v>
+      </c>
+      <c r="J12" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="90" t="n">
-        <v>46050</v>
+      <c r="A13" s="91" t="n">
+        <v>46002</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -30340,29 +30340,30 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>888.4</v>
+        <v>1023.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>894.6900000000001</v>
+        <v>5142.6</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.89</v>
+          <t>CN#252609267726</t>
+        </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>5.4</v>
+        <v>25.6</v>
+      </c>
+      <c r="J13" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="90" t="n">
-        <v>46049</v>
+      <c r="A14" s="91" t="n">
+        <v>45996</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -30375,33 +30376,34 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>920.6</v>
+        <v>1047.32</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3708.49</v>
+        <v>5262.8</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>3.68</v>
+          <t>CN#252609039305</t>
+        </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>22.41</v>
+        <v>26.2</v>
+      </c>
+      <c r="J14" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="90" t="n">
-        <v>46049</v>
+      <c r="A15" s="91" t="n">
+        <v>46063</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -30410,29 +30412,33 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>920.6</v>
+        <v>955.76</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>927.11</v>
+        <v>4812.72</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.92</v>
+        <v>4.78</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>5.59</v>
+        <v>29.14</v>
+      </c>
+      <c r="J15" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="90" t="n">
-        <v>46044</v>
+      <c r="A16" s="91" t="n">
+        <v>46062</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -30448,26 +30454,30 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>964.7</v>
+        <v>941.7</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4857.68</v>
+        <v>4741.86</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>4.83</v>
+        <v>4.71</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>29.35</v>
+        <v>28.65</v>
+      </c>
+      <c r="J16" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="90" t="n">
-        <v>46038</v>
+        <v>46057</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -30480,13 +30490,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>990.85</v>
+        <v>911.7</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4989.33</v>
+        <v>918.16</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -30494,15 +30504,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>4.95</v>
+        <v>0.91</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>30.13</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="90" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -30515,13 +30525,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>978.4</v>
+        <v>911.7</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4926.64</v>
+        <v>918.16</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -30529,15 +30539,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4.9</v>
+        <v>0.91</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>29.74</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="90" t="n">
-        <v>46030</v>
+        <v>46057</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -30553,10 +30563,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1009.5</v>
+        <v>911.7</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1016.64</v>
+        <v>918.16</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -30564,15 +30574,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>6.13</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="90" t="n">
-        <v>46030</v>
+        <v>46057</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -30585,13 +30595,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1009.5</v>
+        <v>911.7</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4066.61</v>
+        <v>1836.33</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -30599,15 +30609,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.02</v>
+        <v>1.82</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>24.59</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="90" t="n">
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -30620,13 +30630,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>980.85</v>
+        <v>888.4</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4938.97</v>
+        <v>1789.42</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -30634,15 +30644,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.88</v>
+        <v>1.79</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>29.84</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="90" t="n">
-        <v>46024</v>
+        <v>46050</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -30655,13 +30665,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>979.7</v>
+        <v>888.4</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4933.27</v>
+        <v>1789.42</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -30669,19 +30679,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.87</v>
+        <v>1.79</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>29.9</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="90" t="n">
-        <v>46022</v>
+        <v>46050</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -30690,13 +30700,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>968</v>
+        <v>888.4</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4874.32</v>
+        <v>894.6900000000001</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -30704,15 +30714,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.81</v>
+        <v>0.89</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>29.51</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="90" t="n">
-        <v>46020</v>
+        <v>46049</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -30725,13 +30735,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>969.9</v>
+        <v>920.6</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>976.78</v>
+        <v>3708.49</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -30739,15 +30749,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.97</v>
+        <v>3.68</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>5.91</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="90" t="n">
-        <v>46020</v>
+        <v>46049</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -30760,13 +30770,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>969.9</v>
+        <v>920.6</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3907.13</v>
+        <v>927.11</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -30774,15 +30784,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.9</v>
+        <v>0.92</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>23.63</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="90" t="n">
-        <v>46017</v>
+        <v>46044</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -30795,13 +30805,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>973</v>
+        <v>964.7</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6859.34</v>
+        <v>4857.68</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -30809,15 +30819,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>6.83</v>
+        <v>4.83</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>41.51</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="90" t="n">
-        <v>46015</v>
+        <v>46038</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -30830,13 +30840,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>979.7</v>
+        <v>990.85</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>986.64</v>
+        <v>4989.33</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -30844,15 +30854,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.98</v>
+        <v>4.95</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>5.96</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="90" t="n">
-        <v>46014</v>
+        <v>46034</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -30865,13 +30875,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1038.9</v>
+        <v>978.4</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1046.26</v>
+        <v>4926.64</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -30879,15 +30889,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.04</v>
+        <v>4.9</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>6.32</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="90" t="n">
-        <v>46014</v>
+        <v>46030</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -30900,13 +30910,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1038.9</v>
+        <v>1009.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3138.75</v>
+        <v>1016.64</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -30914,15 +30924,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>18.95</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="90" t="n">
-        <v>46014</v>
+        <v>46030</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -30935,13 +30945,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1038.9</v>
+        <v>1009.5</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1046.26</v>
+        <v>4066.61</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -30949,15 +30959,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.04</v>
+        <v>4.02</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>6.32</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="90" t="n">
-        <v>46009</v>
+        <v>46027</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -30970,13 +30980,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1077.2</v>
+        <v>980.85</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1084.84</v>
+        <v>4938.97</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -30984,15 +30994,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.08</v>
+        <v>4.88</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>6.56</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="90" t="n">
-        <v>46009</v>
+        <v>46024</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -31005,13 +31015,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1077.2</v>
+        <v>979.7</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1084.84</v>
+        <v>4933.27</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -31019,19 +31029,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.08</v>
+        <v>4.87</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>6.56</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="90" t="n">
-        <v>46009</v>
+        <v>46022</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -31040,13 +31050,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1077.3</v>
+        <v>968</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1084.94</v>
+        <v>4874.32</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -31054,15 +31064,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1.08</v>
+        <v>4.81</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>6.56</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="90" t="n">
-        <v>46009</v>
+        <v>46020</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -31078,10 +31088,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1077.2</v>
+        <v>969.9</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1084.84</v>
+        <v>976.78</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -31089,15 +31099,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>6.56</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="90" t="n">
-        <v>46009</v>
+        <v>46020</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -31110,13 +31120,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1077.1</v>
+        <v>969.9</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1084.74</v>
+        <v>3907.13</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -31124,19 +31134,19 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1.08</v>
+        <v>3.9</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>6.56</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="90" t="n">
-        <v>46008</v>
+        <v>46017</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -31145,13 +31155,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1089.65</v>
+        <v>973</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>5486.92</v>
+        <v>6859.34</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -31159,19 +31169,19 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>5.48</v>
+        <v>6.83</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>33.19</v>
+        <v>41.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="90" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -31180,13 +31190,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1091.05</v>
+        <v>979.7</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2197.59</v>
+        <v>986.64</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -31194,15 +31204,15 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>2.17</v>
+        <v>0.98</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>13.32</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="90" t="n">
-        <v>46002</v>
+        <v>46014</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
@@ -31215,13 +31225,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1023.4</v>
+        <v>1038.9</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>4122.63</v>
+        <v>1046.26</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -31229,15 +31239,15 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>4.11</v>
+        <v>1.04</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>24.92</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="90" t="n">
-        <v>46002</v>
+        <v>46014</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
@@ -31250,13 +31260,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1023.4</v>
+        <v>1038.9</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1030.64</v>
+        <v>3138.75</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -31264,19 +31274,19 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>6.22</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="90" t="n">
-        <v>46000</v>
+        <v>46014</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
@@ -31285,13 +31295,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1037.75</v>
+        <v>1038.9</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>5225.58</v>
+        <v>1046.26</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -31299,15 +31309,15 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>5.17</v>
+        <v>1.04</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>31.66</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="90" t="n">
-        <v>45996</v>
+        <v>46009</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
@@ -31320,13 +31330,13 @@
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1047.3</v>
+        <v>1077.2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>4218.91</v>
+        <v>1084.84</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -31334,15 +31344,15 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>4.17</v>
+        <v>1.08</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>25.54</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="90" t="n">
-        <v>45996</v>
+        <v>46009</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
@@ -31358,1035 +31368,376 @@
         <v>1</v>
       </c>
       <c r="E42" s="0" t="n">
+        <v>1077.2</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1084.84</v>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="90" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1077.3</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1084.94</v>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="90" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1077.2</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1084.84</v>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="90" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1077.1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1084.74</v>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="90" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1089.65</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>5486.92</v>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>33.19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="90" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1091.05</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2197.59</v>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="90" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1023.4</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>4122.63</v>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="90" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1023.4</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1030.64</v>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="90" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>5225.58</v>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>31.66</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="90" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1047.3</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>4218.91</v>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="90" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
         <v>1047.4</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F52" s="0" t="n">
         <v>1054.82</v>
       </c>
-      <c r="G42" s="0" t="inlineStr">
+      <c r="G52" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H52" s="0" t="n">
         <v>1.05</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I52" s="0" t="n">
         <v>6.37</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="58" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B43" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C43" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D43" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" s="63" t="n">
-        <v>901.14</v>
-      </c>
-      <c r="F43" s="62">
-        <f>E5*D5 + sum(H5:I5)</f>
-        <v/>
-      </c>
-      <c r="G43" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H43" s="60" t="n"/>
-      <c r="I43" s="63" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J43" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K43" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L43" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M43" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N43" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O43" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P43" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q43" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R43" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S43" s="68">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T43" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U43" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V43" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="69" t="n"/>
-      <c r="X43" s="69" t="n"/>
-      <c r="Y43" s="68">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="69" t="n"/>
-      <c r="AA43" s="69" t="n"/>
-      <c r="AB43" s="70" t="n"/>
-      <c r="AC43" s="66">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD43" s="71" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="58" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B44" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C44" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D44" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" s="63" t="n">
-        <v>891.6799999999999</v>
-      </c>
-      <c r="F44" s="63" t="n">
-        <v>3566.71</v>
-      </c>
-      <c r="G44" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H44" s="60" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="I44" s="63" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="J44" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K44" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L44" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M44" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N44" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O44" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P44" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q44" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R44" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S44" s="68">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T44" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U44" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V44" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="69" t="n"/>
-      <c r="X44" s="69" t="n"/>
-      <c r="Y44" s="68">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="69" t="n"/>
-      <c r="AA44" s="69" t="n"/>
-      <c r="AB44" s="70" t="n"/>
-      <c r="AC44" s="66">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD44" s="71" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="58" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B45" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C45" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D45" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="63" t="n">
-        <v>891.6799999999999</v>
-      </c>
-      <c r="F45" s="63" t="n">
-        <v>891.6799999999999</v>
-      </c>
-      <c r="G45" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H45" s="60" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="I45" s="63" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J45" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K45" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L45" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P45" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q45" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R45" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S45" s="68">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T45" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U45" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V45" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="69" t="n"/>
-      <c r="X45" s="69" t="n"/>
-      <c r="Y45" s="68">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="69" t="n"/>
-      <c r="AA45" s="69" t="n"/>
-      <c r="AB45" s="70" t="n"/>
-      <c r="AC45" s="66">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD45" s="71" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="58" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B46" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C46" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D46" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E46" s="63" t="n">
-        <v>854.46</v>
-      </c>
-      <c r="F46" s="63" t="n">
-        <v>4272.28</v>
-      </c>
-      <c r="G46" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H46" s="60" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="I46" s="63" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J46" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K46" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="L46" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="M46" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
-        <v/>
-      </c>
-      <c r="N46" s="67">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
-        <v/>
-      </c>
-      <c r="O46" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="P46" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="Q46" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
-        <v/>
-      </c>
-      <c r="R46" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="S46" s="68">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="T46" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="U46" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
-        <v/>
-      </c>
-      <c r="V46" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="69" t="n"/>
-      <c r="X46" s="69" t="n"/>
-      <c r="Y46" s="68">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="69" t="n"/>
-      <c r="AA46" s="69" t="n"/>
-      <c r="AB46" s="70" t="n"/>
-      <c r="AC46" s="66">
-        <f>if(B8="DIV", F8,"")</f>
-        <v/>
-      </c>
-      <c r="AD46" s="71" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="58" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B47" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C47" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D47" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" s="63" t="n">
-        <v>867.91</v>
-      </c>
-      <c r="F47" s="63" t="n">
-        <v>8679.07</v>
-      </c>
-      <c r="G47" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H47" s="60" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I47" s="63" t="n">
-        <v>52.47</v>
-      </c>
-      <c r="J47" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K47" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="L47" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="67">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="P47" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
-        <v/>
-      </c>
-      <c r="R47" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="S47" s="68">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="T47" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="U47" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
-        <v/>
-      </c>
-      <c r="V47" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="69" t="n"/>
-      <c r="X47" s="69" t="n"/>
-      <c r="Y47" s="68">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="69" t="n"/>
-      <c r="AA47" s="69" t="n"/>
-      <c r="AB47" s="70" t="n"/>
-      <c r="AC47" s="66">
-        <f>if(B9="DIV", F9,"")</f>
-        <v/>
-      </c>
-      <c r="AD47" s="71" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="58" t="n">
-        <v>45708</v>
-      </c>
-      <c r="B48" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C48" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D48" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="E48" s="63" t="n">
-        <v>874.63</v>
-      </c>
-      <c r="F48" s="63" t="n">
-        <v>8746.309999999999</v>
-      </c>
-      <c r="G48" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H48" s="60" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="I48" s="63" t="n">
-        <v>52.66</v>
-      </c>
-      <c r="J48" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K48" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="67">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="Q48" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
-        <v/>
-      </c>
-      <c r="R48" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
-        <v/>
-      </c>
-      <c r="S48" s="68">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="T48" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="U48" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
-        <v/>
-      </c>
-      <c r="V48" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="69" t="n"/>
-      <c r="X48" s="69" t="n"/>
-      <c r="Y48" s="68">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="69" t="n"/>
-      <c r="AA48" s="69" t="n"/>
-      <c r="AB48" s="70" t="n"/>
-      <c r="AC48" s="66">
-        <f>if(B10="DIV", F10,"")</f>
-        <v/>
-      </c>
-      <c r="AD48" s="71" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="58" t="n">
-        <v>45705</v>
-      </c>
-      <c r="B49" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C49" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D49" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="E49" s="63" t="n">
-        <v>909.41</v>
-      </c>
-      <c r="F49" s="63" t="n">
-        <v>9094.059999999999</v>
-      </c>
-      <c r="G49" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H49" s="60" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="I49" s="63" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="J49" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K49" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="67">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
-        <v/>
-      </c>
-      <c r="R49" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="S49" s="68">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="T49" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="U49" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
-        <v/>
-      </c>
-      <c r="V49" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="69" t="n"/>
-      <c r="X49" s="69" t="n"/>
-      <c r="Y49" s="68">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="69" t="n"/>
-      <c r="AA49" s="69" t="n"/>
-      <c r="AB49" s="70" t="n"/>
-      <c r="AC49" s="66">
-        <f>if(B11="DIV", F11,"")</f>
-        <v/>
-      </c>
-      <c r="AD49" s="71" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="58" t="n">
-        <v>45705</v>
-      </c>
-      <c r="B50" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C50" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D50" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" s="63" t="n">
-        <v>909.46</v>
-      </c>
-      <c r="F50" s="63" t="n">
-        <v>2728.37</v>
-      </c>
-      <c r="G50" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H50" s="60" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I50" s="63" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="J50" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K50" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="L50" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="M50" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
-        <v/>
-      </c>
-      <c r="N50" s="67">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
-        <v/>
-      </c>
-      <c r="O50" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="P50" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="Q50" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
-        <v/>
-      </c>
-      <c r="R50" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="S50" s="68">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="T50" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="U50" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
-        <v/>
-      </c>
-      <c r="V50" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W50" s="69" t="n"/>
-      <c r="X50" s="69" t="n"/>
-      <c r="Y50" s="68">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z50" s="69" t="n"/>
-      <c r="AA50" s="69" t="n"/>
-      <c r="AB50" s="70" t="n"/>
-      <c r="AC50" s="66">
-        <f>if(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD50" s="71" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="58" t="n">
-        <v>45702</v>
-      </c>
-      <c r="B51" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C51" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D51" s="60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" s="63" t="n">
-        <v>918.3200000000001</v>
-      </c>
-      <c r="F51" s="63" t="n">
-        <v>1836.63</v>
-      </c>
-      <c r="G51" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H51" s="60" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I51" s="63" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="J51" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K51" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="L51" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="M51" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
-        <v/>
-      </c>
-      <c r="N51" s="67">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
-        <v/>
-      </c>
-      <c r="O51" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="P51" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="Q51" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
-        <v/>
-      </c>
-      <c r="R51" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="S51" s="68">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="T51" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="U51" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
-        <v/>
-      </c>
-      <c r="V51" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W51" s="69" t="n"/>
-      <c r="X51" s="69" t="n"/>
-      <c r="Y51" s="68">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z51" s="69" t="n"/>
-      <c r="AA51" s="69" t="n"/>
-      <c r="AB51" s="70" t="n"/>
-      <c r="AC51" s="66">
-        <f>if(B13="DIV", F13,"")</f>
-        <v/>
-      </c>
-      <c r="AD51" s="71" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="58" t="n">
-        <v>45702</v>
-      </c>
-      <c r="B52" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C52" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D52" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="E52" s="63" t="n">
-        <v>918.47</v>
-      </c>
-      <c r="F52" s="63" t="n">
-        <v>7347.72</v>
-      </c>
-      <c r="G52" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H52" s="60" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="I52" s="63" t="n">
-        <v>44.41</v>
-      </c>
-      <c r="J52" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K52" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="L52" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="M52" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
-        <v/>
-      </c>
-      <c r="N52" s="67">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
-        <v/>
-      </c>
-      <c r="O52" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="P52" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="Q52" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
-        <v/>
-      </c>
-      <c r="R52" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="S52" s="68">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="T52" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="U52" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
-        <v/>
-      </c>
-      <c r="V52" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="69" t="n"/>
-      <c r="X52" s="69" t="n"/>
-      <c r="Y52" s="68">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="69" t="n"/>
-      <c r="AA52" s="69" t="n"/>
-      <c r="AB52" s="70" t="n"/>
-      <c r="AC52" s="66">
-        <f>if(B14="DIV", F14,"")</f>
-        <v/>
-      </c>
-      <c r="AD52" s="71" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="58" t="n">
-        <v>45699</v>
+        <v>45734</v>
       </c>
       <c r="B53" s="59" t="inlineStr">
         <is>
@@ -32399,95 +31750,94 @@
         </is>
       </c>
       <c r="D53" s="60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E53" s="63" t="n">
-        <v>948.73</v>
-      </c>
-      <c r="F53" s="63" t="n">
-        <v>1897.46</v>
+        <v>901.14</v>
+      </c>
+      <c r="F53" s="62">
+        <f>E5*D5 + sum(H5:I5)</f>
+        <v/>
       </c>
       <c r="G53" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H53" s="60" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="H53" s="60" t="n"/>
       <c r="I53" s="63" t="n">
-        <v>11.48</v>
+        <v>31.7</v>
       </c>
       <c r="J53" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L53" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M53" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N53" s="67">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O53" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P53" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R53" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S53" s="68">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T53" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U53" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V53" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W53" s="69" t="n"/>
       <c r="X53" s="69" t="n"/>
       <c r="Y53" s="68">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z53" s="69" t="n"/>
       <c r="AA53" s="69" t="n"/>
       <c r="AB53" s="70" t="n"/>
       <c r="AC53" s="66">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD53" s="71" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="58" t="n">
-        <v>45699</v>
+        <v>45722</v>
       </c>
       <c r="B54" s="59" t="inlineStr">
         <is>
@@ -32500,13 +31850,13 @@
         </is>
       </c>
       <c r="D54" s="60" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E54" s="63" t="n">
-        <v>948.48</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="F54" s="63" t="n">
-        <v>6639.33</v>
+        <v>3566.71</v>
       </c>
       <c r="G54" s="59" t="inlineStr">
         <is>
@@ -32514,81 +31864,81 @@
         </is>
       </c>
       <c r="H54" s="60" t="n">
-        <v>6.59</v>
+        <v>3.56</v>
       </c>
       <c r="I54" s="63" t="n">
-        <v>40.14</v>
+        <v>21.55</v>
       </c>
       <c r="J54" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L54" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M54" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N54" s="67">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O54" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P54" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R54" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S54" s="68">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T54" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U54" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V54" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W54" s="69" t="n"/>
       <c r="X54" s="69" t="n"/>
       <c r="Y54" s="68">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z54" s="69" t="n"/>
       <c r="AA54" s="69" t="n"/>
       <c r="AB54" s="70" t="n"/>
       <c r="AC54" s="66">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD54" s="71" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="58" t="n">
-        <v>45699</v>
+        <v>45722</v>
       </c>
       <c r="B55" s="59" t="inlineStr">
         <is>
@@ -32604,10 +31954,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="63" t="n">
-        <v>948.71</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="F55" s="63" t="n">
-        <v>948.71</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="G55" s="59" t="inlineStr">
         <is>
@@ -32615,81 +31965,81 @@
         </is>
       </c>
       <c r="H55" s="60" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="I55" s="63" t="n">
-        <v>5.72</v>
+        <v>5.39</v>
       </c>
       <c r="J55" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L55" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M55" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N55" s="67">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O55" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P55" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R55" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S55" s="68">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T55" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U55" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V55" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W55" s="69" t="n"/>
       <c r="X55" s="69" t="n"/>
       <c r="Y55" s="68">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z55" s="69" t="n"/>
       <c r="AA55" s="69" t="n"/>
       <c r="AB55" s="70" t="n"/>
       <c r="AC55" s="66">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD55" s="71" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="58" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B56" s="59" t="inlineStr">
         <is>
@@ -32702,13 +32052,13 @@
         </is>
       </c>
       <c r="D56" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E56" s="63" t="n">
-        <v>978.6900000000001</v>
+        <v>854.46</v>
       </c>
       <c r="F56" s="63" t="n">
-        <v>9786.860000000001</v>
+        <v>4272.28</v>
       </c>
       <c r="G56" s="59" t="inlineStr">
         <is>
@@ -32716,81 +32066,81 @@
         </is>
       </c>
       <c r="H56" s="60" t="n">
-        <v>9.699999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="I56" s="63" t="n">
-        <v>59.16</v>
+        <v>25.8</v>
       </c>
       <c r="J56" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L56" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M56" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N56" s="67">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O56" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P56" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R56" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S56" s="68">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T56" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U56" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V56" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W56" s="69" t="n"/>
       <c r="X56" s="69" t="n"/>
       <c r="Y56" s="68">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z56" s="69" t="n"/>
       <c r="AA56" s="69" t="n"/>
       <c r="AB56" s="70" t="n"/>
       <c r="AC56" s="66">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD56" s="71" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="58" t="n">
-        <v>45687</v>
+        <v>45712</v>
       </c>
       <c r="B57" s="59" t="inlineStr">
         <is>
@@ -32803,13 +32153,13 @@
         </is>
       </c>
       <c r="D57" s="60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E57" s="63" t="n">
-        <v>1019.62</v>
+        <v>867.91</v>
       </c>
       <c r="F57" s="63" t="n">
-        <v>1019.62</v>
+        <v>8679.07</v>
       </c>
       <c r="G57" s="59" t="inlineStr">
         <is>
@@ -32817,81 +32167,81 @@
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="I57" s="63" t="n">
-        <v>6.16</v>
+        <v>52.47</v>
       </c>
       <c r="J57" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L57" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M57" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N57" s="67">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O57" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P57" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R57" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S57" s="68">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T57" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U57" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V57" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W57" s="69" t="n"/>
       <c r="X57" s="69" t="n"/>
       <c r="Y57" s="68">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z57" s="69" t="n"/>
       <c r="AA57" s="69" t="n"/>
       <c r="AB57" s="70" t="n"/>
       <c r="AC57" s="66">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD57" s="71" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="58" t="n">
-        <v>45687</v>
+        <v>45708</v>
       </c>
       <c r="B58" s="59" t="inlineStr">
         <is>
@@ -32904,13 +32254,13 @@
         </is>
       </c>
       <c r="D58" s="60" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E58" s="63" t="n">
-        <v>1019.68</v>
+        <v>874.63</v>
       </c>
       <c r="F58" s="63" t="n">
-        <v>3059.03</v>
+        <v>8746.309999999999</v>
       </c>
       <c r="G58" s="59" t="inlineStr">
         <is>
@@ -32918,81 +32268,81 @@
         </is>
       </c>
       <c r="H58" s="60" t="n">
-        <v>3.04</v>
+        <v>8.65</v>
       </c>
       <c r="I58" s="63" t="n">
-        <v>18.49</v>
+        <v>52.66</v>
       </c>
       <c r="J58" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L58" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M58" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N58" s="67">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O58" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P58" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R58" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S58" s="68">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T58" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U58" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V58" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W58" s="69" t="n"/>
       <c r="X58" s="69" t="n"/>
       <c r="Y58" s="68">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z58" s="69" t="n"/>
       <c r="AA58" s="69" t="n"/>
       <c r="AB58" s="70" t="n"/>
       <c r="AC58" s="66">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD58" s="71" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="58" t="n">
-        <v>45687</v>
+        <v>45705</v>
       </c>
       <c r="B59" s="59" t="inlineStr">
         <is>
@@ -33005,13 +32355,13 @@
         </is>
       </c>
       <c r="D59" s="60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E59" s="63" t="n">
-        <v>1019.42</v>
+        <v>909.41</v>
       </c>
       <c r="F59" s="63" t="n">
-        <v>1019.42</v>
+        <v>9094.059999999999</v>
       </c>
       <c r="G59" s="59" t="inlineStr">
         <is>
@@ -33019,81 +32369,81 @@
         </is>
       </c>
       <c r="H59" s="60" t="n">
-        <v>1.01</v>
+        <v>9.02</v>
       </c>
       <c r="I59" s="63" t="n">
-        <v>6.16</v>
+        <v>55.04</v>
       </c>
       <c r="J59" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L59" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M59" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N59" s="67">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O59" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P59" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R59" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S59" s="68">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T59" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U59" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V59" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W59" s="69" t="n"/>
       <c r="X59" s="69" t="n"/>
       <c r="Y59" s="68">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z59" s="69" t="n"/>
       <c r="AA59" s="69" t="n"/>
       <c r="AB59" s="70" t="n"/>
       <c r="AC59" s="66">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD59" s="71" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="58" t="n">
-        <v>45687</v>
+        <v>45705</v>
       </c>
       <c r="B60" s="59" t="inlineStr">
         <is>
@@ -33106,13 +32456,13 @@
         </is>
       </c>
       <c r="D60" s="60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" s="63" t="n">
-        <v>1019.62</v>
+        <v>909.46</v>
       </c>
       <c r="F60" s="63" t="n">
-        <v>1019.62</v>
+        <v>2728.37</v>
       </c>
       <c r="G60" s="59" t="inlineStr">
         <is>
@@ -33120,81 +32470,81 @@
         </is>
       </c>
       <c r="H60" s="60" t="n">
-        <v>1.01</v>
+        <v>2.71</v>
       </c>
       <c r="I60" s="63" t="n">
-        <v>6.16</v>
+        <v>16.51</v>
       </c>
       <c r="J60" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L60" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M60" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N60" s="67">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O60" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P60" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R60" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S60" s="68">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T60" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U60" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V60" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W60" s="69" t="n"/>
       <c r="X60" s="69" t="n"/>
       <c r="Y60" s="68">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z60" s="69" t="n"/>
       <c r="AA60" s="69" t="n"/>
       <c r="AB60" s="70" t="n"/>
       <c r="AC60" s="66">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD60" s="71" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="58" t="n">
-        <v>45687</v>
+        <v>45702</v>
       </c>
       <c r="B61" s="59" t="inlineStr">
         <is>
@@ -33207,13 +32557,13 @@
         </is>
       </c>
       <c r="D61" s="60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" s="63" t="n">
-        <v>1019.62</v>
+        <v>918.3200000000001</v>
       </c>
       <c r="F61" s="63" t="n">
-        <v>4078.47</v>
+        <v>1836.63</v>
       </c>
       <c r="G61" s="59" t="inlineStr">
         <is>
@@ -33221,81 +32571,81 @@
         </is>
       </c>
       <c r="H61" s="60" t="n">
-        <v>4.04</v>
+        <v>1.82</v>
       </c>
       <c r="I61" s="63" t="n">
-        <v>24.63</v>
+        <v>11.11</v>
       </c>
       <c r="J61" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L61" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M61" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N61" s="67">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O61" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P61" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R61" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S61" s="68">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T61" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U61" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V61" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W61" s="69" t="n"/>
       <c r="X61" s="69" t="n"/>
       <c r="Y61" s="68">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z61" s="69" t="n"/>
       <c r="AA61" s="69" t="n"/>
       <c r="AB61" s="70" t="n"/>
       <c r="AC61" s="66">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD61" s="71" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="58" t="n">
-        <v>45664</v>
+        <v>45702</v>
       </c>
       <c r="B62" s="59" t="inlineStr">
         <is>
@@ -33308,13 +32658,13 @@
         </is>
       </c>
       <c r="D62" s="60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E62" s="63" t="n">
-        <v>1115.08</v>
+        <v>918.47</v>
       </c>
       <c r="F62" s="63" t="n">
-        <v>11150.79</v>
+        <v>7347.72</v>
       </c>
       <c r="G62" s="59" t="inlineStr">
         <is>
@@ -33322,81 +32672,81 @@
         </is>
       </c>
       <c r="H62" s="60" t="n">
-        <v>11</v>
+        <v>7.31</v>
       </c>
       <c r="I62" s="63" t="n">
-        <v>67.79000000000001</v>
+        <v>44.41</v>
       </c>
       <c r="J62" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L62" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M62" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N62" s="67">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O62" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P62" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R62" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S62" s="68">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T62" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U62" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V62" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W62" s="69" t="n"/>
       <c r="X62" s="69" t="n"/>
       <c r="Y62" s="68">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z62" s="69" t="n"/>
       <c r="AA62" s="69" t="n"/>
       <c r="AB62" s="70" t="n"/>
       <c r="AC62" s="66">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD62" s="71" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="58" t="n">
-        <v>45621</v>
+        <v>45699</v>
       </c>
       <c r="B63" s="59" t="inlineStr">
         <is>
@@ -33412,10 +32762,10 @@
         <v>2</v>
       </c>
       <c r="E63" s="63" t="n">
-        <v>1226.32</v>
+        <v>948.73</v>
       </c>
       <c r="F63" s="63" t="n">
-        <v>2452.64</v>
+        <v>1897.46</v>
       </c>
       <c r="G63" s="59" t="inlineStr">
         <is>
@@ -33423,85 +32773,85 @@
         </is>
       </c>
       <c r="H63" s="60" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="I63" s="63" t="n">
-        <v>14.86</v>
+        <v>11.48</v>
       </c>
       <c r="J63" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L63" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M63" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N63" s="67">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O63" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P63" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R63" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S63" s="68">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T63" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U63" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V63" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W63" s="69" t="n"/>
       <c r="X63" s="69" t="n"/>
       <c r="Y63" s="68">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z63" s="69" t="n"/>
       <c r="AA63" s="69" t="n"/>
       <c r="AB63" s="70" t="n"/>
       <c r="AC63" s="66">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD63" s="71" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="58" t="n">
-        <v>45534</v>
+        <v>45699</v>
       </c>
       <c r="B64" s="59" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C64" s="59" t="inlineStr">
@@ -33510,95 +32860,95 @@
         </is>
       </c>
       <c r="D64" s="60" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E64" s="63" t="n">
-        <v>6</v>
+        <v>948.48</v>
       </c>
       <c r="F64" s="63" t="n">
-        <v>150</v>
+        <v>6639.33</v>
       </c>
       <c r="G64" s="59" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H64" s="60" t="n">
-        <v>0</v>
+        <v>6.59</v>
       </c>
       <c r="I64" s="63" t="n">
-        <v>0</v>
+        <v>40.14</v>
       </c>
       <c r="J64" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L64" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M64" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N64" s="67">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O64" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P64" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R64" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S64" s="68">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T64" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U64" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V64" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W64" s="69" t="n"/>
       <c r="X64" s="69" t="n"/>
       <c r="Y64" s="68">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z64" s="69" t="n"/>
       <c r="AA64" s="69" t="n"/>
       <c r="AB64" s="70" t="n"/>
       <c r="AC64" s="66">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD64" s="71" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="58" t="n">
-        <v>45379</v>
+        <v>45699</v>
       </c>
       <c r="B65" s="59" t="inlineStr">
         <is>
@@ -33614,10 +32964,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="63" t="n">
-        <v>1155.21</v>
+        <v>948.71</v>
       </c>
       <c r="F65" s="63" t="n">
-        <v>1155.21</v>
+        <v>948.71</v>
       </c>
       <c r="G65" s="59" t="inlineStr">
         <is>
@@ -33625,85 +32975,81 @@
         </is>
       </c>
       <c r="H65" s="60" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I65" s="63" t="n">
-        <v>7.16</v>
+        <v>5.72</v>
       </c>
       <c r="J65" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L65" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M65" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N65" s="67">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O65" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P65" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R65" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S65" s="68">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T65" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U65" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V65" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W65" s="69" t="n"/>
       <c r="X65" s="69" t="n"/>
       <c r="Y65" s="68">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z65" s="69" t="n"/>
       <c r="AA65" s="69" t="n"/>
       <c r="AB65" s="70" t="n"/>
       <c r="AC65" s="66">
-        <f>if(B27="DIV", F27,"")</f>
-        <v/>
-      </c>
-      <c r="AD65" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD65" s="71" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="58" t="n">
-        <v>45379</v>
+        <v>45694</v>
       </c>
       <c r="B66" s="59" t="inlineStr">
         <is>
@@ -33716,13 +33062,13 @@
         </is>
       </c>
       <c r="D66" s="60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E66" s="63" t="n">
-        <v>1155.25</v>
+        <v>978.6900000000001</v>
       </c>
       <c r="F66" s="63" t="n">
-        <v>1155.25</v>
+        <v>9786.860000000001</v>
       </c>
       <c r="G66" s="59" t="inlineStr">
         <is>
@@ -33730,85 +33076,81 @@
         </is>
       </c>
       <c r="H66" s="60" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I66" s="63" t="n">
-        <v>7.15</v>
+        <v>59.16</v>
       </c>
       <c r="J66" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L66" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M66" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N66" s="67">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O66" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P66" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R66" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S66" s="68">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T66" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U66" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V66" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W66" s="69" t="n"/>
       <c r="X66" s="69" t="n"/>
       <c r="Y66" s="68">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z66" s="69" t="n"/>
       <c r="AA66" s="69" t="n"/>
       <c r="AB66" s="70" t="n"/>
       <c r="AC66" s="66">
-        <f>if(B28="DIV", F28,"")</f>
-        <v/>
-      </c>
-      <c r="AD66" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B18="DIV", F18,"")</f>
+        <v/>
+      </c>
+      <c r="AD66" s="71" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="58" t="n">
-        <v>45379</v>
+        <v>45687</v>
       </c>
       <c r="B67" s="59" t="inlineStr">
         <is>
@@ -33824,10 +33166,10 @@
         <v>1</v>
       </c>
       <c r="E67" s="63" t="n">
-        <v>1155.25</v>
+        <v>1019.62</v>
       </c>
       <c r="F67" s="63" t="n">
-        <v>1155.25</v>
+        <v>1019.62</v>
       </c>
       <c r="G67" s="59" t="inlineStr">
         <is>
@@ -33835,85 +33177,81 @@
         </is>
       </c>
       <c r="H67" s="60" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I67" s="63" t="n">
-        <v>7.15</v>
+        <v>6.16</v>
       </c>
       <c r="J67" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L67" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M67" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N67" s="67">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O67" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P67" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R67" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S67" s="68">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T67" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U67" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V67" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W67" s="69" t="n"/>
       <c r="X67" s="69" t="n"/>
       <c r="Y67" s="68">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z67" s="69" t="n"/>
       <c r="AA67" s="69" t="n"/>
       <c r="AB67" s="70" t="n"/>
       <c r="AC67" s="66">
-        <f>if(B29="DIV", F29,"")</f>
-        <v/>
-      </c>
-      <c r="AD67" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B19="DIV", F19,"")</f>
+        <v/>
+      </c>
+      <c r="AD67" s="71" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="58" t="n">
-        <v>45364</v>
+        <v>45687</v>
       </c>
       <c r="B68" s="59" t="inlineStr">
         <is>
@@ -33926,13 +33264,13 @@
         </is>
       </c>
       <c r="D68" s="60" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E68" s="63" t="n">
-        <v>1244.56</v>
+        <v>1019.68</v>
       </c>
       <c r="F68" s="63" t="n">
-        <v>9956.469999999999</v>
+        <v>3059.03</v>
       </c>
       <c r="G68" s="59" t="inlineStr">
         <is>
@@ -33940,85 +33278,81 @@
         </is>
       </c>
       <c r="H68" s="60" t="n">
-        <v>9.859999999999999</v>
+        <v>3.04</v>
       </c>
       <c r="I68" s="63" t="n">
-        <v>60.21</v>
+        <v>18.49</v>
       </c>
       <c r="J68" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L68" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M68" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N68" s="67">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O68" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P68" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R68" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S68" s="68">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T68" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U68" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V68" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W68" s="69" t="n"/>
       <c r="X68" s="69" t="n"/>
       <c r="Y68" s="68">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z68" s="69" t="n"/>
       <c r="AA68" s="69" t="n"/>
       <c r="AB68" s="70" t="n"/>
       <c r="AC68" s="66">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
-      <c r="AD68" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD68" s="71" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="58" t="n">
-        <v>45363</v>
+        <v>45687</v>
       </c>
       <c r="B69" s="59" t="inlineStr">
         <is>
@@ -34031,13 +33365,13 @@
         </is>
       </c>
       <c r="D69" s="60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E69" s="63" t="n">
-        <v>1234.43</v>
+        <v>1019.42</v>
       </c>
       <c r="F69" s="63" t="n">
-        <v>9875.43</v>
+        <v>1019.42</v>
       </c>
       <c r="G69" s="59" t="inlineStr">
         <is>
@@ -34045,85 +33379,81 @@
         </is>
       </c>
       <c r="H69" s="60" t="n">
-        <v>9.710000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="I69" s="63" t="n">
-        <v>59.72</v>
+        <v>6.16</v>
       </c>
       <c r="J69" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L69" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M69" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N69" s="67">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O69" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P69" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R69" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S69" s="68">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T69" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U69" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V69" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W69" s="69" t="n"/>
       <c r="X69" s="69" t="n"/>
       <c r="Y69" s="68">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z69" s="69" t="n"/>
       <c r="AA69" s="69" t="n"/>
       <c r="AB69" s="70" t="n"/>
       <c r="AC69" s="66">
-        <f>if(B31="DIV", F31,"")</f>
-        <v/>
-      </c>
-      <c r="AD69" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD69" s="71" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="58" t="n">
-        <v>45282</v>
+        <v>45687</v>
       </c>
       <c r="B70" s="59" t="inlineStr">
         <is>
@@ -34135,14 +33465,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D70" s="73" t="n">
+      <c r="D70" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="E70" s="64" t="n">
-        <v>1378.45</v>
-      </c>
-      <c r="F70" s="74" t="n">
-        <v>1388.22</v>
+      <c r="E70" s="63" t="n">
+        <v>1019.62</v>
+      </c>
+      <c r="F70" s="63" t="n">
+        <v>1019.62</v>
       </c>
       <c r="G70" s="59" t="inlineStr">
         <is>
@@ -34150,85 +33480,81 @@
         </is>
       </c>
       <c r="H70" s="60" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="I70" s="63" t="n">
-        <v>8.390000000000001</v>
+        <v>6.16</v>
       </c>
       <c r="J70" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L70" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M70" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N70" s="67">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O70" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P70" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R70" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S70" s="68">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T70" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U70" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V70" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W70" s="69" t="n"/>
       <c r="X70" s="69" t="n"/>
       <c r="Y70" s="68">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z70" s="69" t="n"/>
       <c r="AA70" s="69" t="n"/>
       <c r="AB70" s="70" t="n"/>
       <c r="AC70" s="66">
-        <f>if(B32="DIV", F32,"")</f>
-        <v/>
-      </c>
-      <c r="AD70" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD70" s="71" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="58" t="n">
-        <v>45282</v>
+        <v>45687</v>
       </c>
       <c r="B71" s="59" t="inlineStr">
         <is>
@@ -34240,14 +33566,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D71" s="73" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="64" t="n">
-        <v>1378.5</v>
-      </c>
-      <c r="F71" s="74" t="n">
-        <v>2776.54</v>
+      <c r="D71" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E71" s="63" t="n">
+        <v>1019.62</v>
+      </c>
+      <c r="F71" s="63" t="n">
+        <v>4078.47</v>
       </c>
       <c r="G71" s="59" t="inlineStr">
         <is>
@@ -34255,85 +33581,81 @@
         </is>
       </c>
       <c r="H71" s="60" t="n">
-        <v>2.76</v>
+        <v>4.04</v>
       </c>
       <c r="I71" s="63" t="n">
-        <v>16.78</v>
+        <v>24.63</v>
       </c>
       <c r="J71" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L71" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M71" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N71" s="67">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O71" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P71" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R71" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S71" s="68">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T71" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U71" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V71" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W71" s="69" t="n"/>
       <c r="X71" s="69" t="n"/>
       <c r="Y71" s="68">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z71" s="69" t="n"/>
       <c r="AA71" s="69" t="n"/>
       <c r="AB71" s="70" t="n"/>
       <c r="AC71" s="66">
-        <f>if(B33="DIV", F33,"")</f>
-        <v/>
-      </c>
-      <c r="AD71" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD71" s="71" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="58" t="n">
-        <v>45278</v>
+        <v>45664</v>
       </c>
       <c r="B72" s="59" t="inlineStr">
         <is>
@@ -34345,14 +33667,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D72" s="73" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="64" t="n">
-        <v>1374.05</v>
-      </c>
-      <c r="F72" s="74" t="n">
-        <v>2767.58</v>
+      <c r="D72" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" s="63" t="n">
+        <v>1115.08</v>
+      </c>
+      <c r="F72" s="63" t="n">
+        <v>11150.79</v>
       </c>
       <c r="G72" s="59" t="inlineStr">
         <is>
@@ -34360,85 +33682,81 @@
         </is>
       </c>
       <c r="H72" s="60" t="n">
-        <v>2.75</v>
+        <v>11</v>
       </c>
       <c r="I72" s="63" t="n">
-        <v>16.73</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="J72" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L72" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M72" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N72" s="67">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O72" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P72" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R72" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S72" s="68">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T72" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U72" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V72" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W72" s="69" t="n"/>
       <c r="X72" s="69" t="n"/>
       <c r="Y72" s="68">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z72" s="69" t="n"/>
       <c r="AA72" s="69" t="n"/>
       <c r="AB72" s="70" t="n"/>
       <c r="AC72" s="66">
-        <f>if(B34="DIV", F34,"")</f>
-        <v/>
-      </c>
-      <c r="AD72" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B24="DIV", F24,"")</f>
+        <v/>
+      </c>
+      <c r="AD72" s="71" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="58" t="n">
-        <v>45258</v>
+        <v>45621</v>
       </c>
       <c r="B73" s="59" t="inlineStr">
         <is>
@@ -34450,14 +33768,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D73" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="64" t="n">
-        <v>1313.1</v>
-      </c>
-      <c r="F73" s="74" t="n">
-        <v>1322.41</v>
+      <c r="D73" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="63" t="n">
+        <v>1226.32</v>
+      </c>
+      <c r="F73" s="63" t="n">
+        <v>2452.64</v>
       </c>
       <c r="G73" s="59" t="inlineStr">
         <is>
@@ -34465,241 +33783,1123 @@
         </is>
       </c>
       <c r="H73" s="60" t="n">
-        <v>1.31</v>
+        <v>2.48</v>
       </c>
       <c r="I73" s="63" t="n">
-        <v>8</v>
+        <v>14.86</v>
       </c>
       <c r="J73" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L73" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M73" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N73" s="67">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O73" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P73" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R73" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S73" s="68">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T73" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U73" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V73" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W73" s="69" t="n"/>
       <c r="X73" s="69" t="n"/>
       <c r="Y73" s="68">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z73" s="69" t="n"/>
       <c r="AA73" s="69" t="n"/>
       <c r="AB73" s="70" t="n"/>
       <c r="AC73" s="66">
+        <f>if(B25="DIV", F25,"")</f>
+        <v/>
+      </c>
+      <c r="AD73" s="71" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="58" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B74" s="59" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C74" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D74" s="60" t="n">
+        <v>25</v>
+      </c>
+      <c r="E74" s="63" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" s="63" t="n">
+        <v>150</v>
+      </c>
+      <c r="G74" s="59" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
+        </is>
+      </c>
+      <c r="H74" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K74" s="65">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="L74" s="66">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <v/>
+      </c>
+      <c r="M74" s="66">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <v/>
+      </c>
+      <c r="N74" s="67">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <v/>
+      </c>
+      <c r="O74" s="65">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="P74" s="66">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <v/>
+      </c>
+      <c r="Q74" s="66">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <v/>
+      </c>
+      <c r="R74" s="66">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="S74" s="68">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="T74" s="69">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <v/>
+      </c>
+      <c r="U74" s="69">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <v/>
+      </c>
+      <c r="V74" s="69">
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <v/>
+      </c>
+      <c r="W74" s="69" t="n"/>
+      <c r="X74" s="69" t="n"/>
+      <c r="Y74" s="68">
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <v/>
+      </c>
+      <c r="Z74" s="69" t="n"/>
+      <c r="AA74" s="69" t="n"/>
+      <c r="AB74" s="70" t="n"/>
+      <c r="AC74" s="66">
+        <f>if(B26="DIV", F26,"")</f>
+        <v/>
+      </c>
+      <c r="AD74" s="71" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="58" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B75" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C75" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D75" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="63" t="n">
+        <v>1155.21</v>
+      </c>
+      <c r="F75" s="63" t="n">
+        <v>1155.21</v>
+      </c>
+      <c r="G75" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H75" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="63" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J75" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K75" s="65">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="L75" s="66">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <v/>
+      </c>
+      <c r="M75" s="66">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <v/>
+      </c>
+      <c r="N75" s="67">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <v/>
+      </c>
+      <c r="O75" s="65">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="P75" s="66">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <v/>
+      </c>
+      <c r="Q75" s="66">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <v/>
+      </c>
+      <c r="R75" s="66">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <v/>
+      </c>
+      <c r="S75" s="68">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="T75" s="69">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <v/>
+      </c>
+      <c r="U75" s="69">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <v/>
+      </c>
+      <c r="V75" s="69">
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <v/>
+      </c>
+      <c r="W75" s="69" t="n"/>
+      <c r="X75" s="69" t="n"/>
+      <c r="Y75" s="68">
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z75" s="69" t="n"/>
+      <c r="AA75" s="69" t="n"/>
+      <c r="AB75" s="70" t="n"/>
+      <c r="AC75" s="66">
+        <f>if(B27="DIV", F27,"")</f>
+        <v/>
+      </c>
+      <c r="AD75" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="58" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B76" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C76" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D76" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="63" t="n">
+        <v>1155.25</v>
+      </c>
+      <c r="F76" s="63" t="n">
+        <v>1155.25</v>
+      </c>
+      <c r="G76" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H76" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="63" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J76" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K76" s="65">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="L76" s="66">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <v/>
+      </c>
+      <c r="M76" s="66">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <v/>
+      </c>
+      <c r="N76" s="67">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <v/>
+      </c>
+      <c r="O76" s="65">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="P76" s="66">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <v/>
+      </c>
+      <c r="Q76" s="66">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <v/>
+      </c>
+      <c r="R76" s="66">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="S76" s="68">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="T76" s="69">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <v/>
+      </c>
+      <c r="U76" s="69">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <v/>
+      </c>
+      <c r="V76" s="69">
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W76" s="69" t="n"/>
+      <c r="X76" s="69" t="n"/>
+      <c r="Y76" s="68">
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z76" s="69" t="n"/>
+      <c r="AA76" s="69" t="n"/>
+      <c r="AB76" s="70" t="n"/>
+      <c r="AC76" s="66">
+        <f>if(B28="DIV", F28,"")</f>
+        <v/>
+      </c>
+      <c r="AD76" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="58" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B77" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C77" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D77" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="63" t="n">
+        <v>1155.25</v>
+      </c>
+      <c r="F77" s="63" t="n">
+        <v>1155.25</v>
+      </c>
+      <c r="G77" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H77" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="63" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J77" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K77" s="65">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="L77" s="66">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <v/>
+      </c>
+      <c r="M77" s="66">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <v/>
+      </c>
+      <c r="N77" s="67">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <v/>
+      </c>
+      <c r="O77" s="65">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="P77" s="66">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <v/>
+      </c>
+      <c r="Q77" s="66">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <v/>
+      </c>
+      <c r="R77" s="66">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="S77" s="68">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="T77" s="69">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <v/>
+      </c>
+      <c r="U77" s="69">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <v/>
+      </c>
+      <c r="V77" s="69">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="W77" s="69" t="n"/>
+      <c r="X77" s="69" t="n"/>
+      <c r="Y77" s="68">
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z77" s="69" t="n"/>
+      <c r="AA77" s="69" t="n"/>
+      <c r="AB77" s="70" t="n"/>
+      <c r="AC77" s="66">
+        <f>if(B29="DIV", F29,"")</f>
+        <v/>
+      </c>
+      <c r="AD77" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="58" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B78" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C78" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D78" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" s="63" t="n">
+        <v>1244.56</v>
+      </c>
+      <c r="F78" s="63" t="n">
+        <v>9956.469999999999</v>
+      </c>
+      <c r="G78" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H78" s="60" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I78" s="63" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="J78" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K78" s="65">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="L78" s="66">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M78" s="66">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N78" s="67">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O78" s="65">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="P78" s="66">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q78" s="66">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R78" s="66">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S78" s="68">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="T78" s="69">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="U78" s="69">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V78" s="69">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W78" s="69" t="n"/>
+      <c r="X78" s="69" t="n"/>
+      <c r="Y78" s="68">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z78" s="69" t="n"/>
+      <c r="AA78" s="69" t="n"/>
+      <c r="AB78" s="70" t="n"/>
+      <c r="AC78" s="66">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD78" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="58" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C79" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D79" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E79" s="63" t="n">
+        <v>1234.43</v>
+      </c>
+      <c r="F79" s="63" t="n">
+        <v>9875.43</v>
+      </c>
+      <c r="G79" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H79" s="60" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="I79" s="63" t="n">
+        <v>59.72</v>
+      </c>
+      <c r="J79" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K79" s="65">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="L79" s="66">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <v/>
+      </c>
+      <c r="M79" s="66">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <v/>
+      </c>
+      <c r="N79" s="67">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <v/>
+      </c>
+      <c r="O79" s="65">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="P79" s="66">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <v/>
+      </c>
+      <c r="Q79" s="66">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <v/>
+      </c>
+      <c r="R79" s="66">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="S79" s="68">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="T79" s="69">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <v/>
+      </c>
+      <c r="U79" s="69">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <v/>
+      </c>
+      <c r="V79" s="69">
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W79" s="69" t="n"/>
+      <c r="X79" s="69" t="n"/>
+      <c r="Y79" s="68">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z79" s="69" t="n"/>
+      <c r="AA79" s="69" t="n"/>
+      <c r="AB79" s="70" t="n"/>
+      <c r="AC79" s="66">
+        <f>if(B31="DIV", F31,"")</f>
+        <v/>
+      </c>
+      <c r="AD79" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="58" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C80" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D80" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="64" t="n">
+        <v>1378.45</v>
+      </c>
+      <c r="F80" s="74" t="n">
+        <v>1388.22</v>
+      </c>
+      <c r="G80" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H80" s="60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I80" s="63" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="J80" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K80" s="65">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="L80" s="66">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="M80" s="66">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <v/>
+      </c>
+      <c r="N80" s="67">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <v/>
+      </c>
+      <c r="O80" s="65">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="P80" s="66">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="Q80" s="66">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <v/>
+      </c>
+      <c r="R80" s="66">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="S80" s="68">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="T80" s="69">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <v/>
+      </c>
+      <c r="U80" s="69">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <v/>
+      </c>
+      <c r="V80" s="69">
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W80" s="69" t="n"/>
+      <c r="X80" s="69" t="n"/>
+      <c r="Y80" s="68">
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <v/>
+      </c>
+      <c r="Z80" s="69" t="n"/>
+      <c r="AA80" s="69" t="n"/>
+      <c r="AB80" s="70" t="n"/>
+      <c r="AC80" s="66">
+        <f>if(B32="DIV", F32,"")</f>
+        <v/>
+      </c>
+      <c r="AD80" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="58" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C81" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D81" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" s="64" t="n">
+        <v>1378.5</v>
+      </c>
+      <c r="F81" s="74" t="n">
+        <v>2776.54</v>
+      </c>
+      <c r="G81" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H81" s="60" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I81" s="63" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="J81" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K81" s="65">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="L81" s="66">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="M81" s="66">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <v/>
+      </c>
+      <c r="N81" s="67">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <v/>
+      </c>
+      <c r="O81" s="65">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="P81" s="66">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="Q81" s="66">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <v/>
+      </c>
+      <c r="R81" s="66">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="S81" s="68">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="T81" s="69">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <v/>
+      </c>
+      <c r="U81" s="69">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <v/>
+      </c>
+      <c r="V81" s="69">
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W81" s="69" t="n"/>
+      <c r="X81" s="69" t="n"/>
+      <c r="Y81" s="68">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z81" s="69" t="n"/>
+      <c r="AA81" s="69" t="n"/>
+      <c r="AB81" s="70" t="n"/>
+      <c r="AC81" s="66">
+        <f>if(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD81" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="58" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C82" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D82" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" s="64" t="n">
+        <v>1374.05</v>
+      </c>
+      <c r="F82" s="74" t="n">
+        <v>2767.58</v>
+      </c>
+      <c r="G82" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H82" s="60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I82" s="63" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="J82" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K82" s="65">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
+        <v/>
+      </c>
+      <c r="L82" s="66">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <v/>
+      </c>
+      <c r="M82" s="66">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <v/>
+      </c>
+      <c r="N82" s="67">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <v/>
+      </c>
+      <c r="O82" s="65">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
+        <v/>
+      </c>
+      <c r="P82" s="66">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <v/>
+      </c>
+      <c r="Q82" s="66">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <v/>
+      </c>
+      <c r="R82" s="66">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <v/>
+      </c>
+      <c r="S82" s="68">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
+        <v/>
+      </c>
+      <c r="T82" s="69">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <v/>
+      </c>
+      <c r="U82" s="69">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <v/>
+      </c>
+      <c r="V82" s="69">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <v/>
+      </c>
+      <c r="W82" s="69" t="n"/>
+      <c r="X82" s="69" t="n"/>
+      <c r="Y82" s="68">
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <v/>
+      </c>
+      <c r="Z82" s="69" t="n"/>
+      <c r="AA82" s="69" t="n"/>
+      <c r="AB82" s="70" t="n"/>
+      <c r="AC82" s="66">
+        <f>if(B34="DIV", F34,"")</f>
+        <v/>
+      </c>
+      <c r="AD82" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="58" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B83" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C83" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D83" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="64" t="n">
+        <v>1313.1</v>
+      </c>
+      <c r="F83" s="74" t="n">
+        <v>1322.41</v>
+      </c>
+      <c r="G83" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H83" s="60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I83" s="63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J83" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K83" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="L83" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="M83" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <v/>
+      </c>
+      <c r="N83" s="67">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <v/>
+      </c>
+      <c r="O83" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="P83" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="Q83" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <v/>
+      </c>
+      <c r="R83" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="S83" s="68">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="T83" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="U83" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <v/>
+      </c>
+      <c r="V83" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="W83" s="69" t="n"/>
+      <c r="X83" s="69" t="n"/>
+      <c r="Y83" s="68">
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="Z83" s="69" t="n"/>
+      <c r="AA83" s="69" t="n"/>
+      <c r="AB83" s="70" t="n"/>
+      <c r="AC83" s="66">
         <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
-      <c r="AD73" s="72" t="inlineStr">
+      <c r="AD83" s="72" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="E74" s="75" t="n"/>
-      <c r="F74" s="75" t="n"/>
-      <c r="G74" s="76" t="n"/>
-      <c r="J74" s="75" t="n"/>
-      <c r="K74" s="75" t="n"/>
-      <c r="L74" s="75" t="n"/>
-      <c r="M74" s="26" t="n"/>
-      <c r="W74" s="75" t="n"/>
-      <c r="X74" s="75" t="n"/>
-      <c r="Y74" s="75" t="n"/>
-      <c r="Z74" s="75" t="n"/>
-      <c r="AA74" s="75" t="n"/>
-      <c r="AB74" s="75" t="n"/>
-      <c r="AC74" s="75" t="n"/>
-    </row>
-    <row r="75">
-      <c r="E75" s="75" t="n"/>
-      <c r="F75" s="75" t="n"/>
-      <c r="G75" s="76" t="n"/>
-      <c r="J75" s="75" t="n"/>
-      <c r="K75" s="75" t="n"/>
-      <c r="L75" s="75" t="n"/>
-      <c r="M75" s="26" t="n"/>
-      <c r="W75" s="75" t="n"/>
-      <c r="X75" s="75" t="n"/>
-      <c r="Y75" s="75" t="n"/>
-      <c r="Z75" s="75" t="n"/>
-      <c r="AA75" s="75" t="n"/>
-      <c r="AB75" s="75" t="n"/>
-      <c r="AC75" s="75" t="n"/>
-    </row>
-    <row r="76">
-      <c r="E76" s="75" t="n"/>
-      <c r="F76" s="75" t="n"/>
-      <c r="G76" s="76" t="n"/>
-      <c r="J76" s="75" t="n"/>
-      <c r="K76" s="75" t="n"/>
-      <c r="L76" s="75" t="n"/>
-      <c r="M76" s="26" t="n"/>
-      <c r="W76" s="75" t="n"/>
-      <c r="X76" s="75" t="n"/>
-      <c r="Y76" s="75" t="n"/>
-      <c r="Z76" s="75" t="n"/>
-      <c r="AA76" s="75" t="n"/>
-      <c r="AB76" s="75" t="n"/>
-      <c r="AC76" s="75" t="n"/>
-    </row>
-    <row r="77">
-      <c r="E77" s="75" t="n"/>
-      <c r="F77" s="75" t="n"/>
-      <c r="G77" s="76" t="n"/>
-      <c r="J77" s="75" t="n"/>
-      <c r="K77" s="75" t="n"/>
-      <c r="L77" s="75" t="n"/>
-      <c r="M77" s="26" t="n"/>
-      <c r="W77" s="75" t="n"/>
-      <c r="X77" s="75" t="n"/>
-      <c r="Y77" s="75" t="n"/>
-      <c r="Z77" s="75" t="n"/>
-      <c r="AA77" s="75" t="n"/>
-      <c r="AB77" s="75" t="n"/>
-      <c r="AC77" s="75" t="n"/>
-    </row>
-    <row r="78">
-      <c r="E78" s="75" t="n"/>
-      <c r="F78" s="75" t="n"/>
-      <c r="G78" s="76" t="n"/>
-      <c r="J78" s="75" t="n"/>
-      <c r="K78" s="75" t="n"/>
-      <c r="L78" s="75" t="n"/>
-      <c r="M78" s="26" t="n"/>
-      <c r="W78" s="75" t="n"/>
-      <c r="X78" s="75" t="n"/>
-      <c r="Y78" s="75" t="n"/>
-      <c r="Z78" s="75" t="n"/>
-      <c r="AA78" s="75" t="n"/>
-      <c r="AB78" s="75" t="n"/>
-      <c r="AC78" s="75" t="n"/>
-    </row>
-    <row r="79">
-      <c r="E79" s="75" t="n"/>
-      <c r="F79" s="75" t="n"/>
-      <c r="G79" s="76" t="n"/>
-      <c r="J79" s="75" t="n"/>
-      <c r="K79" s="75" t="n"/>
-      <c r="L79" s="75" t="n"/>
-      <c r="M79" s="26" t="n"/>
-      <c r="W79" s="75" t="n"/>
-      <c r="X79" s="75" t="n"/>
-      <c r="Y79" s="75" t="n"/>
-      <c r="Z79" s="75" t="n"/>
-      <c r="AA79" s="75" t="n"/>
-      <c r="AB79" s="75" t="n"/>
-      <c r="AC79" s="75" t="n"/>
-    </row>
-    <row r="80">
-      <c r="E80" s="75" t="n"/>
-      <c r="F80" s="75" t="n"/>
-      <c r="G80" s="76" t="n"/>
-      <c r="J80" s="75" t="n"/>
-      <c r="K80" s="75" t="n"/>
-      <c r="L80" s="75" t="n"/>
-      <c r="M80" s="26" t="n"/>
-      <c r="W80" s="75" t="n"/>
-      <c r="X80" s="75" t="n"/>
-      <c r="Y80" s="75" t="n"/>
-      <c r="Z80" s="75" t="n"/>
-      <c r="AA80" s="75" t="n"/>
-      <c r="AB80" s="75" t="n"/>
-      <c r="AC80" s="75" t="n"/>
-    </row>
-    <row r="81">
-      <c r="E81" s="75" t="n"/>
-      <c r="F81" s="75" t="n"/>
-      <c r="G81" s="76" t="n"/>
-      <c r="J81" s="75" t="n"/>
-      <c r="K81" s="75" t="n"/>
-      <c r="L81" s="75" t="n"/>
-      <c r="M81" s="26" t="n"/>
-      <c r="W81" s="75" t="n"/>
-      <c r="X81" s="75" t="n"/>
-      <c r="Y81" s="75" t="n"/>
-      <c r="Z81" s="75" t="n"/>
-      <c r="AA81" s="75" t="n"/>
-      <c r="AB81" s="75" t="n"/>
-      <c r="AC81" s="75" t="n"/>
-    </row>
-    <row r="82">
-      <c r="E82" s="75" t="n"/>
-      <c r="F82" s="75" t="n"/>
-      <c r="G82" s="76" t="n"/>
-      <c r="J82" s="75" t="n"/>
-      <c r="K82" s="75" t="n"/>
-      <c r="L82" s="75" t="n"/>
-      <c r="M82" s="26" t="n"/>
-      <c r="W82" s="75" t="n"/>
-      <c r="X82" s="75" t="n"/>
-      <c r="Y82" s="75" t="n"/>
-      <c r="Z82" s="75" t="n"/>
-      <c r="AA82" s="75" t="n"/>
-      <c r="AB82" s="75" t="n"/>
-      <c r="AC82" s="75" t="n"/>
-    </row>
-    <row r="83">
-      <c r="E83" s="75" t="n"/>
-      <c r="F83" s="75" t="n"/>
-      <c r="G83" s="76" t="n"/>
-      <c r="J83" s="75" t="n"/>
-      <c r="K83" s="75" t="n"/>
-      <c r="L83" s="75" t="n"/>
-      <c r="M83" s="26" t="n"/>
-      <c r="W83" s="75" t="n"/>
-      <c r="X83" s="75" t="n"/>
-      <c r="Y83" s="75" t="n"/>
-      <c r="Z83" s="75" t="n"/>
-      <c r="AA83" s="75" t="n"/>
-      <c r="AB83" s="75" t="n"/>
-      <c r="AC83" s="75" t="n"/>
     </row>
     <row r="84">
       <c r="E84" s="75" t="n"/>
@@ -50244,6 +50444,7 @@
       <c r="J1055" s="75" t="n"/>
       <c r="K1055" s="75" t="n"/>
       <c r="L1055" s="75" t="n"/>
+      <c r="M1055" s="26" t="n"/>
       <c r="W1055" s="75" t="n"/>
       <c r="X1055" s="75" t="n"/>
       <c r="Y1055" s="75" t="n"/>
@@ -50259,6 +50460,7 @@
       <c r="J1056" s="75" t="n"/>
       <c r="K1056" s="75" t="n"/>
       <c r="L1056" s="75" t="n"/>
+      <c r="M1056" s="26" t="n"/>
       <c r="W1056" s="75" t="n"/>
       <c r="X1056" s="75" t="n"/>
       <c r="Y1056" s="75" t="n"/>
@@ -50274,6 +50476,7 @@
       <c r="J1057" s="75" t="n"/>
       <c r="K1057" s="75" t="n"/>
       <c r="L1057" s="75" t="n"/>
+      <c r="M1057" s="26" t="n"/>
       <c r="W1057" s="75" t="n"/>
       <c r="X1057" s="75" t="n"/>
       <c r="Y1057" s="75" t="n"/>
@@ -50289,6 +50492,7 @@
       <c r="J1058" s="75" t="n"/>
       <c r="K1058" s="75" t="n"/>
       <c r="L1058" s="75" t="n"/>
+      <c r="M1058" s="26" t="n"/>
       <c r="W1058" s="75" t="n"/>
       <c r="X1058" s="75" t="n"/>
       <c r="Y1058" s="75" t="n"/>
@@ -50304,6 +50508,7 @@
       <c r="J1059" s="75" t="n"/>
       <c r="K1059" s="75" t="n"/>
       <c r="L1059" s="75" t="n"/>
+      <c r="M1059" s="26" t="n"/>
       <c r="W1059" s="75" t="n"/>
       <c r="X1059" s="75" t="n"/>
       <c r="Y1059" s="75" t="n"/>
@@ -50319,6 +50524,7 @@
       <c r="J1060" s="75" t="n"/>
       <c r="K1060" s="75" t="n"/>
       <c r="L1060" s="75" t="n"/>
+      <c r="M1060" s="26" t="n"/>
       <c r="W1060" s="75" t="n"/>
       <c r="X1060" s="75" t="n"/>
       <c r="Y1060" s="75" t="n"/>
@@ -50334,6 +50540,7 @@
       <c r="J1061" s="75" t="n"/>
       <c r="K1061" s="75" t="n"/>
       <c r="L1061" s="75" t="n"/>
+      <c r="M1061" s="26" t="n"/>
       <c r="W1061" s="75" t="n"/>
       <c r="X1061" s="75" t="n"/>
       <c r="Y1061" s="75" t="n"/>
@@ -50349,6 +50556,7 @@
       <c r="J1062" s="75" t="n"/>
       <c r="K1062" s="75" t="n"/>
       <c r="L1062" s="75" t="n"/>
+      <c r="M1062" s="26" t="n"/>
       <c r="W1062" s="75" t="n"/>
       <c r="X1062" s="75" t="n"/>
       <c r="Y1062" s="75" t="n"/>
@@ -50364,6 +50572,7 @@
       <c r="J1063" s="75" t="n"/>
       <c r="K1063" s="75" t="n"/>
       <c r="L1063" s="75" t="n"/>
+      <c r="M1063" s="26" t="n"/>
       <c r="W1063" s="75" t="n"/>
       <c r="X1063" s="75" t="n"/>
       <c r="Y1063" s="75" t="n"/>
@@ -50379,6 +50588,7 @@
       <c r="J1064" s="75" t="n"/>
       <c r="K1064" s="75" t="n"/>
       <c r="L1064" s="75" t="n"/>
+      <c r="M1064" s="26" t="n"/>
       <c r="W1064" s="75" t="n"/>
       <c r="X1064" s="75" t="n"/>
       <c r="Y1064" s="75" t="n"/>
@@ -50491,6 +50701,156 @@
       <c r="AA1071" s="75" t="n"/>
       <c r="AB1071" s="75" t="n"/>
       <c r="AC1071" s="75" t="n"/>
+    </row>
+    <row r="1072">
+      <c r="E1072" s="75" t="n"/>
+      <c r="F1072" s="75" t="n"/>
+      <c r="G1072" s="76" t="n"/>
+      <c r="J1072" s="75" t="n"/>
+      <c r="K1072" s="75" t="n"/>
+      <c r="L1072" s="75" t="n"/>
+      <c r="W1072" s="75" t="n"/>
+      <c r="X1072" s="75" t="n"/>
+      <c r="Y1072" s="75" t="n"/>
+      <c r="Z1072" s="75" t="n"/>
+      <c r="AA1072" s="75" t="n"/>
+      <c r="AB1072" s="75" t="n"/>
+      <c r="AC1072" s="75" t="n"/>
+    </row>
+    <row r="1073">
+      <c r="E1073" s="75" t="n"/>
+      <c r="F1073" s="75" t="n"/>
+      <c r="G1073" s="76" t="n"/>
+      <c r="J1073" s="75" t="n"/>
+      <c r="K1073" s="75" t="n"/>
+      <c r="L1073" s="75" t="n"/>
+      <c r="W1073" s="75" t="n"/>
+      <c r="X1073" s="75" t="n"/>
+      <c r="Y1073" s="75" t="n"/>
+      <c r="Z1073" s="75" t="n"/>
+      <c r="AA1073" s="75" t="n"/>
+      <c r="AB1073" s="75" t="n"/>
+      <c r="AC1073" s="75" t="n"/>
+    </row>
+    <row r="1074">
+      <c r="E1074" s="75" t="n"/>
+      <c r="F1074" s="75" t="n"/>
+      <c r="G1074" s="76" t="n"/>
+      <c r="J1074" s="75" t="n"/>
+      <c r="K1074" s="75" t="n"/>
+      <c r="L1074" s="75" t="n"/>
+      <c r="W1074" s="75" t="n"/>
+      <c r="X1074" s="75" t="n"/>
+      <c r="Y1074" s="75" t="n"/>
+      <c r="Z1074" s="75" t="n"/>
+      <c r="AA1074" s="75" t="n"/>
+      <c r="AB1074" s="75" t="n"/>
+      <c r="AC1074" s="75" t="n"/>
+    </row>
+    <row r="1075">
+      <c r="E1075" s="75" t="n"/>
+      <c r="F1075" s="75" t="n"/>
+      <c r="G1075" s="76" t="n"/>
+      <c r="J1075" s="75" t="n"/>
+      <c r="K1075" s="75" t="n"/>
+      <c r="L1075" s="75" t="n"/>
+      <c r="W1075" s="75" t="n"/>
+      <c r="X1075" s="75" t="n"/>
+      <c r="Y1075" s="75" t="n"/>
+      <c r="Z1075" s="75" t="n"/>
+      <c r="AA1075" s="75" t="n"/>
+      <c r="AB1075" s="75" t="n"/>
+      <c r="AC1075" s="75" t="n"/>
+    </row>
+    <row r="1076">
+      <c r="E1076" s="75" t="n"/>
+      <c r="F1076" s="75" t="n"/>
+      <c r="G1076" s="76" t="n"/>
+      <c r="J1076" s="75" t="n"/>
+      <c r="K1076" s="75" t="n"/>
+      <c r="L1076" s="75" t="n"/>
+      <c r="W1076" s="75" t="n"/>
+      <c r="X1076" s="75" t="n"/>
+      <c r="Y1076" s="75" t="n"/>
+      <c r="Z1076" s="75" t="n"/>
+      <c r="AA1076" s="75" t="n"/>
+      <c r="AB1076" s="75" t="n"/>
+      <c r="AC1076" s="75" t="n"/>
+    </row>
+    <row r="1077">
+      <c r="E1077" s="75" t="n"/>
+      <c r="F1077" s="75" t="n"/>
+      <c r="G1077" s="76" t="n"/>
+      <c r="J1077" s="75" t="n"/>
+      <c r="K1077" s="75" t="n"/>
+      <c r="L1077" s="75" t="n"/>
+      <c r="W1077" s="75" t="n"/>
+      <c r="X1077" s="75" t="n"/>
+      <c r="Y1077" s="75" t="n"/>
+      <c r="Z1077" s="75" t="n"/>
+      <c r="AA1077" s="75" t="n"/>
+      <c r="AB1077" s="75" t="n"/>
+      <c r="AC1077" s="75" t="n"/>
+    </row>
+    <row r="1078">
+      <c r="E1078" s="75" t="n"/>
+      <c r="F1078" s="75" t="n"/>
+      <c r="G1078" s="76" t="n"/>
+      <c r="J1078" s="75" t="n"/>
+      <c r="K1078" s="75" t="n"/>
+      <c r="L1078" s="75" t="n"/>
+      <c r="W1078" s="75" t="n"/>
+      <c r="X1078" s="75" t="n"/>
+      <c r="Y1078" s="75" t="n"/>
+      <c r="Z1078" s="75" t="n"/>
+      <c r="AA1078" s="75" t="n"/>
+      <c r="AB1078" s="75" t="n"/>
+      <c r="AC1078" s="75" t="n"/>
+    </row>
+    <row r="1079">
+      <c r="E1079" s="75" t="n"/>
+      <c r="F1079" s="75" t="n"/>
+      <c r="G1079" s="76" t="n"/>
+      <c r="J1079" s="75" t="n"/>
+      <c r="K1079" s="75" t="n"/>
+      <c r="L1079" s="75" t="n"/>
+      <c r="W1079" s="75" t="n"/>
+      <c r="X1079" s="75" t="n"/>
+      <c r="Y1079" s="75" t="n"/>
+      <c r="Z1079" s="75" t="n"/>
+      <c r="AA1079" s="75" t="n"/>
+      <c r="AB1079" s="75" t="n"/>
+      <c r="AC1079" s="75" t="n"/>
+    </row>
+    <row r="1080">
+      <c r="E1080" s="75" t="n"/>
+      <c r="F1080" s="75" t="n"/>
+      <c r="G1080" s="76" t="n"/>
+      <c r="J1080" s="75" t="n"/>
+      <c r="K1080" s="75" t="n"/>
+      <c r="L1080" s="75" t="n"/>
+      <c r="W1080" s="75" t="n"/>
+      <c r="X1080" s="75" t="n"/>
+      <c r="Y1080" s="75" t="n"/>
+      <c r="Z1080" s="75" t="n"/>
+      <c r="AA1080" s="75" t="n"/>
+      <c r="AB1080" s="75" t="n"/>
+      <c r="AC1080" s="75" t="n"/>
+    </row>
+    <row r="1081">
+      <c r="E1081" s="75" t="n"/>
+      <c r="F1081" s="75" t="n"/>
+      <c r="G1081" s="76" t="n"/>
+      <c r="J1081" s="75" t="n"/>
+      <c r="K1081" s="75" t="n"/>
+      <c r="L1081" s="75" t="n"/>
+      <c r="W1081" s="75" t="n"/>
+      <c r="X1081" s="75" t="n"/>
+      <c r="Y1081" s="75" t="n"/>
+      <c r="Z1081" s="75" t="n"/>
+      <c r="AA1081" s="75" t="n"/>
+      <c r="AB1081" s="75" t="n"/>
+      <c r="AC1081" s="75" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$111"/>

--- a/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
+++ b/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
@@ -29686,7 +29686,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1055"/>
+  <dimension ref="A1:AP1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -30039,11 +30039,11 @@
     </row>
     <row r="5">
       <c r="A5" s="89" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -30055,18 +30055,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>955.76</v>
+        <v>941.7</v>
       </c>
       <c r="F5" t="n">
-        <v>4802.7</v>
+        <v>4732.05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>23.9</v>
+        <v>23.55</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -30075,11 +30075,11 @@
     </row>
     <row r="6">
       <c r="A6" s="89" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -30091,18 +30091,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>917.55</v>
+        <v>955.76</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4610.7</v>
+        <v>4802.7</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>22.95</v>
+        <v>23.9</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -30111,7 +30111,7 @@
     </row>
     <row r="7">
       <c r="A7" s="89" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -30127,18 +30127,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>911.7</v>
+        <v>917.55</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4581.3</v>
+        <v>4610.7</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -30147,7 +30147,7 @@
     </row>
     <row r="8">
       <c r="A8" s="89" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -30163,18 +30163,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>888.4</v>
+        <v>911.7</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4464.2</v>
+        <v>4581.3</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -30183,7 +30183,7 @@
     </row>
     <row r="9">
       <c r="A9" s="89" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -30199,18 +30199,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>920.6</v>
+        <v>888.4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4626</v>
+        <v>4464.2</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -30219,7 +30219,7 @@
     </row>
     <row r="10">
       <c r="A10" s="89" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -30235,18 +30235,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>964.7</v>
+        <v>920.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4847.6</v>
+        <v>4626</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -30255,7 +30255,7 @@
     </row>
     <row r="11">
       <c r="A11" s="89" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -30271,18 +30271,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>990.85</v>
+        <v>964.7</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4979</v>
+        <v>4847.6</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>24.75</v>
+        <v>24.1</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -30291,7 +30291,7 @@
     </row>
     <row r="12">
       <c r="A12" s="89" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -30307,18 +30307,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>978.4</v>
+        <v>990.85</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4916.45</v>
+        <v>4979</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>24.45</v>
+        <v>24.75</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -30327,7 +30327,7 @@
     </row>
     <row r="13">
       <c r="A13" s="89" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -30343,18 +30343,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1009.5</v>
+        <v>978.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5072.75</v>
+        <v>4916.45</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>25.25</v>
+        <v>24.45</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -30363,7 +30363,7 @@
     </row>
     <row r="14">
       <c r="A14" s="89" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -30379,18 +30379,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>980.85</v>
+        <v>1009.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4928.75</v>
+        <v>5072.75</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -30399,7 +30399,7 @@
     </row>
     <row r="15">
       <c r="A15" s="89" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -30415,14 +30415,14 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>979.7</v>
+        <v>980.85</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4923</v>
+        <v>4928.75</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252610092927</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
@@ -30435,11 +30435,11 @@
     </row>
     <row r="16">
       <c r="A16" s="89" t="n">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -30451,18 +30451,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>968</v>
+        <v>979.7</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4864.2</v>
+        <v>4923</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252610092927</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -30471,11 +30471,11 @@
     </row>
     <row r="17">
       <c r="A17" s="89" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -30487,18 +30487,18 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>969.9</v>
+        <v>968</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4873.75</v>
+        <v>4864.2</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>24.25</v>
+        <v>24.2</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -30507,7 +30507,7 @@
     </row>
     <row r="18">
       <c r="A18" s="89" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -30520,21 +30520,21 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>973</v>
+        <v>969.9</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>6845.09</v>
+        <v>4873.75</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>34.09</v>
+        <v>24.25</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -30543,7 +30543,7 @@
     </row>
     <row r="19">
       <c r="A19" s="89" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -30556,21 +30556,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>979.7</v>
+        <v>973</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>984.6</v>
+        <v>6845.09</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>4.9</v>
+        <v>34.09</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -30579,7 +30579,7 @@
     </row>
     <row r="20">
       <c r="A20" s="89" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -30592,21 +30592,21 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1038.9</v>
+        <v>979.7</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5220.45</v>
+        <v>984.6</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>25.95</v>
+        <v>4.9</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -30615,7 +30615,7 @@
     </row>
     <row r="21">
       <c r="A21" s="89" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -30631,18 +30631,18 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1077.2</v>
+        <v>1038.9</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5412.95</v>
+        <v>5220.45</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>26.95</v>
+        <v>25.95</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -30651,11 +30651,11 @@
     </row>
     <row r="22">
       <c r="A22" s="89" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -30667,18 +30667,18 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1089.65</v>
+        <v>1077.2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>5475.5</v>
+        <v>5412.95</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>27.25</v>
+        <v>26.95</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -30687,7 +30687,7 @@
     </row>
     <row r="23">
       <c r="A23" s="89" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -30700,21 +30700,21 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1091.05</v>
+        <v>1089.65</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2193.02</v>
+        <v>5475.5</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>10.92</v>
+        <v>27.25</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -30723,11 +30723,11 @@
     </row>
     <row r="24">
       <c r="A24" s="89" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -30736,21 +30736,21 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1023.4</v>
+        <v>1091.05</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5142.6</v>
+        <v>2193.02</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>25.6</v>
+        <v>10.92</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -30759,11 +30759,11 @@
     </row>
     <row r="25">
       <c r="A25" s="89" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -30775,18 +30775,18 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1037.75</v>
+        <v>1023.4</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>5214.7</v>
+        <v>5142.6</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>25.95</v>
+        <v>25.6</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -30795,11 +30795,11 @@
     </row>
     <row r="26">
       <c r="A26" s="89" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -30811,127 +30811,63 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5214.7</v>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>CN#252609157599</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="J26" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="89" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>1047.32</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>5262.8</v>
       </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="G27" s="0" t="inlineStr">
         <is>
           <t>CN#252609039305</t>
         </is>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>26.2</v>
       </c>
-      <c r="J26" s="0">
+      <c r="J27" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="58" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B27" s="59" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C27" s="59" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D27" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" s="63" t="n">
-        <v>901.14</v>
-      </c>
-      <c r="F27" s="62">
-        <f>E5*D5 + sum(H5:I5)</f>
-        <v/>
-      </c>
-      <c r="G27" s="59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H27" s="60" t="n"/>
-      <c r="I27" s="63" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J27" s="64">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K27" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L27" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P27" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R27" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S27" s="68">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T27" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U27" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V27" s="69">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W27" s="69" t="n"/>
-      <c r="X27" s="69" t="n"/>
-      <c r="Y27" s="68">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="69" t="n"/>
-      <c r="AA27" s="69" t="n"/>
-      <c r="AB27" s="70" t="n"/>
-      <c r="AC27" s="66">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD27" s="71" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="58" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B28" s="59" t="inlineStr">
         <is>
@@ -30944,88 +30880,87 @@
         </is>
       </c>
       <c r="D28" s="60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="63" t="n">
-        <v>891.6799999999999</v>
-      </c>
-      <c r="F28" s="63" t="n">
-        <v>3566.71</v>
+        <v>901.14</v>
+      </c>
+      <c r="F28" s="62">
+        <f>E5*D5 + sum(H5:I5)</f>
+        <v/>
       </c>
       <c r="G28" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H28" s="60" t="n">
-        <v>3.56</v>
-      </c>
+      <c r="H28" s="60" t="n"/>
       <c r="I28" s="63" t="n">
-        <v>21.55</v>
+        <v>31.7</v>
       </c>
       <c r="J28" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L28" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M28" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N28" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O28" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P28" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R28" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S28" s="68">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T28" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U28" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V28" s="69">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W28" s="69" t="n"/>
       <c r="X28" s="69" t="n"/>
       <c r="Y28" s="68">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z28" s="69" t="n"/>
       <c r="AA28" s="69" t="n"/>
       <c r="AB28" s="70" t="n"/>
       <c r="AC28" s="66">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD28" s="71" t="n"/>
@@ -31045,13 +30980,13 @@
         </is>
       </c>
       <c r="D29" s="60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" s="63" t="n">
         <v>891.6799999999999</v>
       </c>
       <c r="F29" s="63" t="n">
-        <v>891.6799999999999</v>
+        <v>3566.71</v>
       </c>
       <c r="G29" s="59" t="inlineStr">
         <is>
@@ -31059,81 +30994,81 @@
         </is>
       </c>
       <c r="H29" s="60" t="n">
-        <v>0.89</v>
+        <v>3.56</v>
       </c>
       <c r="I29" s="63" t="n">
-        <v>5.39</v>
+        <v>21.55</v>
       </c>
       <c r="J29" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L29" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M29" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N29" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O29" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P29" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R29" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S29" s="68">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T29" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U29" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V29" s="69">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W29" s="69" t="n"/>
       <c r="X29" s="69" t="n"/>
       <c r="Y29" s="68">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z29" s="69" t="n"/>
       <c r="AA29" s="69" t="n"/>
       <c r="AB29" s="70" t="n"/>
       <c r="AC29" s="66">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD29" s="71" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="58" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B30" s="59" t="inlineStr">
         <is>
@@ -31146,13 +31081,13 @@
         </is>
       </c>
       <c r="D30" s="60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="63" t="n">
-        <v>854.46</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="F30" s="63" t="n">
-        <v>4272.28</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="G30" s="59" t="inlineStr">
         <is>
@@ -31160,81 +31095,81 @@
         </is>
       </c>
       <c r="H30" s="60" t="n">
-        <v>4.23</v>
+        <v>0.89</v>
       </c>
       <c r="I30" s="63" t="n">
-        <v>25.8</v>
+        <v>5.39</v>
       </c>
       <c r="J30" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L30" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M30" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N30" s="67">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O30" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P30" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R30" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S30" s="68">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T30" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U30" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V30" s="69">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W30" s="69" t="n"/>
       <c r="X30" s="69" t="n"/>
       <c r="Y30" s="68">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z30" s="69" t="n"/>
       <c r="AA30" s="69" t="n"/>
       <c r="AB30" s="70" t="n"/>
       <c r="AC30" s="66">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD30" s="71" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="58" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B31" s="59" t="inlineStr">
         <is>
@@ -31247,13 +31182,13 @@
         </is>
       </c>
       <c r="D31" s="60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" s="63" t="n">
-        <v>867.91</v>
+        <v>854.46</v>
       </c>
       <c r="F31" s="63" t="n">
-        <v>8679.07</v>
+        <v>4272.28</v>
       </c>
       <c r="G31" s="59" t="inlineStr">
         <is>
@@ -31261,81 +31196,81 @@
         </is>
       </c>
       <c r="H31" s="60" t="n">
-        <v>8.6</v>
+        <v>4.23</v>
       </c>
       <c r="I31" s="63" t="n">
-        <v>52.47</v>
+        <v>25.8</v>
       </c>
       <c r="J31" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L31" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M31" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N31" s="67">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O31" s="65">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P31" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R31" s="66">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S31" s="68">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T31" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U31" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V31" s="69">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W31" s="69" t="n"/>
       <c r="X31" s="69" t="n"/>
       <c r="Y31" s="68">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z31" s="69" t="n"/>
       <c r="AA31" s="69" t="n"/>
       <c r="AB31" s="70" t="n"/>
       <c r="AC31" s="66">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD31" s="71" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="58" t="n">
-        <v>45708</v>
+        <v>45712</v>
       </c>
       <c r="B32" s="59" t="inlineStr">
         <is>
@@ -31351,10 +31286,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="63" t="n">
-        <v>874.63</v>
+        <v>867.91</v>
       </c>
       <c r="F32" s="63" t="n">
-        <v>8746.309999999999</v>
+        <v>8679.07</v>
       </c>
       <c r="G32" s="59" t="inlineStr">
         <is>
@@ -31362,81 +31297,81 @@
         </is>
       </c>
       <c r="H32" s="60" t="n">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
       <c r="I32" s="63" t="n">
-        <v>52.66</v>
+        <v>52.47</v>
       </c>
       <c r="J32" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L32" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M32" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N32" s="67">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O32" s="65">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P32" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R32" s="66">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S32" s="68">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T32" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U32" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V32" s="69">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W32" s="69" t="n"/>
       <c r="X32" s="69" t="n"/>
       <c r="Y32" s="68">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z32" s="69" t="n"/>
       <c r="AA32" s="69" t="n"/>
       <c r="AB32" s="70" t="n"/>
       <c r="AC32" s="66">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD32" s="71" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="58" t="n">
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B33" s="59" t="inlineStr">
         <is>
@@ -31452,10 +31387,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="63" t="n">
-        <v>909.41</v>
+        <v>874.63</v>
       </c>
       <c r="F33" s="63" t="n">
-        <v>9094.059999999999</v>
+        <v>8746.309999999999</v>
       </c>
       <c r="G33" s="59" t="inlineStr">
         <is>
@@ -31463,74 +31398,74 @@
         </is>
       </c>
       <c r="H33" s="60" t="n">
-        <v>9.02</v>
+        <v>8.65</v>
       </c>
       <c r="I33" s="63" t="n">
-        <v>55.04</v>
+        <v>52.66</v>
       </c>
       <c r="J33" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L33" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M33" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N33" s="67">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O33" s="65">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P33" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R33" s="66">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S33" s="68">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T33" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U33" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V33" s="69">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W33" s="69" t="n"/>
       <c r="X33" s="69" t="n"/>
       <c r="Y33" s="68">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z33" s="69" t="n"/>
       <c r="AA33" s="69" t="n"/>
       <c r="AB33" s="70" t="n"/>
       <c r="AC33" s="66">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD33" s="71" t="n"/>
@@ -31550,13 +31485,13 @@
         </is>
       </c>
       <c r="D34" s="60" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E34" s="63" t="n">
-        <v>909.46</v>
+        <v>909.41</v>
       </c>
       <c r="F34" s="63" t="n">
-        <v>2728.37</v>
+        <v>9094.059999999999</v>
       </c>
       <c r="G34" s="59" t="inlineStr">
         <is>
@@ -31564,81 +31499,81 @@
         </is>
       </c>
       <c r="H34" s="60" t="n">
-        <v>2.71</v>
+        <v>9.02</v>
       </c>
       <c r="I34" s="63" t="n">
-        <v>16.51</v>
+        <v>55.04</v>
       </c>
       <c r="J34" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L34" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M34" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N34" s="67">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O34" s="65">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P34" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R34" s="66">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S34" s="68">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T34" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U34" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V34" s="69">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W34" s="69" t="n"/>
       <c r="X34" s="69" t="n"/>
       <c r="Y34" s="68">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z34" s="69" t="n"/>
       <c r="AA34" s="69" t="n"/>
       <c r="AB34" s="70" t="n"/>
       <c r="AC34" s="66">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD34" s="71" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="58" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B35" s="59" t="inlineStr">
         <is>
@@ -31651,13 +31586,13 @@
         </is>
       </c>
       <c r="D35" s="60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="63" t="n">
-        <v>918.3200000000001</v>
+        <v>909.46</v>
       </c>
       <c r="F35" s="63" t="n">
-        <v>1836.63</v>
+        <v>2728.37</v>
       </c>
       <c r="G35" s="59" t="inlineStr">
         <is>
@@ -31665,74 +31600,74 @@
         </is>
       </c>
       <c r="H35" s="60" t="n">
-        <v>1.82</v>
+        <v>2.71</v>
       </c>
       <c r="I35" s="63" t="n">
-        <v>11.11</v>
+        <v>16.51</v>
       </c>
       <c r="J35" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L35" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M35" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N35" s="67">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O35" s="65">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P35" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R35" s="66">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S35" s="68">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T35" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U35" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V35" s="69">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W35" s="69" t="n"/>
       <c r="X35" s="69" t="n"/>
       <c r="Y35" s="68">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z35" s="69" t="n"/>
       <c r="AA35" s="69" t="n"/>
       <c r="AB35" s="70" t="n"/>
       <c r="AC35" s="66">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD35" s="71" t="n"/>
@@ -31752,13 +31687,13 @@
         </is>
       </c>
       <c r="D36" s="60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E36" s="63" t="n">
-        <v>918.47</v>
+        <v>918.3200000000001</v>
       </c>
       <c r="F36" s="63" t="n">
-        <v>7347.72</v>
+        <v>1836.63</v>
       </c>
       <c r="G36" s="59" t="inlineStr">
         <is>
@@ -31766,81 +31701,81 @@
         </is>
       </c>
       <c r="H36" s="60" t="n">
-        <v>7.31</v>
+        <v>1.82</v>
       </c>
       <c r="I36" s="63" t="n">
-        <v>44.41</v>
+        <v>11.11</v>
       </c>
       <c r="J36" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L36" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M36" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N36" s="67">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O36" s="65">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P36" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R36" s="66">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S36" s="68">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T36" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U36" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V36" s="69">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W36" s="69" t="n"/>
       <c r="X36" s="69" t="n"/>
       <c r="Y36" s="68">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z36" s="69" t="n"/>
       <c r="AA36" s="69" t="n"/>
       <c r="AB36" s="70" t="n"/>
       <c r="AC36" s="66">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD36" s="71" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="58" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B37" s="59" t="inlineStr">
         <is>
@@ -31853,13 +31788,13 @@
         </is>
       </c>
       <c r="D37" s="60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E37" s="63" t="n">
-        <v>948.73</v>
+        <v>918.47</v>
       </c>
       <c r="F37" s="63" t="n">
-        <v>1897.46</v>
+        <v>7347.72</v>
       </c>
       <c r="G37" s="59" t="inlineStr">
         <is>
@@ -31867,74 +31802,74 @@
         </is>
       </c>
       <c r="H37" s="60" t="n">
-        <v>1.88</v>
+        <v>7.31</v>
       </c>
       <c r="I37" s="63" t="n">
-        <v>11.48</v>
+        <v>44.41</v>
       </c>
       <c r="J37" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L37" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M37" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N37" s="67">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O37" s="65">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P37" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R37" s="66">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S37" s="68">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T37" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U37" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V37" s="69">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W37" s="69" t="n"/>
       <c r="X37" s="69" t="n"/>
       <c r="Y37" s="68">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z37" s="69" t="n"/>
       <c r="AA37" s="69" t="n"/>
       <c r="AB37" s="70" t="n"/>
       <c r="AC37" s="66">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD37" s="71" t="n"/>
@@ -31954,13 +31889,13 @@
         </is>
       </c>
       <c r="D38" s="60" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E38" s="63" t="n">
-        <v>948.48</v>
+        <v>948.73</v>
       </c>
       <c r="F38" s="63" t="n">
-        <v>6639.33</v>
+        <v>1897.46</v>
       </c>
       <c r="G38" s="59" t="inlineStr">
         <is>
@@ -31968,74 +31903,74 @@
         </is>
       </c>
       <c r="H38" s="60" t="n">
-        <v>6.59</v>
+        <v>1.88</v>
       </c>
       <c r="I38" s="63" t="n">
-        <v>40.14</v>
+        <v>11.48</v>
       </c>
       <c r="J38" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L38" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M38" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N38" s="67">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O38" s="65">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P38" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R38" s="66">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S38" s="68">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T38" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U38" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V38" s="69">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W38" s="69" t="n"/>
       <c r="X38" s="69" t="n"/>
       <c r="Y38" s="68">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z38" s="69" t="n"/>
       <c r="AA38" s="69" t="n"/>
       <c r="AB38" s="70" t="n"/>
       <c r="AC38" s="66">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD38" s="71" t="n"/>
@@ -32055,13 +31990,13 @@
         </is>
       </c>
       <c r="D39" s="60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E39" s="63" t="n">
-        <v>948.71</v>
+        <v>948.48</v>
       </c>
       <c r="F39" s="63" t="n">
-        <v>948.71</v>
+        <v>6639.33</v>
       </c>
       <c r="G39" s="59" t="inlineStr">
         <is>
@@ -32069,81 +32004,81 @@
         </is>
       </c>
       <c r="H39" s="60" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="I39" s="63" t="n">
-        <v>5.72</v>
+        <v>40.14</v>
       </c>
       <c r="J39" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L39" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M39" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N39" s="67">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O39" s="65">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P39" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R39" s="66">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S39" s="68">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T39" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U39" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V39" s="69">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W39" s="69" t="n"/>
       <c r="X39" s="69" t="n"/>
       <c r="Y39" s="68">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z39" s="69" t="n"/>
       <c r="AA39" s="69" t="n"/>
       <c r="AB39" s="70" t="n"/>
       <c r="AC39" s="66">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD39" s="71" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="58" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B40" s="59" t="inlineStr">
         <is>
@@ -32156,13 +32091,13 @@
         </is>
       </c>
       <c r="D40" s="60" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E40" s="63" t="n">
-        <v>978.6900000000001</v>
+        <v>948.71</v>
       </c>
       <c r="F40" s="63" t="n">
-        <v>9786.860000000001</v>
+        <v>948.71</v>
       </c>
       <c r="G40" s="59" t="inlineStr">
         <is>
@@ -32170,81 +32105,81 @@
         </is>
       </c>
       <c r="H40" s="60" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I40" s="63" t="n">
-        <v>59.16</v>
+        <v>5.72</v>
       </c>
       <c r="J40" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L40" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M40" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N40" s="67">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O40" s="65">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P40" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R40" s="66">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S40" s="68">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T40" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U40" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V40" s="69">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W40" s="69" t="n"/>
       <c r="X40" s="69" t="n"/>
       <c r="Y40" s="68">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z40" s="69" t="n"/>
       <c r="AA40" s="69" t="n"/>
       <c r="AB40" s="70" t="n"/>
       <c r="AC40" s="66">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD40" s="71" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="58" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B41" s="59" t="inlineStr">
         <is>
@@ -32257,13 +32192,13 @@
         </is>
       </c>
       <c r="D41" s="60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E41" s="63" t="n">
-        <v>1019.62</v>
+        <v>978.6900000000001</v>
       </c>
       <c r="F41" s="63" t="n">
-        <v>1019.62</v>
+        <v>9786.860000000001</v>
       </c>
       <c r="G41" s="59" t="inlineStr">
         <is>
@@ -32271,74 +32206,74 @@
         </is>
       </c>
       <c r="H41" s="60" t="n">
-        <v>1.01</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I41" s="63" t="n">
-        <v>6.16</v>
+        <v>59.16</v>
       </c>
       <c r="J41" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L41" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M41" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N41" s="67">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O41" s="65">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P41" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R41" s="66">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S41" s="68">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T41" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U41" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V41" s="69">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W41" s="69" t="n"/>
       <c r="X41" s="69" t="n"/>
       <c r="Y41" s="68">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z41" s="69" t="n"/>
       <c r="AA41" s="69" t="n"/>
       <c r="AB41" s="70" t="n"/>
       <c r="AC41" s="66">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD41" s="71" t="n"/>
@@ -32358,13 +32293,13 @@
         </is>
       </c>
       <c r="D42" s="60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="63" t="n">
-        <v>1019.68</v>
+        <v>1019.62</v>
       </c>
       <c r="F42" s="63" t="n">
-        <v>3059.03</v>
+        <v>1019.62</v>
       </c>
       <c r="G42" s="59" t="inlineStr">
         <is>
@@ -32372,74 +32307,74 @@
         </is>
       </c>
       <c r="H42" s="60" t="n">
-        <v>3.04</v>
+        <v>1.01</v>
       </c>
       <c r="I42" s="63" t="n">
-        <v>18.49</v>
+        <v>6.16</v>
       </c>
       <c r="J42" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L42" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M42" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N42" s="67">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O42" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P42" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R42" s="66">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S42" s="68">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T42" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U42" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V42" s="69">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W42" s="69" t="n"/>
       <c r="X42" s="69" t="n"/>
       <c r="Y42" s="68">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z42" s="69" t="n"/>
       <c r="AA42" s="69" t="n"/>
       <c r="AB42" s="70" t="n"/>
       <c r="AC42" s="66">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD42" s="71" t="n"/>
@@ -32459,13 +32394,13 @@
         </is>
       </c>
       <c r="D43" s="60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="63" t="n">
-        <v>1019.42</v>
+        <v>1019.68</v>
       </c>
       <c r="F43" s="63" t="n">
-        <v>1019.42</v>
+        <v>3059.03</v>
       </c>
       <c r="G43" s="59" t="inlineStr">
         <is>
@@ -32473,74 +32408,74 @@
         </is>
       </c>
       <c r="H43" s="60" t="n">
-        <v>1.01</v>
+        <v>3.04</v>
       </c>
       <c r="I43" s="63" t="n">
-        <v>6.16</v>
+        <v>18.49</v>
       </c>
       <c r="J43" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L43" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M43" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N43" s="67">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O43" s="65">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P43" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R43" s="66">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S43" s="68">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T43" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U43" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V43" s="69">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W43" s="69" t="n"/>
       <c r="X43" s="69" t="n"/>
       <c r="Y43" s="68">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z43" s="69" t="n"/>
       <c r="AA43" s="69" t="n"/>
       <c r="AB43" s="70" t="n"/>
       <c r="AC43" s="66">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD43" s="71" t="n"/>
@@ -32563,10 +32498,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="63" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="F44" s="63" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="G44" s="59" t="inlineStr">
         <is>
@@ -32584,64 +32519,64 @@
         <v/>
       </c>
       <c r="K44" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L44" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M44" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N44" s="67">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O44" s="65">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P44" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R44" s="66">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S44" s="68">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T44" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U44" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V44" s="69">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W44" s="69" t="n"/>
       <c r="X44" s="69" t="n"/>
       <c r="Y44" s="68">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z44" s="69" t="n"/>
       <c r="AA44" s="69" t="n"/>
       <c r="AB44" s="70" t="n"/>
       <c r="AC44" s="66">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD44" s="71" t="n"/>
@@ -32661,13 +32596,13 @@
         </is>
       </c>
       <c r="D45" s="60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" s="63" t="n">
         <v>1019.62</v>
       </c>
       <c r="F45" s="63" t="n">
-        <v>4078.47</v>
+        <v>1019.62</v>
       </c>
       <c r="G45" s="59" t="inlineStr">
         <is>
@@ -32675,81 +32610,81 @@
         </is>
       </c>
       <c r="H45" s="60" t="n">
-        <v>4.04</v>
+        <v>1.01</v>
       </c>
       <c r="I45" s="63" t="n">
-        <v>24.63</v>
+        <v>6.16</v>
       </c>
       <c r="J45" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L45" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M45" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N45" s="67">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O45" s="65">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P45" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R45" s="66">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S45" s="68">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T45" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U45" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V45" s="69">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W45" s="69" t="n"/>
       <c r="X45" s="69" t="n"/>
       <c r="Y45" s="68">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z45" s="69" t="n"/>
       <c r="AA45" s="69" t="n"/>
       <c r="AB45" s="70" t="n"/>
       <c r="AC45" s="66">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD45" s="71" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="58" t="n">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="B46" s="59" t="inlineStr">
         <is>
@@ -32762,13 +32697,13 @@
         </is>
       </c>
       <c r="D46" s="60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E46" s="63" t="n">
-        <v>1115.08</v>
+        <v>1019.62</v>
       </c>
       <c r="F46" s="63" t="n">
-        <v>11150.79</v>
+        <v>4078.47</v>
       </c>
       <c r="G46" s="59" t="inlineStr">
         <is>
@@ -32776,81 +32711,81 @@
         </is>
       </c>
       <c r="H46" s="60" t="n">
-        <v>11</v>
+        <v>4.04</v>
       </c>
       <c r="I46" s="63" t="n">
-        <v>67.79000000000001</v>
+        <v>24.63</v>
       </c>
       <c r="J46" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L46" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M46" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N46" s="67">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O46" s="65">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P46" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R46" s="66">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S46" s="68">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T46" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U46" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V46" s="69">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W46" s="69" t="n"/>
       <c r="X46" s="69" t="n"/>
       <c r="Y46" s="68">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z46" s="69" t="n"/>
       <c r="AA46" s="69" t="n"/>
       <c r="AB46" s="70" t="n"/>
       <c r="AC46" s="66">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD46" s="71" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="58" t="n">
-        <v>45621</v>
+        <v>45664</v>
       </c>
       <c r="B47" s="59" t="inlineStr">
         <is>
@@ -32863,13 +32798,13 @@
         </is>
       </c>
       <c r="D47" s="60" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E47" s="63" t="n">
-        <v>1226.32</v>
+        <v>1115.08</v>
       </c>
       <c r="F47" s="63" t="n">
-        <v>2452.64</v>
+        <v>11150.79</v>
       </c>
       <c r="G47" s="59" t="inlineStr">
         <is>
@@ -32877,85 +32812,85 @@
         </is>
       </c>
       <c r="H47" s="60" t="n">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="I47" s="63" t="n">
-        <v>14.86</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="J47" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L47" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M47" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N47" s="67">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O47" s="65">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P47" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R47" s="66">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S47" s="68">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T47" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U47" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V47" s="69">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W47" s="69" t="n"/>
       <c r="X47" s="69" t="n"/>
       <c r="Y47" s="68">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z47" s="69" t="n"/>
       <c r="AA47" s="69" t="n"/>
       <c r="AB47" s="70" t="n"/>
       <c r="AC47" s="66">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD47" s="71" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="58" t="n">
-        <v>45534</v>
+        <v>45621</v>
       </c>
       <c r="B48" s="59" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C48" s="59" t="inlineStr">
@@ -32964,99 +32899,99 @@
         </is>
       </c>
       <c r="D48" s="60" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E48" s="63" t="n">
-        <v>6</v>
+        <v>1226.32</v>
       </c>
       <c r="F48" s="63" t="n">
-        <v>150</v>
+        <v>2452.64</v>
       </c>
       <c r="G48" s="59" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H48" s="60" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="I48" s="63" t="n">
-        <v>0</v>
+        <v>14.86</v>
       </c>
       <c r="J48" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L48" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M48" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N48" s="67">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O48" s="65">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P48" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R48" s="66">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S48" s="68">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T48" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U48" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V48" s="69">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W48" s="69" t="n"/>
       <c r="X48" s="69" t="n"/>
       <c r="Y48" s="68">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z48" s="69" t="n"/>
       <c r="AA48" s="69" t="n"/>
       <c r="AB48" s="70" t="n"/>
       <c r="AC48" s="66">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD48" s="71" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="58" t="n">
-        <v>45379</v>
+        <v>45534</v>
       </c>
       <c r="B49" s="59" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C49" s="59" t="inlineStr">
@@ -33065,95 +33000,91 @@
         </is>
       </c>
       <c r="D49" s="60" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E49" s="63" t="n">
-        <v>1155.21</v>
+        <v>6</v>
       </c>
       <c r="F49" s="63" t="n">
-        <v>1155.21</v>
+        <v>150</v>
       </c>
       <c r="G49" s="59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
         </is>
       </c>
       <c r="H49" s="60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="63" t="n">
-        <v>7.16</v>
+        <v>0</v>
       </c>
       <c r="J49" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L49" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M49" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N49" s="67">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O49" s="65">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P49" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R49" s="66">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S49" s="68">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T49" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U49" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V49" s="69">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W49" s="69" t="n"/>
       <c r="X49" s="69" t="n"/>
       <c r="Y49" s="68">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z49" s="69" t="n"/>
       <c r="AA49" s="69" t="n"/>
       <c r="AB49" s="70" t="n"/>
       <c r="AC49" s="66">
-        <f>if(B27="DIV", F27,"")</f>
-        <v/>
-      </c>
-      <c r="AD49" s="72" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B26="DIV", F26,"")</f>
+        <v/>
+      </c>
+      <c r="AD49" s="71" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="58" t="n">
@@ -33173,10 +33104,10 @@
         <v>1</v>
       </c>
       <c r="E50" s="63" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="F50" s="63" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="G50" s="59" t="inlineStr">
         <is>
@@ -33187,71 +33118,71 @@
         <v>1</v>
       </c>
       <c r="I50" s="63" t="n">
-        <v>7.15</v>
+        <v>7.16</v>
       </c>
       <c r="J50" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L50" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M50" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N50" s="67">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O50" s="65">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P50" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R50" s="66">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S50" s="68">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T50" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U50" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V50" s="69">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W50" s="69" t="n"/>
       <c r="X50" s="69" t="n"/>
       <c r="Y50" s="68">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z50" s="69" t="n"/>
       <c r="AA50" s="69" t="n"/>
       <c r="AB50" s="70" t="n"/>
       <c r="AC50" s="66">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD50" s="72" t="inlineStr">
@@ -33299,64 +33230,64 @@
         <v/>
       </c>
       <c r="K51" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L51" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M51" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N51" s="67">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O51" s="65">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P51" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R51" s="66">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S51" s="68">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T51" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U51" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V51" s="69">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W51" s="69" t="n"/>
       <c r="X51" s="69" t="n"/>
       <c r="Y51" s="68">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z51" s="69" t="n"/>
       <c r="AA51" s="69" t="n"/>
       <c r="AB51" s="70" t="n"/>
       <c r="AC51" s="66">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD51" s="72" t="inlineStr">
@@ -33367,7 +33298,7 @@
     </row>
     <row r="52">
       <c r="A52" s="58" t="n">
-        <v>45364</v>
+        <v>45379</v>
       </c>
       <c r="B52" s="59" t="inlineStr">
         <is>
@@ -33380,13 +33311,13 @@
         </is>
       </c>
       <c r="D52" s="60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E52" s="63" t="n">
-        <v>1244.56</v>
+        <v>1155.25</v>
       </c>
       <c r="F52" s="63" t="n">
-        <v>9956.469999999999</v>
+        <v>1155.25</v>
       </c>
       <c r="G52" s="59" t="inlineStr">
         <is>
@@ -33394,74 +33325,74 @@
         </is>
       </c>
       <c r="H52" s="60" t="n">
-        <v>9.859999999999999</v>
+        <v>1</v>
       </c>
       <c r="I52" s="63" t="n">
-        <v>60.21</v>
+        <v>7.15</v>
       </c>
       <c r="J52" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L52" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M52" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N52" s="67">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O52" s="65">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P52" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R52" s="66">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S52" s="68">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T52" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U52" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V52" s="69">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W52" s="69" t="n"/>
       <c r="X52" s="69" t="n"/>
       <c r="Y52" s="68">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z52" s="69" t="n"/>
       <c r="AA52" s="69" t="n"/>
       <c r="AB52" s="70" t="n"/>
       <c r="AC52" s="66">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD52" s="72" t="inlineStr">
@@ -33472,7 +33403,7 @@
     </row>
     <row r="53">
       <c r="A53" s="58" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B53" s="59" t="inlineStr">
         <is>
@@ -33488,10 +33419,10 @@
         <v>8</v>
       </c>
       <c r="E53" s="63" t="n">
-        <v>1234.43</v>
+        <v>1244.56</v>
       </c>
       <c r="F53" s="63" t="n">
-        <v>9875.43</v>
+        <v>9956.469999999999</v>
       </c>
       <c r="G53" s="59" t="inlineStr">
         <is>
@@ -33499,74 +33430,74 @@
         </is>
       </c>
       <c r="H53" s="60" t="n">
-        <v>9.710000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I53" s="63" t="n">
-        <v>59.72</v>
+        <v>60.21</v>
       </c>
       <c r="J53" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L53" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M53" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N53" s="67">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O53" s="65">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P53" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R53" s="66">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S53" s="68">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T53" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U53" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V53" s="69">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W53" s="69" t="n"/>
       <c r="X53" s="69" t="n"/>
       <c r="Y53" s="68">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z53" s="69" t="n"/>
       <c r="AA53" s="69" t="n"/>
       <c r="AB53" s="70" t="n"/>
       <c r="AC53" s="66">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD53" s="72" t="inlineStr">
@@ -33577,7 +33508,7 @@
     </row>
     <row r="54">
       <c r="A54" s="58" t="n">
-        <v>45282</v>
+        <v>45363</v>
       </c>
       <c r="B54" s="59" t="inlineStr">
         <is>
@@ -33589,14 +33520,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D54" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="64" t="n">
-        <v>1378.45</v>
-      </c>
-      <c r="F54" s="74" t="n">
-        <v>1388.22</v>
+      <c r="D54" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="63" t="n">
+        <v>1234.43</v>
+      </c>
+      <c r="F54" s="63" t="n">
+        <v>9875.43</v>
       </c>
       <c r="G54" s="59" t="inlineStr">
         <is>
@@ -33604,74 +33535,74 @@
         </is>
       </c>
       <c r="H54" s="60" t="n">
-        <v>1.38</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I54" s="63" t="n">
-        <v>8.390000000000001</v>
+        <v>59.72</v>
       </c>
       <c r="J54" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L54" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M54" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N54" s="67">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O54" s="65">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P54" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R54" s="66">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S54" s="68">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T54" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U54" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V54" s="69">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W54" s="69" t="n"/>
       <c r="X54" s="69" t="n"/>
       <c r="Y54" s="68">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z54" s="69" t="n"/>
       <c r="AA54" s="69" t="n"/>
       <c r="AB54" s="70" t="n"/>
       <c r="AC54" s="66">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD54" s="72" t="inlineStr">
@@ -33695,13 +33626,13 @@
         </is>
       </c>
       <c r="D55" s="73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="64" t="n">
-        <v>1378.5</v>
+        <v>1378.45</v>
       </c>
       <c r="F55" s="74" t="n">
-        <v>2776.54</v>
+        <v>1388.22</v>
       </c>
       <c r="G55" s="59" t="inlineStr">
         <is>
@@ -33709,74 +33640,74 @@
         </is>
       </c>
       <c r="H55" s="60" t="n">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="I55" s="63" t="n">
-        <v>16.78</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J55" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L55" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M55" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N55" s="67">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O55" s="65">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P55" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R55" s="66">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S55" s="68">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T55" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U55" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V55" s="69">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W55" s="69" t="n"/>
       <c r="X55" s="69" t="n"/>
       <c r="Y55" s="68">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z55" s="69" t="n"/>
       <c r="AA55" s="69" t="n"/>
       <c r="AB55" s="70" t="n"/>
       <c r="AC55" s="66">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD55" s="72" t="inlineStr">
@@ -33787,7 +33718,7 @@
     </row>
     <row r="56">
       <c r="A56" s="58" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B56" s="59" t="inlineStr">
         <is>
@@ -33803,10 +33734,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="64" t="n">
-        <v>1374.05</v>
+        <v>1378.5</v>
       </c>
       <c r="F56" s="74" t="n">
-        <v>2767.58</v>
+        <v>2776.54</v>
       </c>
       <c r="G56" s="59" t="inlineStr">
         <is>
@@ -33814,74 +33745,74 @@
         </is>
       </c>
       <c r="H56" s="60" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="I56" s="63" t="n">
-        <v>16.73</v>
+        <v>16.78</v>
       </c>
       <c r="J56" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L56" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M56" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N56" s="67">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O56" s="65">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P56" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R56" s="66">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S56" s="68">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T56" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U56" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V56" s="69">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W56" s="69" t="n"/>
       <c r="X56" s="69" t="n"/>
       <c r="Y56" s="68">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z56" s="69" t="n"/>
       <c r="AA56" s="69" t="n"/>
       <c r="AB56" s="70" t="n"/>
       <c r="AC56" s="66">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD56" s="72" t="inlineStr">
@@ -33892,7 +33823,7 @@
     </row>
     <row r="57">
       <c r="A57" s="58" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B57" s="59" t="inlineStr">
         <is>
@@ -33905,13 +33836,13 @@
         </is>
       </c>
       <c r="D57" s="73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="64" t="n">
-        <v>1313.1</v>
+        <v>1374.05</v>
       </c>
       <c r="F57" s="74" t="n">
-        <v>1322.41</v>
+        <v>2767.58</v>
       </c>
       <c r="G57" s="59" t="inlineStr">
         <is>
@@ -33919,74 +33850,74 @@
         </is>
       </c>
       <c r="H57" s="60" t="n">
-        <v>1.31</v>
+        <v>2.75</v>
       </c>
       <c r="I57" s="63" t="n">
-        <v>8</v>
+        <v>16.73</v>
       </c>
       <c r="J57" s="64">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L57" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M57" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N57" s="67">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O57" s="65">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P57" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R57" s="66">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S57" s="68">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T57" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U57" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V57" s="69">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W57" s="69" t="n"/>
       <c r="X57" s="69" t="n"/>
       <c r="Y57" s="68">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z57" s="69" t="n"/>
       <c r="AA57" s="69" t="n"/>
       <c r="AB57" s="70" t="n"/>
       <c r="AC57" s="66">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD57" s="72" t="inlineStr">
@@ -33996,20 +33927,109 @@
       </c>
     </row>
     <row r="58">
-      <c r="E58" s="75" t="n"/>
-      <c r="F58" s="75" t="n"/>
-      <c r="G58" s="76" t="n"/>
-      <c r="J58" s="75" t="n"/>
-      <c r="K58" s="75" t="n"/>
-      <c r="L58" s="75" t="n"/>
-      <c r="M58" s="26" t="n"/>
-      <c r="W58" s="75" t="n"/>
-      <c r="X58" s="75" t="n"/>
-      <c r="Y58" s="75" t="n"/>
-      <c r="Z58" s="75" t="n"/>
-      <c r="AA58" s="75" t="n"/>
-      <c r="AB58" s="75" t="n"/>
-      <c r="AC58" s="75" t="n"/>
+      <c r="A58" s="58" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B58" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C58" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D58" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="64" t="n">
+        <v>1313.1</v>
+      </c>
+      <c r="F58" s="74" t="n">
+        <v>1322.41</v>
+      </c>
+      <c r="G58" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H58" s="60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I58" s="63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" s="64">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K58" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="67">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="65">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="66">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="68">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="69">
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="69" t="n"/>
+      <c r="X58" s="69" t="n"/>
+      <c r="Y58" s="68">
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="69" t="n"/>
+      <c r="AA58" s="69" t="n"/>
+      <c r="AB58" s="70" t="n"/>
+      <c r="AC58" s="66">
+        <f>if(B35="DIV", F35,"")</f>
+        <v/>
+      </c>
+      <c r="AD58" s="72" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="E59" s="75" t="n"/>
@@ -49698,6 +49718,7 @@
       <c r="J1039" s="75" t="n"/>
       <c r="K1039" s="75" t="n"/>
       <c r="L1039" s="75" t="n"/>
+      <c r="M1039" s="26" t="n"/>
       <c r="W1039" s="75" t="n"/>
       <c r="X1039" s="75" t="n"/>
       <c r="Y1039" s="75" t="n"/>
@@ -49945,6 +49966,21 @@
       <c r="AA1055" s="75" t="n"/>
       <c r="AB1055" s="75" t="n"/>
       <c r="AC1055" s="75" t="n"/>
+    </row>
+    <row r="1056">
+      <c r="E1056" s="75" t="n"/>
+      <c r="F1056" s="75" t="n"/>
+      <c r="G1056" s="76" t="n"/>
+      <c r="J1056" s="75" t="n"/>
+      <c r="K1056" s="75" t="n"/>
+      <c r="L1056" s="75" t="n"/>
+      <c r="W1056" s="75" t="n"/>
+      <c r="X1056" s="75" t="n"/>
+      <c r="Y1056" s="75" t="n"/>
+      <c r="Z1056" s="75" t="n"/>
+      <c r="AA1056" s="75" t="n"/>
+      <c r="AB1056" s="75" t="n"/>
+      <c r="AC1056" s="75" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$111"/>

--- a/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
+++ b/dumps/Stocks/Kajaria Ceramics Ltd.xlsx
@@ -29634,7 +29634,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1086"/>
+  <dimension ref="A1:AP1087"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
@@ -29987,36 +29987,46 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="65">
       <c r="A5" s="73" t="n">
-        <v>45842</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1200</v>
+        <v>932.55</v>
       </c>
       <c r="F5" t="n">
-        <v>6000</v>
+        <v>4695.64</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611972212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.6911</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28.2012</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="65">
-      <c r="A6" s="59" t="n">
-        <v>45855</v>
+      <c r="A6" s="73" t="n">
+        <v>45842</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -30029,13 +30039,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>1200</v>
       </c>
       <c r="F6" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -30058,13 +30068,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1200</v>
       </c>
       <c r="F7" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -30116,13 +30126,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>1200</v>
       </c>
       <c r="F9" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -30145,13 +30155,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1200</v>
       </c>
       <c r="F10" t="n">
-        <v>9600</v>
+        <v>1200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -30203,13 +30213,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>1200</v>
       </c>
       <c r="F12" t="n">
-        <v>1200</v>
+        <v>9600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -30290,13 +30300,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1200</v>
       </c>
       <c r="F15" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -30319,13 +30329,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>1200</v>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -30348,13 +30358,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>1200</v>
       </c>
       <c r="F17" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -30377,13 +30387,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>1200</v>
       </c>
       <c r="F18" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -30435,13 +30445,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1200</v>
       </c>
       <c r="F20" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -30464,13 +30474,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>1200</v>
       </c>
       <c r="F21" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -30493,13 +30503,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1200</v>
       </c>
       <c r="F22" t="n">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -30522,13 +30532,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
         <v>1200</v>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -30551,13 +30561,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1200</v>
       </c>
       <c r="F24" t="n">
-        <v>8400</v>
+        <v>1200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -30580,13 +30590,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
         <v>1200</v>
       </c>
       <c r="F25" t="n">
-        <v>2400</v>
+        <v>8400</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -30609,13 +30619,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>1200</v>
       </c>
       <c r="F26" t="n">
-        <v>9600</v>
+        <v>2400</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -30638,13 +30648,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>1200</v>
       </c>
       <c r="F27" t="n">
-        <v>2400</v>
+        <v>9600</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -30667,13 +30677,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>1200</v>
       </c>
       <c r="F28" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -30696,13 +30706,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>1200</v>
       </c>
       <c r="F29" t="n">
-        <v>12000</v>
+        <v>3600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -30783,13 +30793,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
         <v>1200</v>
       </c>
       <c r="F32" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -30812,13 +30822,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
         <v>1200</v>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -30841,13 +30851,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1200</v>
       </c>
       <c r="F34" t="n">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -30857,7 +30867,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="65">
       <c r="A35" s="59" t="n">
-        <v>46062</v>
+        <v>45855</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -30866,38 +30876,31 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>941.7</v>
+        <v>1200</v>
       </c>
       <c r="F35" t="n">
-        <v>4732.05</v>
+        <v>4800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="J35">
-        <f>Index!$C$2</f>
-        <v/>
+          <t>~</t>
+        </is>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="65">
       <c r="A36" s="59" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -30909,18 +30912,18 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>955.76</v>
+        <v>941.7</v>
       </c>
       <c r="F36" t="n">
-        <v>4802.7</v>
+        <v>4732.05</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>23.9</v>
+        <v>23.55</v>
       </c>
       <c r="J36">
         <f>Index!$C$2</f>
@@ -30929,11 +30932,11 @@
     </row>
     <row r="37" ht="15.75" customHeight="1" s="65">
       <c r="A37" s="59" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -30945,18 +30948,18 @@
         <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>917.55</v>
+        <v>955.76</v>
       </c>
       <c r="F37" t="n">
-        <v>4610.7</v>
+        <v>4802.7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>22.95</v>
+        <v>23.9</v>
       </c>
       <c r="J37">
         <f>Index!$C$2</f>
@@ -30965,7 +30968,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1" s="65">
       <c r="A38" s="59" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -30981,18 +30984,18 @@
         <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>911.7</v>
+        <v>917.55</v>
       </c>
       <c r="F38" t="n">
-        <v>4581.3</v>
+        <v>4610.7</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="J38">
         <f>Index!$C$2</f>
@@ -31001,7 +31004,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1" s="65">
       <c r="A39" s="59" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -31017,18 +31020,18 @@
         <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>888.4</v>
+        <v>911.7</v>
       </c>
       <c r="F39" t="n">
-        <v>4464.2</v>
+        <v>4581.3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="J39">
         <f>Index!$C$2</f>
@@ -31037,7 +31040,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1" s="65">
       <c r="A40" s="59" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -31053,18 +31056,18 @@
         <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>920.6</v>
+        <v>888.4</v>
       </c>
       <c r="F40" t="n">
-        <v>4626</v>
+        <v>4464.2</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="J40">
         <f>Index!$C$2</f>
@@ -31073,7 +31076,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1" s="65">
       <c r="A41" s="59" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -31089,18 +31092,18 @@
         <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>964.7</v>
+        <v>920.6</v>
       </c>
       <c r="F41" t="n">
-        <v>4847.6</v>
+        <v>4626</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="J41">
         <f>Index!$C$2</f>
@@ -31109,7 +31112,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1" s="65">
       <c r="A42" s="59" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -31125,18 +31128,18 @@
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>990.85</v>
+        <v>964.7</v>
       </c>
       <c r="F42" t="n">
-        <v>4979</v>
+        <v>4847.6</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>24.75</v>
+        <v>24.1</v>
       </c>
       <c r="J42">
         <f>Index!$C$2</f>
@@ -31145,7 +31148,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1" s="65">
       <c r="A43" s="59" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -31161,18 +31164,18 @@
         <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>978.4</v>
+        <v>990.85</v>
       </c>
       <c r="F43" t="n">
-        <v>4916.45</v>
+        <v>4979</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>24.45</v>
+        <v>24.75</v>
       </c>
       <c r="J43">
         <f>Index!$C$2</f>
@@ -31181,7 +31184,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1" s="65">
       <c r="A44" s="59" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -31197,18 +31200,18 @@
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>1009.5</v>
+        <v>978.4</v>
       </c>
       <c r="F44" t="n">
-        <v>5072.75</v>
+        <v>4916.45</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>25.25</v>
+        <v>24.45</v>
       </c>
       <c r="J44">
         <f>Index!$C$2</f>
@@ -31217,7 +31220,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" s="65">
       <c r="A45" s="59" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -31233,18 +31236,18 @@
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>980.85</v>
+        <v>1009.5</v>
       </c>
       <c r="F45" t="n">
-        <v>4928.75</v>
+        <v>5072.75</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="J45">
         <f>Index!$C$2</f>
@@ -31253,7 +31256,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" s="65">
       <c r="A46" s="59" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -31269,14 +31272,14 @@
         <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>979.7</v>
+        <v>980.85</v>
       </c>
       <c r="F46" t="n">
-        <v>4923</v>
+        <v>4928.75</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CN#252610092927</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -31289,11 +31292,11 @@
     </row>
     <row r="47" ht="15.75" customHeight="1" s="65">
       <c r="A47" s="59" t="n">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -31305,18 +31308,18 @@
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>968</v>
+        <v>979.7</v>
       </c>
       <c r="F47" t="n">
-        <v>4864.2</v>
+        <v>4923</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252610092927</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="J47">
         <f>Index!$C$2</f>
@@ -31325,11 +31328,11 @@
     </row>
     <row r="48" ht="15.75" customHeight="1" s="65">
       <c r="A48" s="59" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -31341,18 +31344,18 @@
         <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>969.9</v>
+        <v>968</v>
       </c>
       <c r="F48" t="n">
-        <v>4873.75</v>
+        <v>4864.2</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>24.25</v>
+        <v>24.2</v>
       </c>
       <c r="J48">
         <f>Index!$C$2</f>
@@ -31361,7 +31364,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" s="65">
       <c r="A49" s="59" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -31374,21 +31377,21 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>973</v>
+        <v>969.9</v>
       </c>
       <c r="F49" t="n">
-        <v>6845.09</v>
+        <v>4873.75</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>34.09</v>
+        <v>24.25</v>
       </c>
       <c r="J49">
         <f>Index!$C$2</f>
@@ -31397,7 +31400,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" s="65">
       <c r="A50" s="59" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -31410,21 +31413,21 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>979.7</v>
+        <v>973</v>
       </c>
       <c r="F50" t="n">
-        <v>984.6</v>
+        <v>6845.09</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4.9</v>
+        <v>34.09</v>
       </c>
       <c r="J50">
         <f>Index!$C$2</f>
@@ -31433,7 +31436,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1" s="65">
       <c r="A51" s="59" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -31446,21 +31449,21 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1038.9</v>
+        <v>979.7</v>
       </c>
       <c r="F51" t="n">
-        <v>5220.45</v>
+        <v>984.6</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>25.95</v>
+        <v>4.9</v>
       </c>
       <c r="J51">
         <f>Index!$C$2</f>
@@ -31469,7 +31472,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" s="65">
       <c r="A52" s="59" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -31485,18 +31488,18 @@
         <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>1077.2</v>
+        <v>1038.9</v>
       </c>
       <c r="F52" t="n">
-        <v>5412.95</v>
+        <v>5220.45</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>26.95</v>
+        <v>25.95</v>
       </c>
       <c r="J52">
         <f>Index!$C$2</f>
@@ -31505,11 +31508,11 @@
     </row>
     <row r="53" ht="15.75" customHeight="1" s="65">
       <c r="A53" s="59" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -31521,18 +31524,18 @@
         <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>1089.65</v>
+        <v>1077.2</v>
       </c>
       <c r="F53" t="n">
-        <v>5475.5</v>
+        <v>5412.95</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>27.25</v>
+        <v>26.95</v>
       </c>
       <c r="J53">
         <f>Index!$C$2</f>
@@ -31541,7 +31544,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1" s="65">
       <c r="A54" s="59" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -31554,21 +31557,21 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>1091.05</v>
+        <v>1089.65</v>
       </c>
       <c r="F54" t="n">
-        <v>2193.02</v>
+        <v>5475.5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>10.92</v>
+        <v>27.25</v>
       </c>
       <c r="J54">
         <f>Index!$C$2</f>
@@ -31577,11 +31580,11 @@
     </row>
     <row r="55" ht="15.75" customHeight="1" s="65">
       <c r="A55" s="59" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -31590,21 +31593,21 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>1023.4</v>
+        <v>1091.05</v>
       </c>
       <c r="F55" t="n">
-        <v>5142.6</v>
+        <v>2193.02</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>25.6</v>
+        <v>10.92</v>
       </c>
       <c r="J55">
         <f>Index!$C$2</f>
@@ -31613,11 +31616,11 @@
     </row>
     <row r="56" ht="15.75" customHeight="1" s="65">
       <c r="A56" s="59" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -31629,18 +31632,18 @@
         <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>1037.75</v>
+        <v>1023.4</v>
       </c>
       <c r="F56" t="n">
-        <v>5214.7</v>
+        <v>5142.6</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>25.95</v>
+        <v>25.6</v>
       </c>
       <c r="J56">
         <f>Index!$C$2</f>
@@ -31649,11 +31652,11 @@
     </row>
     <row r="57" ht="15.75" customHeight="1" s="65">
       <c r="A57" s="59" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -31665,18 +31668,18 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>1047.32</v>
+        <v>1037.75</v>
       </c>
       <c r="F57" t="n">
-        <v>5262.8</v>
+        <v>5214.7</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26.2</v>
+        <v>25.95</v>
       </c>
       <c r="J57">
         <f>Index!$C$2</f>
@@ -31684,114 +31687,44 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="65">
-      <c r="A58" s="42" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B58" s="43" t="inlineStr">
+      <c r="A58" s="59" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C58" s="43" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D58" s="44" t="n">
+      <c r="D58" t="n">
         <v>5</v>
       </c>
-      <c r="E58" s="45" t="n">
-        <v>901.14</v>
-      </c>
-      <c r="F58" s="46">
-        <f>#REF!*#REF! + SUM(#REF!)</f>
-        <v/>
-      </c>
-      <c r="G58" s="43" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H58" s="44" t="n"/>
-      <c r="I58" s="45" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J58" s="47">
+      <c r="E58" t="n">
+        <v>1047.32</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5262.8</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CN#252609039305</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J58">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K58" s="48">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="L58" s="49">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="M58" s="49">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="N58" s="50">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="O58" s="48">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="P58" s="49">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="Q58" s="49">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="R58" s="49">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="S58" s="51">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="T58" s="46">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="U58" s="46">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="V58" s="46">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="46" t="n">
-        <v>1200</v>
-      </c>
-      <c r="X58" s="60" t="n">
-        <v>45842</v>
-      </c>
-      <c r="Y58" s="51" t="n">
-        <v>46.478864</v>
-      </c>
-      <c r="Z58" s="46" t="n">
-        <v>1473.38</v>
-      </c>
-      <c r="AA58" s="46" t="n">
-        <v>5979.08</v>
-      </c>
-      <c r="AB58" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="49" t="n"/>
-      <c r="AD58" s="53" t="n"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="65">
       <c r="A59" s="42" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B59" s="43" t="inlineStr">
         <is>
@@ -31804,99 +31737,95 @@
         </is>
       </c>
       <c r="D59" s="44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" s="45" t="n">
-        <v>891.6799999999999</v>
-      </c>
-      <c r="F59" s="45" t="n">
-        <v>3566.71</v>
+        <v>901.14</v>
+      </c>
+      <c r="F59" s="46">
+        <f>#REF!*#REF! + SUM(#REF!)</f>
+        <v/>
       </c>
       <c r="G59" s="43" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H59" s="44" t="n">
-        <v>3.56</v>
-      </c>
+      <c r="H59" s="44" t="n"/>
       <c r="I59" s="45" t="n">
-        <v>21.55</v>
+        <v>31.7</v>
       </c>
       <c r="J59" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L59" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M59" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N59" s="50">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O59" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P59" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R59" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S59" s="51">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T59" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U59" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V59" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W59" s="46" t="n">
         <v>1200</v>
       </c>
       <c r="X59" s="60" t="n">
-        <v>45855</v>
+        <v>45842</v>
       </c>
       <c r="Y59" s="51" t="n">
-        <v>0.169276</v>
+        <v>46.478864</v>
       </c>
       <c r="Z59" s="46" t="n">
-        <v>608.01</v>
+        <v>1473.38</v>
       </c>
       <c r="AA59" s="46" t="n">
-        <v>2391.37</v>
+        <v>5979.08</v>
       </c>
       <c r="AB59" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC59" s="49">
-        <f>IF(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AC59" s="49" t="n"/>
       <c r="AD59" s="53" t="n"/>
     </row>
     <row r="60" ht="15.75" customHeight="1" s="65">
@@ -31914,13 +31843,13 @@
         </is>
       </c>
       <c r="D60" s="44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E60" s="45" t="n">
         <v>891.6799999999999</v>
       </c>
       <c r="F60" s="45" t="n">
-        <v>891.6799999999999</v>
+        <v>3566.71</v>
       </c>
       <c r="G60" s="43" t="inlineStr">
         <is>
@@ -31928,61 +31857,61 @@
         </is>
       </c>
       <c r="H60" s="44" t="n">
-        <v>0.89</v>
+        <v>3.56</v>
       </c>
       <c r="I60" s="45" t="n">
-        <v>5.39</v>
+        <v>21.55</v>
       </c>
       <c r="J60" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L60" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M60" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N60" s="50">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O60" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P60" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R60" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S60" s="51">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T60" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U60" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V60" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W60" s="46" t="n">
@@ -31992,26 +31921,26 @@
         <v>45855</v>
       </c>
       <c r="Y60" s="51" t="n">
-        <v>0.338545</v>
+        <v>0.169276</v>
       </c>
       <c r="Z60" s="46" t="n">
-        <v>304</v>
+        <v>608.01</v>
       </c>
       <c r="AA60" s="46" t="n">
-        <v>1195.68</v>
+        <v>2391.37</v>
       </c>
       <c r="AB60" s="52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC60" s="49">
-        <f>IF(B6="DIV", F6,"")</f>
+        <f>IF(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD60" s="53" t="n"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="65">
       <c r="A61" s="42" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B61" s="43" t="inlineStr">
         <is>
@@ -32024,13 +31953,13 @@
         </is>
       </c>
       <c r="D61" s="44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61" s="45" t="n">
-        <v>854.46</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="F61" s="45" t="n">
-        <v>4272.28</v>
+        <v>891.6799999999999</v>
       </c>
       <c r="G61" s="43" t="inlineStr">
         <is>
@@ -32038,61 +31967,61 @@
         </is>
       </c>
       <c r="H61" s="44" t="n">
-        <v>4.23</v>
+        <v>0.89</v>
       </c>
       <c r="I61" s="45" t="n">
-        <v>25.8</v>
+        <v>5.39</v>
       </c>
       <c r="J61" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L61" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M61" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N61" s="50">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O61" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P61" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R61" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S61" s="51">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T61" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U61" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V61" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W61" s="46" t="n">
@@ -32102,26 +32031,26 @@
         <v>45855</v>
       </c>
       <c r="Y61" s="51" t="n">
-        <v>0.07919</v>
+        <v>0.338545</v>
       </c>
       <c r="Z61" s="46" t="n">
-        <v>340.7</v>
+        <v>304</v>
       </c>
       <c r="AA61" s="46" t="n">
-        <v>1195.16</v>
+        <v>1195.68</v>
       </c>
       <c r="AB61" s="52" t="n">
         <v>1</v>
       </c>
       <c r="AC61" s="49">
-        <f>IF(B7="DIV", F7,"")</f>
+        <f>IF(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD61" s="53" t="n"/>
     </row>
     <row r="62" ht="15.75" customHeight="1" s="65">
       <c r="A62" s="42" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B62" s="43" t="inlineStr">
         <is>
@@ -32134,13 +32063,13 @@
         </is>
       </c>
       <c r="D62" s="44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E62" s="45" t="n">
-        <v>867.91</v>
+        <v>854.46</v>
       </c>
       <c r="F62" s="45" t="n">
-        <v>8679.07</v>
+        <v>4272.28</v>
       </c>
       <c r="G62" s="43" t="inlineStr">
         <is>
@@ -32148,61 +32077,61 @@
         </is>
       </c>
       <c r="H62" s="44" t="n">
-        <v>8.6</v>
+        <v>4.23</v>
       </c>
       <c r="I62" s="45" t="n">
-        <v>52.47</v>
+        <v>25.8</v>
       </c>
       <c r="J62" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L62" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M62" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N62" s="50">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O62" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P62" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R62" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S62" s="51">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T62" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U62" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V62" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W62" s="46" t="n">
@@ -32212,26 +32141,26 @@
         <v>45855</v>
       </c>
       <c r="Y62" s="51" t="n">
-        <v>0.149856</v>
+        <v>0.07919</v>
       </c>
       <c r="Z62" s="46" t="n">
-        <v>1309.76</v>
+        <v>340.7</v>
       </c>
       <c r="AA62" s="46" t="n">
-        <v>4781.4</v>
+        <v>1195.16</v>
       </c>
       <c r="AB62" s="52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="49">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD62" s="53" t="n"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="65">
       <c r="A63" s="42" t="n">
-        <v>45708</v>
+        <v>45712</v>
       </c>
       <c r="B63" s="43" t="inlineStr">
         <is>
@@ -32247,10 +32176,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="45" t="n">
-        <v>874.63</v>
+        <v>867.91</v>
       </c>
       <c r="F63" s="45" t="n">
-        <v>8746.309999999999</v>
+        <v>8679.07</v>
       </c>
       <c r="G63" s="43" t="inlineStr">
         <is>
@@ -32258,61 +32187,61 @@
         </is>
       </c>
       <c r="H63" s="44" t="n">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
       <c r="I63" s="45" t="n">
-        <v>52.66</v>
+        <v>52.47</v>
       </c>
       <c r="J63" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="48">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L63" s="49">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M63" s="49">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N63" s="50">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O63" s="48">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P63" s="49">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="49">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R63" s="49">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S63" s="51">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T63" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U63" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V63" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W63" s="46" t="n">
@@ -32322,26 +32251,26 @@
         <v>45855</v>
       </c>
       <c r="Y63" s="51" t="n">
-        <v>0.072849</v>
+        <v>0.149856</v>
       </c>
       <c r="Z63" s="46" t="n">
-        <v>641.63</v>
+        <v>1309.76</v>
       </c>
       <c r="AA63" s="46" t="n">
-        <v>2390.89</v>
+        <v>4781.4</v>
       </c>
       <c r="AB63" s="52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC63" s="49">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD63" s="53" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" s="65">
       <c r="A64" s="42" t="n">
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B64" s="43" t="inlineStr">
         <is>
@@ -32357,10 +32286,10 @@
         <v>10</v>
       </c>
       <c r="E64" s="45" t="n">
-        <v>909.41</v>
+        <v>874.63</v>
       </c>
       <c r="F64" s="45" t="n">
-        <v>9094.059999999999</v>
+        <v>8746.309999999999</v>
       </c>
       <c r="G64" s="43" t="inlineStr">
         <is>
@@ -32368,61 +32297,61 @@
         </is>
       </c>
       <c r="H64" s="44" t="n">
-        <v>9.02</v>
+        <v>8.65</v>
       </c>
       <c r="I64" s="45" t="n">
-        <v>55.04</v>
+        <v>52.66</v>
       </c>
       <c r="J64" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="48">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L64" s="49">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M64" s="49">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N64" s="50">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O64" s="48">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P64" s="49">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="49">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R64" s="49">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S64" s="51">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T64" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U64" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V64" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W64" s="46" t="n">
@@ -32432,19 +32361,19 @@
         <v>45855</v>
       </c>
       <c r="Y64" s="51" t="n">
-        <v>0.125145</v>
+        <v>0.072849</v>
       </c>
       <c r="Z64" s="46" t="n">
-        <v>1146.09</v>
+        <v>641.63</v>
       </c>
       <c r="AA64" s="46" t="n">
-        <v>4783.73</v>
+        <v>2390.89</v>
       </c>
       <c r="AB64" s="52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC64" s="49">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD64" s="53" t="n"/>
@@ -32464,13 +32393,13 @@
         </is>
       </c>
       <c r="D65" s="44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E65" s="45" t="n">
-        <v>909.46</v>
+        <v>909.41</v>
       </c>
       <c r="F65" s="45" t="n">
-        <v>2728.37</v>
+        <v>9094.059999999999</v>
       </c>
       <c r="G65" s="43" t="inlineStr">
         <is>
@@ -32478,61 +32407,61 @@
         </is>
       </c>
       <c r="H65" s="44" t="n">
-        <v>2.71</v>
+        <v>9.02</v>
       </c>
       <c r="I65" s="45" t="n">
-        <v>16.51</v>
+        <v>55.04</v>
       </c>
       <c r="J65" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="48">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L65" s="49">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M65" s="49">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N65" s="50">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O65" s="48">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P65" s="49">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="49">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R65" s="49">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S65" s="51">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T65" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U65" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V65" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W65" s="46" t="n">
@@ -32542,26 +32471,26 @@
         <v>45855</v>
       </c>
       <c r="Y65" s="51" t="n">
-        <v>0.31279</v>
+        <v>0.125145</v>
       </c>
       <c r="Z65" s="46" t="n">
-        <v>859.42</v>
+        <v>1146.09</v>
       </c>
       <c r="AA65" s="46" t="n">
-        <v>3587.8</v>
+        <v>4783.73</v>
       </c>
       <c r="AB65" s="52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC65" s="49">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD65" s="53" t="n"/>
     </row>
     <row r="66" ht="15.75" customHeight="1" s="65">
       <c r="A66" s="42" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B66" s="43" t="inlineStr">
         <is>
@@ -32574,13 +32503,13 @@
         </is>
       </c>
       <c r="D66" s="44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" s="45" t="n">
-        <v>918.3200000000001</v>
+        <v>909.46</v>
       </c>
       <c r="F66" s="45" t="n">
-        <v>1836.63</v>
+        <v>2728.37</v>
       </c>
       <c r="G66" s="43" t="inlineStr">
         <is>
@@ -32588,61 +32517,61 @@
         </is>
       </c>
       <c r="H66" s="44" t="n">
-        <v>1.82</v>
+        <v>2.71</v>
       </c>
       <c r="I66" s="45" t="n">
-        <v>11.11</v>
+        <v>16.51</v>
       </c>
       <c r="J66" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="48">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L66" s="49">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M66" s="49">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N66" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O66" s="48">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P66" s="49">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="49">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R66" s="49">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S66" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T66" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U66" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V66" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W66" s="46" t="n">
@@ -32652,19 +32581,19 @@
         <v>45855</v>
       </c>
       <c r="Y66" s="51" t="n">
-        <v>0.300325</v>
+        <v>0.31279</v>
       </c>
       <c r="Z66" s="46" t="n">
-        <v>555.47</v>
+        <v>859.42</v>
       </c>
       <c r="AA66" s="46" t="n">
-        <v>2392.11</v>
+        <v>3587.8</v>
       </c>
       <c r="AB66" s="52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC66" s="49">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD66" s="53" t="n"/>
@@ -32684,13 +32613,13 @@
         </is>
       </c>
       <c r="D67" s="44" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E67" s="45" t="n">
-        <v>918.47</v>
+        <v>918.3200000000001</v>
       </c>
       <c r="F67" s="45" t="n">
-        <v>7347.72</v>
+        <v>1836.63</v>
       </c>
       <c r="G67" s="43" t="inlineStr">
         <is>
@@ -32698,61 +32627,61 @@
         </is>
       </c>
       <c r="H67" s="44" t="n">
-        <v>7.31</v>
+        <v>1.82</v>
       </c>
       <c r="I67" s="45" t="n">
-        <v>44.41</v>
+        <v>11.11</v>
       </c>
       <c r="J67" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="48">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L67" s="49">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M67" s="49">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N67" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O67" s="48">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P67" s="49">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="49">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R67" s="49">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S67" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T67" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U67" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V67" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W67" s="46" t="n">
@@ -32762,26 +32691,26 @@
         <v>45855</v>
       </c>
       <c r="Y67" s="51" t="n">
-        <v>0.112545</v>
+        <v>0.300325</v>
       </c>
       <c r="Z67" s="46" t="n">
-        <v>832.77</v>
+        <v>555.47</v>
       </c>
       <c r="AA67" s="46" t="n">
-        <v>3588.18</v>
+        <v>2392.11</v>
       </c>
       <c r="AB67" s="52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC67" s="49">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD67" s="53" t="n"/>
     </row>
     <row r="68" ht="15.75" customHeight="1" s="65">
       <c r="A68" s="42" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B68" s="43" t="inlineStr">
         <is>
@@ -32794,13 +32723,13 @@
         </is>
       </c>
       <c r="D68" s="44" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E68" s="45" t="n">
-        <v>948.73</v>
+        <v>918.47</v>
       </c>
       <c r="F68" s="45" t="n">
-        <v>1897.46</v>
+        <v>7347.72</v>
       </c>
       <c r="G68" s="43" t="inlineStr">
         <is>
@@ -32808,61 +32737,61 @@
         </is>
       </c>
       <c r="H68" s="44" t="n">
-        <v>1.88</v>
+        <v>7.31</v>
       </c>
       <c r="I68" s="45" t="n">
-        <v>11.48</v>
+        <v>44.41</v>
       </c>
       <c r="J68" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="48">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L68" s="49">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M68" s="49">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N68" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O68" s="48">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P68" s="49">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="49">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R68" s="49">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S68" s="51">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T68" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U68" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V68" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W68" s="46" t="n">
@@ -32872,19 +32801,19 @@
         <v>45855</v>
       </c>
       <c r="Y68" s="51" t="n">
-        <v>0.259313</v>
+        <v>0.112545</v>
       </c>
       <c r="Z68" s="46" t="n">
-        <v>495.5</v>
+        <v>832.77</v>
       </c>
       <c r="AA68" s="46" t="n">
-        <v>2392.96</v>
+        <v>3588.18</v>
       </c>
       <c r="AB68" s="52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC68" s="49">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD68" s="53" t="n"/>
@@ -32904,13 +32833,13 @@
         </is>
       </c>
       <c r="D69" s="44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E69" s="45" t="n">
-        <v>948.48</v>
+        <v>948.73</v>
       </c>
       <c r="F69" s="45" t="n">
-        <v>6639.33</v>
+        <v>1897.46</v>
       </c>
       <c r="G69" s="43" t="inlineStr">
         <is>
@@ -32918,61 +32847,61 @@
         </is>
       </c>
       <c r="H69" s="44" t="n">
-        <v>6.59</v>
+        <v>1.88</v>
       </c>
       <c r="I69" s="45" t="n">
-        <v>40.14</v>
+        <v>11.48</v>
       </c>
       <c r="J69" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="48">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L69" s="49">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M69" s="49">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N69" s="50">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O69" s="48">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P69" s="49">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="49">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R69" s="49">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S69" s="51">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T69" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U69" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V69" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W69" s="46" t="n">
@@ -32982,19 +32911,19 @@
         <v>45855</v>
       </c>
       <c r="Y69" s="51" t="n">
-        <v>0.111276</v>
+        <v>0.259313</v>
       </c>
       <c r="Z69" s="46" t="n">
-        <v>744</v>
+        <v>495.5</v>
       </c>
       <c r="AA69" s="46" t="n">
-        <v>3589.44</v>
+        <v>2392.96</v>
       </c>
       <c r="AB69" s="52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC69" s="49">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD69" s="53" t="n"/>
@@ -33014,13 +32943,13 @@
         </is>
       </c>
       <c r="D70" s="44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E70" s="45" t="n">
-        <v>948.71</v>
+        <v>948.48</v>
       </c>
       <c r="F70" s="45" t="n">
-        <v>948.71</v>
+        <v>6639.33</v>
       </c>
       <c r="G70" s="43" t="inlineStr">
         <is>
@@ -33028,61 +32957,61 @@
         </is>
       </c>
       <c r="H70" s="44" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="I70" s="45" t="n">
-        <v>5.72</v>
+        <v>40.14</v>
       </c>
       <c r="J70" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="48">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L70" s="49">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M70" s="49">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N70" s="50">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O70" s="48">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P70" s="49">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="49">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R70" s="49">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S70" s="51">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T70" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U70" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V70" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W70" s="46" t="n">
@@ -33092,26 +33021,26 @@
         <v>45855</v>
       </c>
       <c r="Y70" s="51" t="n">
-        <v>0.259345</v>
+        <v>0.111276</v>
       </c>
       <c r="Z70" s="46" t="n">
-        <v>247.77</v>
+        <v>744</v>
       </c>
       <c r="AA70" s="46" t="n">
-        <v>1196.48</v>
+        <v>3589.44</v>
       </c>
       <c r="AB70" s="52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC70" s="49">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD70" s="53" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="65">
       <c r="A71" s="42" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B71" s="43" t="inlineStr">
         <is>
@@ -33124,13 +33053,13 @@
         </is>
       </c>
       <c r="D71" s="44" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E71" s="45" t="n">
-        <v>978.6900000000001</v>
+        <v>948.71</v>
       </c>
       <c r="F71" s="45" t="n">
-        <v>9786.860000000001</v>
+        <v>948.71</v>
       </c>
       <c r="G71" s="43" t="inlineStr">
         <is>
@@ -33138,61 +33067,61 @@
         </is>
       </c>
       <c r="H71" s="44" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I71" s="45" t="n">
-        <v>59.16</v>
+        <v>5.72</v>
       </c>
       <c r="J71" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="48">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L71" s="49">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M71" s="49">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N71" s="50">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O71" s="48">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P71" s="49">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="49">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R71" s="49">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S71" s="51">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T71" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U71" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V71" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W71" s="46" t="n">
@@ -33202,26 +33131,26 @@
         <v>45855</v>
       </c>
       <c r="Y71" s="51" t="n">
-        <v>0.044281</v>
+        <v>0.259345</v>
       </c>
       <c r="Z71" s="46" t="n">
-        <v>436.42</v>
+        <v>247.77</v>
       </c>
       <c r="AA71" s="46" t="n">
-        <v>2393.8</v>
+        <v>1196.48</v>
       </c>
       <c r="AB71" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC71" s="49">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD71" s="53" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1" s="65">
       <c r="A72" s="42" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B72" s="43" t="inlineStr">
         <is>
@@ -33234,13 +33163,13 @@
         </is>
       </c>
       <c r="D72" s="44" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E72" s="45" t="n">
-        <v>1019.62</v>
+        <v>978.6900000000001</v>
       </c>
       <c r="F72" s="45" t="n">
-        <v>1019.62</v>
+        <v>9786.860000000001</v>
       </c>
       <c r="G72" s="43" t="inlineStr">
         <is>
@@ -33248,61 +33177,61 @@
         </is>
       </c>
       <c r="H72" s="44" t="n">
-        <v>1.01</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I72" s="45" t="n">
-        <v>6.16</v>
+        <v>59.16</v>
       </c>
       <c r="J72" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="48">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L72" s="49">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M72" s="49">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N72" s="50">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O72" s="48">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P72" s="49">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="49">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R72" s="49">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S72" s="51">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T72" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U72" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V72" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W72" s="46" t="n">
@@ -33312,19 +33241,19 @@
         <v>45855</v>
       </c>
       <c r="Y72" s="51" t="n">
-        <v>0.17321</v>
+        <v>0.044281</v>
       </c>
       <c r="Z72" s="46" t="n">
-        <v>177.85</v>
+        <v>436.42</v>
       </c>
       <c r="AA72" s="46" t="n">
-        <v>1197.47</v>
+        <v>2393.8</v>
       </c>
       <c r="AB72" s="52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC72" s="49">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD72" s="53" t="n"/>
@@ -33344,13 +33273,13 @@
         </is>
       </c>
       <c r="D73" s="44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" s="45" t="n">
-        <v>1019.68</v>
+        <v>1019.62</v>
       </c>
       <c r="F73" s="45" t="n">
-        <v>3059.03</v>
+        <v>1019.62</v>
       </c>
       <c r="G73" s="43" t="inlineStr">
         <is>
@@ -33358,61 +33287,61 @@
         </is>
       </c>
       <c r="H73" s="44" t="n">
-        <v>3.04</v>
+        <v>1.01</v>
       </c>
       <c r="I73" s="45" t="n">
-        <v>18.49</v>
+        <v>6.16</v>
       </c>
       <c r="J73" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="48">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L73" s="49">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M73" s="49">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N73" s="50">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O73" s="48">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P73" s="49">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="49">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R73" s="49">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S73" s="51">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T73" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U73" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V73" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W73" s="46" t="n">
@@ -33422,19 +33351,19 @@
         <v>45855</v>
       </c>
       <c r="Y73" s="51" t="n">
-        <v>0.057717</v>
+        <v>0.17321</v>
       </c>
       <c r="Z73" s="46" t="n">
-        <v>177.8</v>
+        <v>177.85</v>
       </c>
       <c r="AA73" s="46" t="n">
-        <v>1197.48</v>
+        <v>1197.47</v>
       </c>
       <c r="AB73" s="52" t="n">
         <v>1</v>
       </c>
       <c r="AC73" s="49">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD73" s="53" t="n"/>
@@ -33454,13 +33383,13 @@
         </is>
       </c>
       <c r="D74" s="44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" s="45" t="n">
-        <v>1019.42</v>
+        <v>1019.68</v>
       </c>
       <c r="F74" s="45" t="n">
-        <v>1019.42</v>
+        <v>3059.03</v>
       </c>
       <c r="G74" s="43" t="inlineStr">
         <is>
@@ -33468,61 +33397,61 @@
         </is>
       </c>
       <c r="H74" s="44" t="n">
-        <v>1.01</v>
+        <v>3.04</v>
       </c>
       <c r="I74" s="45" t="n">
-        <v>6.16</v>
+        <v>18.49</v>
       </c>
       <c r="J74" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="48">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L74" s="49">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M74" s="49">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N74" s="50">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O74" s="48">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P74" s="49">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="49">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R74" s="49">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S74" s="51">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T74" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U74" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V74" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W74" s="46" t="n">
@@ -33532,19 +33461,19 @@
         <v>45855</v>
       </c>
       <c r="Y74" s="51" t="n">
-        <v>0.173438</v>
+        <v>0.057717</v>
       </c>
       <c r="Z74" s="46" t="n">
-        <v>178.05</v>
+        <v>177.8</v>
       </c>
       <c r="AA74" s="46" t="n">
-        <v>1197.47</v>
+        <v>1197.48</v>
       </c>
       <c r="AB74" s="52" t="n">
         <v>1</v>
       </c>
       <c r="AC74" s="49">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD74" s="53" t="n"/>
@@ -33567,10 +33496,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="45" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="F75" s="45" t="n">
-        <v>1019.62</v>
+        <v>1019.42</v>
       </c>
       <c r="G75" s="43" t="inlineStr">
         <is>
@@ -33588,51 +33517,51 @@
         <v/>
       </c>
       <c r="K75" s="48">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L75" s="49">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M75" s="49">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N75" s="50">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O75" s="48">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P75" s="49">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="49">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R75" s="49">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S75" s="51">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T75" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U75" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V75" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W75" s="46" t="n">
@@ -33642,10 +33571,10 @@
         <v>45855</v>
       </c>
       <c r="Y75" s="51" t="n">
-        <v>0.17321</v>
+        <v>0.173438</v>
       </c>
       <c r="Z75" s="46" t="n">
-        <v>177.85</v>
+        <v>178.05</v>
       </c>
       <c r="AA75" s="46" t="n">
         <v>1197.47</v>
@@ -33654,7 +33583,7 @@
         <v>1</v>
       </c>
       <c r="AC75" s="49">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD75" s="53" t="n"/>
@@ -33674,13 +33603,13 @@
         </is>
       </c>
       <c r="D76" s="44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" s="45" t="n">
         <v>1019.62</v>
       </c>
       <c r="F76" s="45" t="n">
-        <v>4078.47</v>
+        <v>1019.62</v>
       </c>
       <c r="G76" s="43" t="inlineStr">
         <is>
@@ -33688,61 +33617,61 @@
         </is>
       </c>
       <c r="H76" s="44" t="n">
-        <v>4.04</v>
+        <v>1.01</v>
       </c>
       <c r="I76" s="45" t="n">
-        <v>24.63</v>
+        <v>6.16</v>
       </c>
       <c r="J76" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="48">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L76" s="49">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M76" s="49">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N76" s="50">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O76" s="48">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P76" s="49">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="49">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R76" s="49">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S76" s="51">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T76" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U76" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V76" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W76" s="46" t="n">
@@ -33752,26 +33681,26 @@
         <v>45855</v>
       </c>
       <c r="Y76" s="51" t="n">
-        <v>0.086608</v>
+        <v>0.17321</v>
       </c>
       <c r="Z76" s="46" t="n">
-        <v>355.71</v>
+        <v>177.85</v>
       </c>
       <c r="AA76" s="46" t="n">
-        <v>2394.95</v>
+        <v>1197.47</v>
       </c>
       <c r="AB76" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC76" s="49">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD76" s="53" t="n"/>
     </row>
     <row r="77" ht="13" customHeight="1" s="65">
       <c r="A77" s="42" t="n">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="B77" s="43" t="inlineStr">
         <is>
@@ -33784,13 +33713,13 @@
         </is>
       </c>
       <c r="D77" s="44" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E77" s="45" t="n">
-        <v>1115.08</v>
+        <v>1019.62</v>
       </c>
       <c r="F77" s="45" t="n">
-        <v>11150.79</v>
+        <v>4078.47</v>
       </c>
       <c r="G77" s="43" t="inlineStr">
         <is>
@@ -33798,61 +33727,61 @@
         </is>
       </c>
       <c r="H77" s="44" t="n">
-        <v>11</v>
+        <v>4.04</v>
       </c>
       <c r="I77" s="45" t="n">
-        <v>67.79000000000001</v>
+        <v>24.63</v>
       </c>
       <c r="J77" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K77" s="48">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L77" s="49">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M77" s="49">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N77" s="50">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O77" s="48">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P77" s="49">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="49">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R77" s="49">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S77" s="51">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T77" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U77" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V77" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W77" s="46" t="n">
@@ -33862,26 +33791,26 @@
         <v>45855</v>
       </c>
       <c r="Y77" s="51" t="n">
-        <v>0.052194</v>
+        <v>0.086608</v>
       </c>
       <c r="Z77" s="46" t="n">
-        <v>586.12</v>
+        <v>355.71</v>
       </c>
       <c r="AA77" s="46" t="n">
-        <v>8391.68</v>
+        <v>2394.95</v>
       </c>
       <c r="AB77" s="52" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC77" s="49">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD77" s="53" t="n"/>
     </row>
     <row r="78" ht="13" customHeight="1" s="65">
       <c r="A78" s="42" t="n">
-        <v>45621</v>
+        <v>45664</v>
       </c>
       <c r="B78" s="43" t="inlineStr">
         <is>
@@ -33894,13 +33823,13 @@
         </is>
       </c>
       <c r="D78" s="44" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E78" s="45" t="n">
-        <v>1226.32</v>
+        <v>1115.08</v>
       </c>
       <c r="F78" s="45" t="n">
-        <v>2452.64</v>
+        <v>11150.79</v>
       </c>
       <c r="G78" s="43" t="inlineStr">
         <is>
@@ -33908,61 +33837,61 @@
         </is>
       </c>
       <c r="H78" s="44" t="n">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="I78" s="45" t="n">
-        <v>14.86</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="J78" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="48">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L78" s="49">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M78" s="49">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N78" s="50">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O78" s="48">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P78" s="49">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="49">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R78" s="49">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S78" s="51">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T78" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U78" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V78" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W78" s="46" t="n">
@@ -33972,30 +33901,30 @@
         <v>45855</v>
       </c>
       <c r="Y78" s="51" t="n">
-        <v>-0.021012</v>
+        <v>0.052194</v>
       </c>
       <c r="Z78" s="46" t="n">
-        <v>-51.9</v>
+        <v>586.12</v>
       </c>
       <c r="AA78" s="46" t="n">
-        <v>2400.74</v>
+        <v>8391.68</v>
       </c>
       <c r="AB78" s="52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC78" s="49">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD78" s="53" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1" s="65">
       <c r="A79" s="42" t="n">
-        <v>45534</v>
+        <v>45621</v>
       </c>
       <c r="B79" s="43" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C79" s="43" t="inlineStr">
@@ -34004,99 +33933,108 @@
         </is>
       </c>
       <c r="D79" s="44" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E79" s="45" t="n">
-        <v>6</v>
+        <v>1226.32</v>
       </c>
       <c r="F79" s="45" t="n">
-        <v>150</v>
+        <v>2452.64</v>
       </c>
       <c r="G79" s="43" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H79" s="44" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="I79" s="45" t="n">
-        <v>0</v>
+        <v>14.86</v>
       </c>
       <c r="J79" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="48">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L79" s="49">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M79" s="49">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N79" s="50">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O79" s="48">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P79" s="49">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="49">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R79" s="49">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S79" s="51">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T79" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U79" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V79" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
-        <v/>
-      </c>
-      <c r="W79" s="46" t="n"/>
-      <c r="X79" s="46" t="n"/>
-      <c r="Y79" s="51">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
-        <v/>
-      </c>
-      <c r="Z79" s="46" t="n"/>
-      <c r="AA79" s="46" t="n"/>
-      <c r="AB79" s="52" t="n"/>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W79" s="46" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X79" s="60" t="n">
+        <v>45855</v>
+      </c>
+      <c r="Y79" s="51" t="n">
+        <v>-0.021012</v>
+      </c>
+      <c r="Z79" s="46" t="n">
+        <v>-51.9</v>
+      </c>
+      <c r="AA79" s="46" t="n">
+        <v>2400.74</v>
+      </c>
+      <c r="AB79" s="52" t="n">
+        <v>2</v>
+      </c>
       <c r="AC79" s="49">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD79" s="53" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1" s="65">
       <c r="A80" s="42" t="n">
-        <v>45379</v>
+        <v>45534</v>
       </c>
       <c r="B80" s="43" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C80" s="43" t="inlineStr">
@@ -34105,104 +34043,91 @@
         </is>
       </c>
       <c r="D80" s="44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E80" s="45" t="n">
-        <v>1155.21</v>
+        <v>6</v>
       </c>
       <c r="F80" s="45" t="n">
-        <v>1155.21</v>
+        <v>150</v>
       </c>
       <c r="G80" s="43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.6.0000/- per share on Ex-Date: 30-AUG-2024</t>
         </is>
       </c>
       <c r="H80" s="44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="45" t="n">
-        <v>7.16</v>
+        <v>0</v>
       </c>
       <c r="J80" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="48">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L80" s="49">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M80" s="49">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N80" s="50">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O80" s="48">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P80" s="49">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="49">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R80" s="49">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S80" s="51">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T80" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U80" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V80" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W80" s="46" t="n">
-        <v>1200</v>
-      </c>
-      <c r="X80" s="60" t="n">
-        <v>45855</v>
-      </c>
-      <c r="Y80" s="51" t="n">
-        <v>0.037959</v>
-      </c>
-      <c r="Z80" s="46" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="AA80" s="46" t="n">
-        <v>1199.37</v>
-      </c>
-      <c r="AB80" s="52" t="n">
-        <v>1</v>
-      </c>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W80" s="46" t="n"/>
+      <c r="X80" s="46" t="n"/>
+      <c r="Y80" s="51">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z80" s="46" t="n"/>
+      <c r="AA80" s="46" t="n"/>
+      <c r="AB80" s="52" t="n"/>
       <c r="AC80" s="49">
-        <f>IF(B26="DIV", F26,"")</f>
-        <v/>
-      </c>
-      <c r="AD80" s="54" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(B25="DIV", F25,"")</f>
+        <v/>
+      </c>
+      <c r="AD80" s="53" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1" s="65">
       <c r="A81" s="42" t="n">
@@ -34222,10 +34147,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="45" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="F81" s="45" t="n">
-        <v>1155.25</v>
+        <v>1155.21</v>
       </c>
       <c r="G81" s="43" t="inlineStr">
         <is>
@@ -34236,58 +34161,58 @@
         <v>1</v>
       </c>
       <c r="I81" s="45" t="n">
-        <v>7.15</v>
+        <v>7.16</v>
       </c>
       <c r="J81" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="48">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L81" s="49">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M81" s="49">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N81" s="50">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O81" s="48">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P81" s="49">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="49">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R81" s="49">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S81" s="51">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T81" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U81" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V81" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W81" s="46" t="n">
@@ -34297,10 +34222,10 @@
         <v>45855</v>
       </c>
       <c r="Y81" s="51" t="n">
-        <v>0.037923</v>
+        <v>0.037959</v>
       </c>
       <c r="Z81" s="46" t="n">
-        <v>44.12</v>
+        <v>44.16</v>
       </c>
       <c r="AA81" s="46" t="n">
         <v>1199.37</v>
@@ -34309,7 +34234,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="49">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD81" s="54" t="inlineStr">
@@ -34357,51 +34282,51 @@
         <v/>
       </c>
       <c r="K82" s="48">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L82" s="49">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M82" s="49">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N82" s="50">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O82" s="48">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P82" s="49">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="49">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R82" s="49">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S82" s="51">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T82" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U82" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V82" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W82" s="46" t="n">
@@ -34423,7 +34348,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="49">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD82" s="54" t="inlineStr">
@@ -34434,7 +34359,7 @@
     </row>
     <row r="83" ht="13" customHeight="1" s="65">
       <c r="A83" s="42" t="n">
-        <v>45364</v>
+        <v>45379</v>
       </c>
       <c r="B83" s="43" t="inlineStr">
         <is>
@@ -34447,13 +34372,13 @@
         </is>
       </c>
       <c r="D83" s="44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E83" s="45" t="n">
-        <v>1244.56</v>
+        <v>1155.25</v>
       </c>
       <c r="F83" s="45" t="n">
-        <v>9956.469999999999</v>
+        <v>1155.25</v>
       </c>
       <c r="G83" s="43" t="inlineStr">
         <is>
@@ -34461,61 +34386,61 @@
         </is>
       </c>
       <c r="H83" s="44" t="n">
-        <v>9.859999999999999</v>
+        <v>1</v>
       </c>
       <c r="I83" s="45" t="n">
-        <v>60.21</v>
+        <v>7.15</v>
       </c>
       <c r="J83" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="48">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L83" s="49">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M83" s="49">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N83" s="50">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O83" s="48">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P83" s="49">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="49">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R83" s="49">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S83" s="51">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T83" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U83" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V83" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W83" s="46" t="n">
@@ -34525,19 +34450,19 @@
         <v>45855</v>
       </c>
       <c r="Y83" s="51" t="n">
-        <v>-0.008763999999999999</v>
+        <v>0.037923</v>
       </c>
       <c r="Z83" s="46" t="n">
-        <v>-87.87</v>
+        <v>44.12</v>
       </c>
       <c r="AA83" s="46" t="n">
-        <v>2401.25</v>
+        <v>1199.37</v>
       </c>
       <c r="AB83" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC83" s="49">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD83" s="54" t="inlineStr">
@@ -34548,7 +34473,7 @@
     </row>
     <row r="84" ht="13" customHeight="1" s="65">
       <c r="A84" s="42" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B84" s="43" t="inlineStr">
         <is>
@@ -34564,10 +34489,10 @@
         <v>8</v>
       </c>
       <c r="E84" s="45" t="n">
-        <v>1234.43</v>
+        <v>1244.56</v>
       </c>
       <c r="F84" s="45" t="n">
-        <v>9875.43</v>
+        <v>9956.469999999999</v>
       </c>
       <c r="G84" s="43" t="inlineStr">
         <is>
@@ -34575,61 +34500,61 @@
         </is>
       </c>
       <c r="H84" s="44" t="n">
-        <v>9.710000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I84" s="45" t="n">
-        <v>59.72</v>
+        <v>60.21</v>
       </c>
       <c r="J84" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="48">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L84" s="49">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M84" s="49">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N84" s="50">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O84" s="48">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P84" s="49">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="49">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R84" s="49">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S84" s="51">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T84" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U84" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V84" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W84" s="46" t="n">
@@ -34639,19 +34564,19 @@
         <v>45855</v>
       </c>
       <c r="Y84" s="51" t="n">
-        <v>-0.013654</v>
+        <v>-0.008763999999999999</v>
       </c>
       <c r="Z84" s="46" t="n">
-        <v>-135.79</v>
+        <v>-87.87</v>
       </c>
       <c r="AA84" s="46" t="n">
-        <v>4801.93</v>
+        <v>2401.25</v>
       </c>
       <c r="AB84" s="52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC84" s="49">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD84" s="54" t="inlineStr">
@@ -34662,7 +34587,7 @@
     </row>
     <row r="85" ht="13" customHeight="1" s="65">
       <c r="A85" s="42" t="n">
-        <v>45282</v>
+        <v>45363</v>
       </c>
       <c r="B85" s="43" t="inlineStr">
         <is>
@@ -34674,14 +34599,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D85" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="47" t="n">
-        <v>1378.45</v>
-      </c>
-      <c r="F85" s="56" t="n">
-        <v>1388.22</v>
+      <c r="D85" s="44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E85" s="45" t="n">
+        <v>1234.43</v>
+      </c>
+      <c r="F85" s="45" t="n">
+        <v>9875.43</v>
       </c>
       <c r="G85" s="43" t="inlineStr">
         <is>
@@ -34689,61 +34614,61 @@
         </is>
       </c>
       <c r="H85" s="44" t="n">
-        <v>1.38</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I85" s="45" t="n">
-        <v>8.390000000000001</v>
+        <v>59.72</v>
       </c>
       <c r="J85" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="48">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L85" s="49">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M85" s="49">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N85" s="50">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O85" s="48">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P85" s="49">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="49">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R85" s="49">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S85" s="51">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T85" s="46">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U85" s="46">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V85" s="46">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W85" s="46" t="n">
@@ -34753,19 +34678,19 @@
         <v>45855</v>
       </c>
       <c r="Y85" s="51" t="n">
-        <v>-0.125859</v>
+        <v>-0.013654</v>
       </c>
       <c r="Z85" s="46" t="n">
-        <v>-175.95</v>
+        <v>-135.79</v>
       </c>
       <c r="AA85" s="46" t="n">
-        <v>1202.5</v>
+        <v>4801.93</v>
       </c>
       <c r="AB85" s="52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC85" s="49">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD85" s="54" t="inlineStr">
@@ -34789,13 +34714,13 @@
         </is>
       </c>
       <c r="D86" s="55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="47" t="n">
-        <v>1378.5</v>
+        <v>1378.45</v>
       </c>
       <c r="F86" s="56" t="n">
-        <v>2776.54</v>
+        <v>1388.22</v>
       </c>
       <c r="G86" s="43" t="inlineStr">
         <is>
@@ -34803,61 +34728,61 @@
         </is>
       </c>
       <c r="H86" s="44" t="n">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="I86" s="45" t="n">
-        <v>16.78</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J86" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="48">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L86" s="49">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M86" s="49">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N86" s="50">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O86" s="48">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P86" s="49">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="49">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R86" s="49">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S86" s="51">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T86" s="46">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U86" s="46">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V86" s="46">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W86" s="46" t="n">
@@ -34867,10 +34792,10 @@
         <v>45855</v>
       </c>
       <c r="Y86" s="51" t="n">
-        <v>-0.062945</v>
+        <v>-0.125859</v>
       </c>
       <c r="Z86" s="46" t="n">
-        <v>-176</v>
+        <v>-175.95</v>
       </c>
       <c r="AA86" s="46" t="n">
         <v>1202.5</v>
@@ -34879,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="49">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD86" s="54" t="inlineStr">
@@ -34890,7 +34815,7 @@
     </row>
     <row r="87" ht="13" customHeight="1" s="65">
       <c r="A87" s="42" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B87" s="43" t="inlineStr">
         <is>
@@ -34906,10 +34831,10 @@
         <v>2</v>
       </c>
       <c r="E87" s="47" t="n">
-        <v>1374.05</v>
+        <v>1378.5</v>
       </c>
       <c r="F87" s="56" t="n">
-        <v>2767.58</v>
+        <v>2776.54</v>
       </c>
       <c r="G87" s="43" t="inlineStr">
         <is>
@@ -34917,61 +34842,61 @@
         </is>
       </c>
       <c r="H87" s="44" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="I87" s="45" t="n">
-        <v>16.73</v>
+        <v>16.78</v>
       </c>
       <c r="J87" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="48">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L87" s="49">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M87" s="49">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N87" s="50">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O87" s="48">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P87" s="49">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="49">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R87" s="49">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S87" s="51">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T87" s="46">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U87" s="46">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V87" s="46">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W87" s="46" t="n">
@@ -34981,19 +34906,19 @@
         <v>45855</v>
       </c>
       <c r="Y87" s="51" t="n">
-        <v>-0.123151</v>
+        <v>-0.062945</v>
       </c>
       <c r="Z87" s="46" t="n">
-        <v>-343.23</v>
+        <v>-176</v>
       </c>
       <c r="AA87" s="46" t="n">
-        <v>2404.87</v>
+        <v>1202.5</v>
       </c>
       <c r="AB87" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="49">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD87" s="54" t="inlineStr">
@@ -35004,7 +34929,7 @@
     </row>
     <row r="88" ht="13" customHeight="1" s="65">
       <c r="A88" s="42" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B88" s="43" t="inlineStr">
         <is>
@@ -35017,13 +34942,13 @@
         </is>
       </c>
       <c r="D88" s="55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="47" t="n">
-        <v>1313.1</v>
+        <v>1374.05</v>
       </c>
       <c r="F88" s="56" t="n">
-        <v>1322.41</v>
+        <v>2767.58</v>
       </c>
       <c r="G88" s="43" t="inlineStr">
         <is>
@@ -35031,61 +34956,61 @@
         </is>
       </c>
       <c r="H88" s="44" t="n">
-        <v>1.31</v>
+        <v>2.75</v>
       </c>
       <c r="I88" s="45" t="n">
-        <v>8</v>
+        <v>16.73</v>
       </c>
       <c r="J88" s="47">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="48">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L88" s="49">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M88" s="49">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N88" s="50">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O88" s="48">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P88" s="49">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="49">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R88" s="49">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S88" s="51">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T88" s="46">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U88" s="46">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V88" s="46">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W88" s="46" t="n">
@@ -35095,42 +35020,140 @@
         <v>45855</v>
       </c>
       <c r="Y88" s="51" t="n">
+        <v>-0.123151</v>
+      </c>
+      <c r="Z88" s="46" t="n">
+        <v>-343.23</v>
+      </c>
+      <c r="AA88" s="46" t="n">
+        <v>2404.87</v>
+      </c>
+      <c r="AB88" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC88" s="49">
+        <f>IF(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
+      <c r="AD88" s="54" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="13" customHeight="1" s="65">
+      <c r="A89" s="42" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B89" s="43" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C89" s="43" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D89" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="47" t="n">
+        <v>1313.1</v>
+      </c>
+      <c r="F89" s="56" t="n">
+        <v>1322.41</v>
+      </c>
+      <c r="G89" s="43" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H89" s="44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I89" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" s="47">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K89" s="48">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <v/>
+      </c>
+      <c r="L89" s="49">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <v/>
+      </c>
+      <c r="M89" s="49">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <v/>
+      </c>
+      <c r="N89" s="50">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <v/>
+      </c>
+      <c r="O89" s="48">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <v/>
+      </c>
+      <c r="P89" s="49">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <v/>
+      </c>
+      <c r="Q89" s="49">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <v/>
+      </c>
+      <c r="R89" s="49">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <v/>
+      </c>
+      <c r="S89" s="51">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <v/>
+      </c>
+      <c r="T89" s="46">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <v/>
+      </c>
+      <c r="U89" s="46">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <v/>
+      </c>
+      <c r="V89" s="46">
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <v/>
+      </c>
+      <c r="W89" s="46" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X89" s="60" t="n">
+        <v>45855</v>
+      </c>
+      <c r="Y89" s="51" t="n">
         <v>-0.083741</v>
       </c>
-      <c r="Z88" s="46" t="n">
+      <c r="Z89" s="46" t="n">
         <v>-111.52</v>
       </c>
-      <c r="AA88" s="46" t="n">
+      <c r="AA89" s="46" t="n">
         <v>1201.58</v>
       </c>
-      <c r="AB88" s="52" t="n">
+      <c r="AB89" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="AC88" s="49">
+      <c r="AC89" s="49">
         <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
-      <c r="AD88" s="54" t="inlineStr">
+      <c r="AD89" s="54" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="89" ht="13" customHeight="1" s="65">
-      <c r="E89" s="57" t="n"/>
-      <c r="F89" s="57" t="n"/>
-      <c r="G89" s="58" t="n"/>
-      <c r="J89" s="57" t="n"/>
-      <c r="K89" s="57" t="n"/>
-      <c r="L89" s="57" t="n"/>
-      <c r="M89" s="1" t="n"/>
-      <c r="W89" s="57" t="n"/>
-      <c r="X89" s="57" t="n"/>
-      <c r="Y89" s="57" t="n"/>
-      <c r="Z89" s="57" t="n"/>
-      <c r="AA89" s="57" t="n"/>
-      <c r="AB89" s="57" t="n"/>
-      <c r="AC89" s="57" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1" s="65">
       <c r="E90" s="57" t="n"/>
@@ -50819,6 +50842,7 @@
       <c r="J1070" s="57" t="n"/>
       <c r="K1070" s="57" t="n"/>
       <c r="L1070" s="57" t="n"/>
+      <c r="M1070" s="1" t="n"/>
       <c r="W1070" s="57" t="n"/>
       <c r="X1070" s="57" t="n"/>
       <c r="Y1070" s="57" t="n"/>
@@ -51066,6 +51090,21 @@
       <c r="AA1086" s="57" t="n"/>
       <c r="AB1086" s="57" t="n"/>
       <c r="AC1086" s="57" t="n"/>
+    </row>
+    <row r="1087">
+      <c r="E1087" s="57" t="n"/>
+      <c r="F1087" s="57" t="n"/>
+      <c r="G1087" s="58" t="n"/>
+      <c r="J1087" s="57" t="n"/>
+      <c r="K1087" s="57" t="n"/>
+      <c r="L1087" s="57" t="n"/>
+      <c r="W1087" s="57" t="n"/>
+      <c r="X1087" s="57" t="n"/>
+      <c r="Y1087" s="57" t="n"/>
+      <c r="Z1087" s="57" t="n"/>
+      <c r="AA1087" s="57" t="n"/>
+      <c r="AB1087" s="57" t="n"/>
+      <c r="AC1087" s="57" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO110"/>
